--- a/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>GGAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,124 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>484200</v>
+        <v>483900</v>
       </c>
       <c r="E8" s="3">
-        <v>387800</v>
+        <v>428900</v>
       </c>
       <c r="F8" s="3">
-        <v>363400</v>
+        <v>343500</v>
       </c>
       <c r="G8" s="3">
-        <v>376200</v>
+        <v>321800</v>
       </c>
       <c r="H8" s="3">
-        <v>307300</v>
+        <v>333200</v>
       </c>
       <c r="I8" s="3">
-        <v>219400</v>
+        <v>272200</v>
       </c>
       <c r="J8" s="3">
+        <v>194300</v>
+      </c>
+      <c r="K8" s="3">
         <v>182800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>229300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>197700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>372300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>208700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>213100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>197300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,52 +1032,58 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-10700</v>
+        <v>-10400</v>
       </c>
       <c r="E15" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J15" s="3">
         <v>-10500</v>
       </c>
-      <c r="F15" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-9700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-8500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-10100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-21900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-16300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-7300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>404700</v>
+        <v>338500</v>
       </c>
       <c r="E17" s="3">
-        <v>412500</v>
+        <v>358400</v>
       </c>
       <c r="F17" s="3">
-        <v>418800</v>
+        <v>365300</v>
       </c>
       <c r="G17" s="3">
-        <v>323700</v>
+        <v>370900</v>
       </c>
       <c r="H17" s="3">
-        <v>226000</v>
+        <v>286700</v>
       </c>
       <c r="I17" s="3">
-        <v>147500</v>
+        <v>200200</v>
       </c>
       <c r="J17" s="3">
+        <v>130600</v>
+      </c>
+      <c r="K17" s="3">
         <v>107600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>128500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>109500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>220900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>124300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>131500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>135000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>79500</v>
+        <v>145400</v>
       </c>
       <c r="E18" s="3">
-        <v>-24700</v>
+        <v>70400</v>
       </c>
       <c r="F18" s="3">
-        <v>-55400</v>
+        <v>-21900</v>
       </c>
       <c r="G18" s="3">
-        <v>52500</v>
+        <v>-49100</v>
       </c>
       <c r="H18" s="3">
-        <v>81300</v>
+        <v>46500</v>
       </c>
       <c r="I18" s="3">
-        <v>71900</v>
+        <v>72000</v>
       </c>
       <c r="J18" s="3">
+        <v>63700</v>
+      </c>
+      <c r="K18" s="3">
         <v>75200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>88100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>151400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>84400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>81600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>62200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1210,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>153600</v>
+        <v>21300</v>
       </c>
       <c r="E20" s="3">
-        <v>239200</v>
+        <v>136000</v>
       </c>
       <c r="F20" s="3">
-        <v>263000</v>
+        <v>211900</v>
       </c>
       <c r="G20" s="3">
-        <v>52600</v>
+        <v>232900</v>
       </c>
       <c r="H20" s="3">
-        <v>22900</v>
+        <v>46600</v>
       </c>
       <c r="I20" s="3">
-        <v>-4700</v>
+        <v>20300</v>
       </c>
       <c r="J20" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-16500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>243800</v>
+        <v>177100</v>
       </c>
       <c r="E21" s="3">
-        <v>225000</v>
+        <v>216000</v>
       </c>
       <c r="F21" s="3">
-        <v>217000</v>
+        <v>199300</v>
       </c>
       <c r="G21" s="3">
-        <v>111000</v>
+        <v>192100</v>
       </c>
       <c r="H21" s="3">
-        <v>109100</v>
+        <v>98300</v>
       </c>
       <c r="I21" s="3">
-        <v>71800</v>
+        <v>96600</v>
       </c>
       <c r="J21" s="3">
+        <v>63600</v>
+      </c>
+      <c r="K21" s="3">
         <v>78200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>92200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>95400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>146400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>78300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>75700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1349,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>233100</v>
+        <v>166700</v>
       </c>
       <c r="E23" s="3">
-        <v>214500</v>
+        <v>206500</v>
       </c>
       <c r="F23" s="3">
-        <v>207600</v>
+        <v>190000</v>
       </c>
       <c r="G23" s="3">
-        <v>105200</v>
+        <v>183800</v>
       </c>
       <c r="H23" s="3">
-        <v>104200</v>
+        <v>93100</v>
       </c>
       <c r="I23" s="3">
-        <v>67200</v>
+        <v>92300</v>
       </c>
       <c r="J23" s="3">
+        <v>59500</v>
+      </c>
+      <c r="K23" s="3">
         <v>74000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>92000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>89100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>134900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>72100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>75400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>37900</v>
+        <v>24400</v>
       </c>
       <c r="E24" s="3">
-        <v>20000</v>
+        <v>33500</v>
       </c>
       <c r="F24" s="3">
-        <v>55200</v>
+        <v>17700</v>
       </c>
       <c r="G24" s="3">
-        <v>32100</v>
+        <v>48900</v>
       </c>
       <c r="H24" s="3">
-        <v>32800</v>
+        <v>28400</v>
       </c>
       <c r="I24" s="3">
-        <v>19300</v>
+        <v>29000</v>
       </c>
       <c r="J24" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K24" s="3">
         <v>22800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>22700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>36200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>40500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>25800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>25600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>195300</v>
+        <v>142300</v>
       </c>
       <c r="E26" s="3">
-        <v>194500</v>
+        <v>173000</v>
       </c>
       <c r="F26" s="3">
-        <v>152300</v>
+        <v>172300</v>
       </c>
       <c r="G26" s="3">
-        <v>73100</v>
+        <v>134900</v>
       </c>
       <c r="H26" s="3">
-        <v>71400</v>
+        <v>64800</v>
       </c>
       <c r="I26" s="3">
-        <v>47900</v>
+        <v>63200</v>
       </c>
       <c r="J26" s="3">
+        <v>42400</v>
+      </c>
+      <c r="K26" s="3">
         <v>51200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>69300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>52900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>94400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>46400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>49900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>191400</v>
+        <v>137000</v>
       </c>
       <c r="E27" s="3">
-        <v>191400</v>
+        <v>169500</v>
       </c>
       <c r="F27" s="3">
-        <v>149400</v>
+        <v>169500</v>
       </c>
       <c r="G27" s="3">
-        <v>73200</v>
+        <v>132300</v>
       </c>
       <c r="H27" s="3">
-        <v>69600</v>
+        <v>64800</v>
       </c>
       <c r="I27" s="3">
-        <v>46000</v>
+        <v>61700</v>
       </c>
       <c r="J27" s="3">
+        <v>40700</v>
+      </c>
+      <c r="K27" s="3">
         <v>48800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>65400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>48700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>88100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>42200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>46400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,8 +1648,8 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1598,28 +1658,31 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>900</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-4300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-4900</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-153600</v>
+        <v>-21300</v>
       </c>
       <c r="E32" s="3">
-        <v>-239200</v>
+        <v>-136000</v>
       </c>
       <c r="F32" s="3">
-        <v>-263000</v>
+        <v>-211900</v>
       </c>
       <c r="G32" s="3">
-        <v>-52600</v>
+        <v>-232900</v>
       </c>
       <c r="H32" s="3">
-        <v>-22900</v>
+        <v>-46600</v>
       </c>
       <c r="I32" s="3">
-        <v>4700</v>
+        <v>-20300</v>
       </c>
       <c r="J32" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>16500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>191400</v>
+        <v>137000</v>
       </c>
       <c r="E33" s="3">
-        <v>191400</v>
+        <v>169500</v>
       </c>
       <c r="F33" s="3">
-        <v>149400</v>
+        <v>169500</v>
       </c>
       <c r="G33" s="3">
-        <v>73200</v>
+        <v>132300</v>
       </c>
       <c r="H33" s="3">
-        <v>69600</v>
+        <v>64800</v>
       </c>
       <c r="I33" s="3">
-        <v>46000</v>
+        <v>61700</v>
       </c>
       <c r="J33" s="3">
+        <v>40700</v>
+      </c>
+      <c r="K33" s="3">
         <v>49700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>65400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>48700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>83900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>37400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>46400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>191400</v>
+        <v>137000</v>
       </c>
       <c r="E35" s="3">
-        <v>191400</v>
+        <v>169500</v>
       </c>
       <c r="F35" s="3">
-        <v>149400</v>
+        <v>169500</v>
       </c>
       <c r="G35" s="3">
-        <v>73200</v>
+        <v>132300</v>
       </c>
       <c r="H35" s="3">
-        <v>69600</v>
+        <v>64800</v>
       </c>
       <c r="I35" s="3">
-        <v>46000</v>
+        <v>61700</v>
       </c>
       <c r="J35" s="3">
+        <v>40700</v>
+      </c>
+      <c r="K35" s="3">
         <v>49700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>65400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>48700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>83900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>37400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>46400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,96 +2052,103 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1736900</v>
+        <v>1878200</v>
       </c>
       <c r="E41" s="3">
-        <v>2056200</v>
+        <v>1538300</v>
       </c>
       <c r="F41" s="3">
-        <v>2141900</v>
+        <v>1821100</v>
       </c>
       <c r="G41" s="3">
-        <v>2320500</v>
+        <v>1897000</v>
       </c>
       <c r="H41" s="3">
-        <v>1872700</v>
+        <v>2055200</v>
       </c>
       <c r="I41" s="3">
-        <v>1498900</v>
+        <v>1658600</v>
       </c>
       <c r="J41" s="3">
+        <v>1327500</v>
+      </c>
+      <c r="K41" s="3">
         <v>759000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1429900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>894100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>822600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1623000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1625000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>791700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2352500</v>
+        <v>1907700</v>
       </c>
       <c r="E42" s="3">
-        <v>3043900</v>
+        <v>2083500</v>
       </c>
       <c r="F42" s="3">
-        <v>2578000</v>
+        <v>2695900</v>
       </c>
       <c r="G42" s="3">
-        <v>1786500</v>
+        <v>2283300</v>
       </c>
       <c r="H42" s="3">
-        <v>1145100</v>
+        <v>1582300</v>
       </c>
       <c r="I42" s="3">
-        <v>289000</v>
+        <v>1014200</v>
       </c>
       <c r="J42" s="3">
+        <v>256000</v>
+      </c>
+      <c r="K42" s="3">
         <v>229600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2013000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>717600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>621300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>910600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>226700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>320200</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2285,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,140 +2332,152 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>41200</v>
+        <v>36600</v>
       </c>
       <c r="E47" s="3">
-        <v>39200</v>
+        <v>36400</v>
       </c>
       <c r="F47" s="3">
-        <v>41600</v>
+        <v>34700</v>
       </c>
       <c r="G47" s="3">
-        <v>2700</v>
+        <v>36800</v>
       </c>
       <c r="H47" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="I47" s="3">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="J47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K47" s="3">
         <v>600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7100</v>
-      </c>
-      <c r="O47" s="3">
-        <v>1400</v>
       </c>
       <c r="P47" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>229600</v>
+        <v>206200</v>
       </c>
       <c r="E48" s="3">
-        <v>230200</v>
+        <v>203300</v>
       </c>
       <c r="F48" s="3">
-        <v>232200</v>
+        <v>203900</v>
       </c>
       <c r="G48" s="3">
-        <v>179900</v>
+        <v>205700</v>
       </c>
       <c r="H48" s="3">
-        <v>173900</v>
+        <v>159400</v>
       </c>
       <c r="I48" s="3">
-        <v>165900</v>
+        <v>154000</v>
       </c>
       <c r="J48" s="3">
+        <v>146900</v>
+      </c>
+      <c r="K48" s="3">
         <v>163700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>333600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>101200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>98000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>336500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>100000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>90400</v>
+        <v>80600</v>
       </c>
       <c r="E49" s="3">
-        <v>80300</v>
+        <v>80000</v>
       </c>
       <c r="F49" s="3">
-        <v>70300</v>
+        <v>71100</v>
       </c>
       <c r="G49" s="3">
-        <v>61900</v>
+        <v>62300</v>
       </c>
       <c r="H49" s="3">
-        <v>18400</v>
+        <v>54800</v>
       </c>
       <c r="I49" s="3">
-        <v>18000</v>
+        <v>16300</v>
       </c>
       <c r="J49" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K49" s="3">
         <v>17800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>102800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>71400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>65400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>91900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>67600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2567,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>74600</v>
+        <v>106500</v>
       </c>
       <c r="E52" s="3">
-        <v>51900</v>
+        <v>66100</v>
       </c>
       <c r="F52" s="3">
-        <v>18300</v>
+        <v>46000</v>
       </c>
       <c r="G52" s="3">
-        <v>21000</v>
+        <v>16200</v>
       </c>
       <c r="H52" s="3">
-        <v>17100</v>
+        <v>18600</v>
       </c>
       <c r="I52" s="3">
-        <v>14900</v>
+        <v>15100</v>
       </c>
       <c r="J52" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K52" s="3">
         <v>13800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>149300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>46800</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10880800</v>
+        <v>9722800</v>
       </c>
       <c r="E54" s="3">
-        <v>10677900</v>
+        <v>9636800</v>
       </c>
       <c r="F54" s="3">
-        <v>10290200</v>
+        <v>9457000</v>
       </c>
       <c r="G54" s="3">
-        <v>9343500</v>
+        <v>9113700</v>
       </c>
       <c r="H54" s="3">
-        <v>8559300</v>
+        <v>8275200</v>
       </c>
       <c r="I54" s="3">
-        <v>7019500</v>
+        <v>7580600</v>
       </c>
       <c r="J54" s="3">
+        <v>6216900</v>
+      </c>
+      <c r="K54" s="3">
         <v>5415600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7508500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6294800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5807800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6325800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6342100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5183700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2748,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>100600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>91900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>82000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>84500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>69700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>76400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,52 +2840,58 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>125100</v>
+        <v>151200</v>
       </c>
       <c r="E59" s="3">
-        <v>89800</v>
+        <v>110800</v>
       </c>
       <c r="F59" s="3">
-        <v>102100</v>
+        <v>79500</v>
       </c>
       <c r="G59" s="3">
-        <v>97100</v>
+        <v>90400</v>
       </c>
       <c r="H59" s="3">
-        <v>79300</v>
+        <v>86000</v>
       </c>
       <c r="I59" s="3">
-        <v>48600</v>
+        <v>70300</v>
       </c>
       <c r="J59" s="3">
+        <v>43100</v>
+      </c>
+      <c r="K59" s="3">
         <v>67400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>233500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>156700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>138800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>200700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>152000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>133300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,96 +2934,105 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>693100</v>
+        <v>559600</v>
       </c>
       <c r="E61" s="3">
-        <v>541900</v>
+        <v>613800</v>
       </c>
       <c r="F61" s="3">
-        <v>423300</v>
+        <v>479900</v>
       </c>
       <c r="G61" s="3">
-        <v>482900</v>
+        <v>374900</v>
       </c>
       <c r="H61" s="3">
-        <v>608500</v>
+        <v>427700</v>
       </c>
       <c r="I61" s="3">
-        <v>490500</v>
+        <v>538900</v>
       </c>
       <c r="J61" s="3">
+        <v>434400</v>
+      </c>
+      <c r="K61" s="3">
         <v>270600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>291300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>599700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>576000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>287000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>599300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>536100</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>41700</v>
+        <v>41300</v>
       </c>
       <c r="E62" s="3">
-        <v>38200</v>
+        <v>36900</v>
       </c>
       <c r="F62" s="3">
-        <v>34200</v>
+        <v>33900</v>
       </c>
       <c r="G62" s="3">
         <v>30300</v>
       </c>
       <c r="H62" s="3">
-        <v>26400</v>
+        <v>26900</v>
       </c>
       <c r="I62" s="3">
-        <v>21200</v>
+        <v>23300</v>
       </c>
       <c r="J62" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K62" s="3">
         <v>18300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>31000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>33800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9486100</v>
+        <v>8337300</v>
       </c>
       <c r="E66" s="3">
-        <v>9465900</v>
+        <v>8401500</v>
       </c>
       <c r="F66" s="3">
-        <v>9237100</v>
+        <v>8383600</v>
       </c>
       <c r="G66" s="3">
-        <v>8436400</v>
+        <v>8181000</v>
       </c>
       <c r="H66" s="3">
-        <v>7725500</v>
+        <v>7471800</v>
       </c>
       <c r="I66" s="3">
-        <v>6253600</v>
+        <v>6842200</v>
       </c>
       <c r="J66" s="3">
+        <v>5538600</v>
+      </c>
+      <c r="K66" s="3">
         <v>4677100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6562900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5487400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5267600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5719600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5809300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4697200</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1198000</v>
+        <v>1198100</v>
       </c>
       <c r="E72" s="3">
-        <v>1006600</v>
+        <v>1061100</v>
       </c>
       <c r="F72" s="3">
-        <v>848300</v>
+        <v>891500</v>
       </c>
       <c r="G72" s="3">
-        <v>698900</v>
+        <v>751300</v>
       </c>
       <c r="H72" s="3">
-        <v>625600</v>
+        <v>619000</v>
       </c>
       <c r="I72" s="3">
-        <v>556400</v>
+        <v>554000</v>
       </c>
       <c r="J72" s="3">
+        <v>492800</v>
+      </c>
+      <c r="K72" s="3">
         <v>529300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>662100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>549800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>499000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>560000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>485800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>439400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1394700</v>
+        <v>1385500</v>
       </c>
       <c r="E76" s="3">
-        <v>1212000</v>
+        <v>1235200</v>
       </c>
       <c r="F76" s="3">
-        <v>1053100</v>
+        <v>1073400</v>
       </c>
       <c r="G76" s="3">
-        <v>907100</v>
+        <v>932700</v>
       </c>
       <c r="H76" s="3">
-        <v>833800</v>
+        <v>803400</v>
       </c>
       <c r="I76" s="3">
-        <v>766000</v>
+        <v>738400</v>
       </c>
       <c r="J76" s="3">
+        <v>678400</v>
+      </c>
+      <c r="K76" s="3">
         <v>738500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>945600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>807400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>540200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>606200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>532800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>486400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>191400</v>
+        <v>137000</v>
       </c>
       <c r="E81" s="3">
-        <v>191400</v>
+        <v>169500</v>
       </c>
       <c r="F81" s="3">
-        <v>149400</v>
+        <v>169500</v>
       </c>
       <c r="G81" s="3">
-        <v>73200</v>
+        <v>132300</v>
       </c>
       <c r="H81" s="3">
-        <v>69600</v>
+        <v>64800</v>
       </c>
       <c r="I81" s="3">
-        <v>46000</v>
+        <v>61700</v>
       </c>
       <c r="J81" s="3">
+        <v>40700</v>
+      </c>
+      <c r="K81" s="3">
         <v>49700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>65400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>48700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>83900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>37400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>46400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3825,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10700</v>
+        <v>10400</v>
       </c>
       <c r="E83" s="3">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="F83" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="G83" s="3">
-        <v>5800</v>
+        <v>8300</v>
       </c>
       <c r="H83" s="3">
-        <v>4900</v>
+        <v>5200</v>
       </c>
       <c r="I83" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="J83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K83" s="3">
         <v>4300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2074300</v>
+        <v>645600</v>
       </c>
       <c r="E89" s="3">
-        <v>244900</v>
+        <v>-1837100</v>
       </c>
       <c r="F89" s="3">
-        <v>283400</v>
+        <v>216900</v>
       </c>
       <c r="G89" s="3">
-        <v>1439000</v>
+        <v>251000</v>
       </c>
       <c r="H89" s="3">
-        <v>293600</v>
+        <v>1274500</v>
       </c>
       <c r="I89" s="3">
-        <v>227800</v>
+        <v>260000</v>
       </c>
       <c r="J89" s="3">
+        <v>201800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-351600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>353200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>46900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-420300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>15000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>629600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4173,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-9500</v>
+        <v>-28400</v>
       </c>
       <c r="E91" s="3">
-        <v>-35500</v>
+        <v>-8400</v>
       </c>
       <c r="F91" s="3">
-        <v>-14300</v>
+        <v>-31500</v>
       </c>
       <c r="G91" s="3">
-        <v>-42500</v>
+        <v>-12600</v>
       </c>
       <c r="H91" s="3">
-        <v>-27200</v>
+        <v>-37700</v>
       </c>
       <c r="I91" s="3">
-        <v>-6900</v>
+        <v>-24100</v>
       </c>
       <c r="J91" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-8700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-24200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7200</v>
+        <v>-12200</v>
       </c>
       <c r="E94" s="3">
-        <v>-35500</v>
+        <v>-6400</v>
       </c>
       <c r="F94" s="3">
-        <v>24900</v>
+        <v>-31500</v>
       </c>
       <c r="G94" s="3">
-        <v>-46400</v>
+        <v>22100</v>
       </c>
       <c r="H94" s="3">
-        <v>-21600</v>
+        <v>-41100</v>
       </c>
       <c r="I94" s="3">
-        <v>-3400</v>
+        <v>-19100</v>
       </c>
       <c r="J94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-8300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-21300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-14200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4166,34 +4399,37 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>2100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-7600</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4566,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-193200</v>
+        <v>79300</v>
       </c>
       <c r="E100" s="3">
-        <v>41200</v>
+        <v>-171100</v>
       </c>
       <c r="F100" s="3">
-        <v>-94100</v>
+        <v>36500</v>
       </c>
       <c r="G100" s="3">
-        <v>-80100</v>
+        <v>-83400</v>
       </c>
       <c r="H100" s="3">
-        <v>-73600</v>
+        <v>-47800</v>
       </c>
       <c r="I100" s="3">
-        <v>270000</v>
+        <v>-65200</v>
       </c>
       <c r="J100" s="3">
+        <v>239100</v>
+      </c>
+      <c r="K100" s="3">
         <v>22700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>44600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>206700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>37200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>27800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1261700</v>
+        <v>-388000</v>
       </c>
       <c r="E101" s="3">
-        <v>62100</v>
+        <v>1117500</v>
       </c>
       <c r="F101" s="3">
-        <v>220800</v>
+        <v>55000</v>
       </c>
       <c r="G101" s="3">
-        <v>-104200</v>
+        <v>195600</v>
       </c>
       <c r="H101" s="3">
-        <v>405100</v>
+        <v>-92300</v>
       </c>
       <c r="I101" s="3">
-        <v>241700</v>
+        <v>358800</v>
       </c>
       <c r="J101" s="3">
+        <v>214100</v>
+      </c>
+      <c r="K101" s="3">
         <v>45300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>61100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>21100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>35900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-27600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>27100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1013000</v>
+        <v>324800</v>
       </c>
       <c r="E102" s="3">
-        <v>312700</v>
+        <v>-897200</v>
       </c>
       <c r="F102" s="3">
-        <v>434900</v>
+        <v>276900</v>
       </c>
       <c r="G102" s="3">
-        <v>1208200</v>
+        <v>385200</v>
       </c>
       <c r="H102" s="3">
-        <v>626500</v>
+        <v>1070000</v>
       </c>
       <c r="I102" s="3">
-        <v>713100</v>
+        <v>554900</v>
       </c>
       <c r="J102" s="3">
+        <v>631600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-291800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>437500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>270200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-404200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>11800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>673900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-152300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>GGAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,138 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>483900</v>
+        <v>476000</v>
       </c>
       <c r="E8" s="3">
-        <v>428900</v>
+        <v>509000</v>
       </c>
       <c r="F8" s="3">
-        <v>343500</v>
+        <v>448500</v>
       </c>
       <c r="G8" s="3">
-        <v>321800</v>
+        <v>397500</v>
       </c>
       <c r="H8" s="3">
-        <v>333200</v>
+        <v>469000</v>
       </c>
       <c r="I8" s="3">
+        <v>485600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>308800</v>
+      </c>
+      <c r="K8" s="3">
         <v>272200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>194300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>182800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>229300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>197700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>372300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>208700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>213100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>197300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,55 +1075,67 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-10400</v>
+        <v>-22000</v>
       </c>
       <c r="E15" s="3">
-        <v>-9500</v>
+        <v>-22200</v>
       </c>
       <c r="F15" s="3">
-        <v>-9300</v>
+        <v>-9700</v>
       </c>
       <c r="G15" s="3">
-        <v>-8300</v>
+        <v>-8800</v>
       </c>
       <c r="H15" s="3">
-        <v>-5200</v>
+        <v>-21000</v>
       </c>
       <c r="I15" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K15" s="3">
         <v>-4300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-10500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-9700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-8500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-10100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-21900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-16300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>338500</v>
+        <v>281600</v>
       </c>
       <c r="E17" s="3">
-        <v>358400</v>
+        <v>348600</v>
       </c>
       <c r="F17" s="3">
-        <v>365300</v>
+        <v>313700</v>
       </c>
       <c r="G17" s="3">
-        <v>370900</v>
+        <v>332200</v>
       </c>
       <c r="H17" s="3">
-        <v>286700</v>
+        <v>476400</v>
       </c>
       <c r="I17" s="3">
+        <v>450900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>265700</v>
+      </c>
+      <c r="K17" s="3">
         <v>200200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>130600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>107600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>128500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>109500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>220900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>124300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>131500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>135000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>145400</v>
+        <v>194400</v>
       </c>
       <c r="E18" s="3">
-        <v>70400</v>
+        <v>160400</v>
       </c>
       <c r="F18" s="3">
-        <v>-21900</v>
+        <v>134800</v>
       </c>
       <c r="G18" s="3">
-        <v>-49100</v>
+        <v>65300</v>
       </c>
       <c r="H18" s="3">
-        <v>46500</v>
+        <v>-7300</v>
       </c>
       <c r="I18" s="3">
+        <v>34800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>43100</v>
+      </c>
+      <c r="K18" s="3">
         <v>72000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>63700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>75200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>100800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>88100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>151400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>84400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>81600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>62200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,102 +1277,116 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>21300</v>
+        <v>-63200</v>
       </c>
       <c r="E20" s="3">
-        <v>136000</v>
+        <v>30300</v>
       </c>
       <c r="F20" s="3">
-        <v>211900</v>
+        <v>19700</v>
       </c>
       <c r="G20" s="3">
-        <v>232900</v>
+        <v>126100</v>
       </c>
       <c r="H20" s="3">
-        <v>46600</v>
+        <v>172300</v>
       </c>
       <c r="I20" s="3">
+        <v>233400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>43200</v>
+      </c>
+      <c r="K20" s="3">
         <v>20300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-4200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-8800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-16500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-12200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>177100</v>
+        <v>154400</v>
       </c>
       <c r="E21" s="3">
-        <v>216000</v>
+        <v>211800</v>
       </c>
       <c r="F21" s="3">
-        <v>199300</v>
+        <v>164200</v>
       </c>
       <c r="G21" s="3">
-        <v>192100</v>
+        <v>177600</v>
       </c>
       <c r="H21" s="3">
-        <v>98300</v>
+        <v>186900</v>
       </c>
       <c r="I21" s="3">
+        <v>285100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>91100</v>
+      </c>
+      <c r="K21" s="3">
         <v>96600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>63600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>78200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>92200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>95400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>146400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>78300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>75700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,102 +1432,120 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>166700</v>
+        <v>131200</v>
       </c>
       <c r="E23" s="3">
-        <v>206500</v>
+        <v>190700</v>
       </c>
       <c r="F23" s="3">
-        <v>190000</v>
+        <v>154500</v>
       </c>
       <c r="G23" s="3">
-        <v>183800</v>
+        <v>191400</v>
       </c>
       <c r="H23" s="3">
-        <v>93100</v>
+        <v>164900</v>
       </c>
       <c r="I23" s="3">
+        <v>268200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>86300</v>
+      </c>
+      <c r="K23" s="3">
         <v>92300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>59500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>74000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>92000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>89100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>134900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>72100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>75400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24400</v>
+        <v>54700</v>
       </c>
       <c r="E24" s="3">
-        <v>33500</v>
+        <v>68600</v>
       </c>
       <c r="F24" s="3">
-        <v>17700</v>
+        <v>22600</v>
       </c>
       <c r="G24" s="3">
-        <v>48900</v>
+        <v>31100</v>
       </c>
       <c r="H24" s="3">
-        <v>28400</v>
+        <v>30100</v>
       </c>
       <c r="I24" s="3">
+        <v>115600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K24" s="3">
         <v>29000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>17100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>22800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>22700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>36200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>40500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>25800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>25600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>142300</v>
+        <v>76500</v>
       </c>
       <c r="E26" s="3">
-        <v>173000</v>
+        <v>122100</v>
       </c>
       <c r="F26" s="3">
-        <v>172300</v>
+        <v>131900</v>
       </c>
       <c r="G26" s="3">
-        <v>134900</v>
+        <v>160300</v>
       </c>
       <c r="H26" s="3">
-        <v>64800</v>
+        <v>134800</v>
       </c>
       <c r="I26" s="3">
+        <v>152500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K26" s="3">
         <v>63200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>42400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>51200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>69300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>52900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>94400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>46400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>49900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>137000</v>
+        <v>76400</v>
       </c>
       <c r="E27" s="3">
-        <v>169500</v>
+        <v>119000</v>
       </c>
       <c r="F27" s="3">
-        <v>169500</v>
+        <v>127000</v>
       </c>
       <c r="G27" s="3">
-        <v>132300</v>
+        <v>157200</v>
       </c>
       <c r="H27" s="3">
-        <v>64800</v>
+        <v>134700</v>
       </c>
       <c r="I27" s="3">
+        <v>152700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>60100</v>
+      </c>
+      <c r="K27" s="3">
         <v>61700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>40700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>48800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>65400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>48700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>88100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>42200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>46400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1651,38 +1773,44 @@
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>900</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-4300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-4900</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1909,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-21300</v>
+        <v>63200</v>
       </c>
       <c r="E32" s="3">
-        <v>-136000</v>
+        <v>-30300</v>
       </c>
       <c r="F32" s="3">
-        <v>-211900</v>
+        <v>-19700</v>
       </c>
       <c r="G32" s="3">
-        <v>-232900</v>
+        <v>-126100</v>
       </c>
       <c r="H32" s="3">
-        <v>-46600</v>
+        <v>-172300</v>
       </c>
       <c r="I32" s="3">
+        <v>-233400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-20300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>4200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>8800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>16500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>12200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>6200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>137000</v>
+        <v>76400</v>
       </c>
       <c r="E33" s="3">
-        <v>169500</v>
+        <v>119000</v>
       </c>
       <c r="F33" s="3">
-        <v>169500</v>
+        <v>127000</v>
       </c>
       <c r="G33" s="3">
-        <v>132300</v>
+        <v>157200</v>
       </c>
       <c r="H33" s="3">
-        <v>64800</v>
+        <v>134700</v>
       </c>
       <c r="I33" s="3">
+        <v>152700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>60100</v>
+      </c>
+      <c r="K33" s="3">
         <v>61700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>40700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>49700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>65400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>48700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>83900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>37400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>46400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>137000</v>
+        <v>76400</v>
       </c>
       <c r="E35" s="3">
-        <v>169500</v>
+        <v>119000</v>
       </c>
       <c r="F35" s="3">
-        <v>169500</v>
+        <v>127000</v>
       </c>
       <c r="G35" s="3">
-        <v>132300</v>
+        <v>157200</v>
       </c>
       <c r="H35" s="3">
-        <v>64800</v>
+        <v>134700</v>
       </c>
       <c r="I35" s="3">
+        <v>152700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>60100</v>
+      </c>
+      <c r="K35" s="3">
         <v>61700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>40700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>49700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>65400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>48700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>83900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>37400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>46400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,102 +2225,116 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1878200</v>
+        <v>1678100</v>
       </c>
       <c r="E41" s="3">
-        <v>1538300</v>
+        <v>2503600</v>
       </c>
       <c r="F41" s="3">
-        <v>1821100</v>
+        <v>1977600</v>
       </c>
       <c r="G41" s="3">
-        <v>1897000</v>
+        <v>1425800</v>
       </c>
       <c r="H41" s="3">
-        <v>2055200</v>
+        <v>1688000</v>
       </c>
       <c r="I41" s="3">
+        <v>1758300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1905000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1658600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1327500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>759000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1429900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>894100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>822600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1623000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1625000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>791700</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1907700</v>
+        <v>3580700</v>
       </c>
       <c r="E42" s="3">
-        <v>2083500</v>
+        <v>1735600</v>
       </c>
       <c r="F42" s="3">
-        <v>2695900</v>
+        <v>2006100</v>
       </c>
       <c r="G42" s="3">
-        <v>2283300</v>
+        <v>1931200</v>
       </c>
       <c r="H42" s="3">
-        <v>1582300</v>
+        <v>2498800</v>
       </c>
       <c r="I42" s="3">
+        <v>2116400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1466600</v>
+      </c>
+      <c r="K42" s="3">
         <v>1014200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>256000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>229600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2013000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>717600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>621300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>910600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>226700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>320200</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2288,8 +2486,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2335,149 +2539,173 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>36600</v>
+        <v>30500</v>
       </c>
       <c r="E47" s="3">
-        <v>36400</v>
+        <v>30100</v>
       </c>
       <c r="F47" s="3">
-        <v>34700</v>
+        <v>38500</v>
       </c>
       <c r="G47" s="3">
-        <v>36800</v>
+        <v>33800</v>
       </c>
       <c r="H47" s="3">
-        <v>2400</v>
+        <v>32100</v>
       </c>
       <c r="I47" s="3">
+        <v>34100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K47" s="3">
         <v>1900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1400</v>
-      </c>
-      <c r="K47" s="3">
-        <v>600</v>
-      </c>
-      <c r="L47" s="3">
-        <v>2400</v>
       </c>
       <c r="M47" s="3">
         <v>600</v>
       </c>
       <c r="N47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O47" s="3">
+        <v>600</v>
+      </c>
+      <c r="P47" s="3">
         <v>1000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>7100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>206200</v>
+        <v>503300</v>
       </c>
       <c r="E48" s="3">
-        <v>203300</v>
+        <v>478000</v>
       </c>
       <c r="F48" s="3">
-        <v>203900</v>
+        <v>508100</v>
       </c>
       <c r="G48" s="3">
-        <v>205700</v>
+        <v>188500</v>
       </c>
       <c r="H48" s="3">
-        <v>159400</v>
+        <v>189000</v>
       </c>
       <c r="I48" s="3">
+        <v>190600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>147700</v>
+      </c>
+      <c r="K48" s="3">
         <v>154000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>146900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>163700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>333600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>101200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>98000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>336500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>100000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>80600</v>
+        <v>166600</v>
       </c>
       <c r="E49" s="3">
-        <v>80000</v>
+        <v>134000</v>
       </c>
       <c r="F49" s="3">
-        <v>71100</v>
+        <v>134000</v>
       </c>
       <c r="G49" s="3">
-        <v>62300</v>
+        <v>74200</v>
       </c>
       <c r="H49" s="3">
-        <v>54800</v>
+        <v>65900</v>
       </c>
       <c r="I49" s="3">
+        <v>57700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>50800</v>
+      </c>
+      <c r="K49" s="3">
         <v>16300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>15900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>17800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>102800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>71400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>65400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>91900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>67600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2804,67 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>106500</v>
+        <v>44900</v>
       </c>
       <c r="E52" s="3">
-        <v>66100</v>
+        <v>41600</v>
       </c>
       <c r="F52" s="3">
-        <v>46000</v>
+        <v>43700</v>
       </c>
       <c r="G52" s="3">
-        <v>16200</v>
+        <v>61300</v>
       </c>
       <c r="H52" s="3">
-        <v>18600</v>
+        <v>42600</v>
       </c>
       <c r="I52" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K52" s="3">
         <v>15100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>13200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>13800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>149300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>46800</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9722800</v>
+        <v>12117900</v>
       </c>
       <c r="E54" s="3">
-        <v>9636800</v>
+        <v>10604900</v>
       </c>
       <c r="F54" s="3">
-        <v>9457000</v>
+        <v>10590600</v>
       </c>
       <c r="G54" s="3">
-        <v>9113700</v>
+        <v>8932400</v>
       </c>
       <c r="H54" s="3">
-        <v>8275200</v>
+        <v>8765800</v>
       </c>
       <c r="I54" s="3">
+        <v>8447600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>7670400</v>
+      </c>
+      <c r="K54" s="3">
         <v>7580600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6216900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5415600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7508500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6294800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5807800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6325800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>6342100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5183700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +3009,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2775,29 +3037,35 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>100600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>91900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>82000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>84500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>69700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>76400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,55 +3111,67 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>151200</v>
+        <v>104100</v>
       </c>
       <c r="E59" s="3">
-        <v>110800</v>
+        <v>180300</v>
       </c>
       <c r="F59" s="3">
-        <v>79500</v>
+        <v>159000</v>
       </c>
       <c r="G59" s="3">
-        <v>90400</v>
+        <v>102700</v>
       </c>
       <c r="H59" s="3">
-        <v>86000</v>
+        <v>73700</v>
       </c>
       <c r="I59" s="3">
+        <v>83800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>79700</v>
+      </c>
+      <c r="K59" s="3">
         <v>70300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>43100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>67400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>233500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>156700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>138800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>200700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>152000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>133300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2937,102 +3217,120 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>559600</v>
+        <v>1260000</v>
       </c>
       <c r="E61" s="3">
-        <v>613800</v>
+        <v>1555300</v>
       </c>
       <c r="F61" s="3">
-        <v>479900</v>
+        <v>1039900</v>
       </c>
       <c r="G61" s="3">
-        <v>374900</v>
+        <v>568900</v>
       </c>
       <c r="H61" s="3">
-        <v>427700</v>
+        <v>444800</v>
       </c>
       <c r="I61" s="3">
+        <v>347500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>396400</v>
+      </c>
+      <c r="K61" s="3">
         <v>538900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>434400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>270600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>291300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>599700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>576000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>287000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>599300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>536100</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>41300</v>
+        <v>186100</v>
       </c>
       <c r="E62" s="3">
-        <v>36900</v>
+        <v>114100</v>
       </c>
       <c r="F62" s="3">
-        <v>33900</v>
+        <v>132000</v>
       </c>
       <c r="G62" s="3">
-        <v>30300</v>
+        <v>34200</v>
       </c>
       <c r="H62" s="3">
-        <v>26900</v>
+        <v>31400</v>
       </c>
       <c r="I62" s="3">
+        <v>28000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K62" s="3">
         <v>23300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>18800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>18300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>31000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>14100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>12400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>33800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>10100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8337300</v>
+        <v>10204400</v>
       </c>
       <c r="E66" s="3">
-        <v>8401500</v>
+        <v>8885000</v>
       </c>
       <c r="F66" s="3">
-        <v>8383600</v>
+        <v>8866200</v>
       </c>
       <c r="G66" s="3">
-        <v>8181000</v>
+        <v>7787500</v>
       </c>
       <c r="H66" s="3">
-        <v>7471800</v>
+        <v>7770900</v>
       </c>
       <c r="I66" s="3">
+        <v>7583100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>6925700</v>
+      </c>
+      <c r="K66" s="3">
         <v>6842200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5538600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4677100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6562900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5487400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5267600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5719600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5809300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4697200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1198100</v>
+        <v>1749300</v>
       </c>
       <c r="E72" s="3">
-        <v>1061100</v>
+        <v>1579400</v>
       </c>
       <c r="F72" s="3">
-        <v>891500</v>
+        <v>1555500</v>
       </c>
       <c r="G72" s="3">
-        <v>751300</v>
+        <v>987300</v>
       </c>
       <c r="H72" s="3">
-        <v>619000</v>
+        <v>830100</v>
       </c>
       <c r="I72" s="3">
+        <v>700100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>577500</v>
+      </c>
+      <c r="K72" s="3">
         <v>554000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>492800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>529300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>662100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>549800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>499000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>560000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>485800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>439400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1385500</v>
+        <v>1913600</v>
       </c>
       <c r="E76" s="3">
-        <v>1235200</v>
+        <v>1719900</v>
       </c>
       <c r="F76" s="3">
-        <v>1073400</v>
+        <v>1724400</v>
       </c>
       <c r="G76" s="3">
-        <v>932700</v>
+        <v>1145000</v>
       </c>
       <c r="H76" s="3">
-        <v>803400</v>
+        <v>994900</v>
       </c>
       <c r="I76" s="3">
+        <v>864500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>744700</v>
+      </c>
+      <c r="K76" s="3">
         <v>738400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>678400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>738500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>945600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>807400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>540200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>606200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>532800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>486400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>137000</v>
+        <v>76400</v>
       </c>
       <c r="E81" s="3">
-        <v>169500</v>
+        <v>119000</v>
       </c>
       <c r="F81" s="3">
-        <v>169500</v>
+        <v>127000</v>
       </c>
       <c r="G81" s="3">
-        <v>132300</v>
+        <v>157200</v>
       </c>
       <c r="H81" s="3">
-        <v>64800</v>
+        <v>134700</v>
       </c>
       <c r="I81" s="3">
+        <v>152700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>60100</v>
+      </c>
+      <c r="K81" s="3">
         <v>61700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>40700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>49700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>65400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>48700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>83900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>37400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>46400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4222,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10400</v>
+        <v>23200</v>
       </c>
       <c r="E83" s="3">
-        <v>9500</v>
+        <v>21100</v>
       </c>
       <c r="F83" s="3">
-        <v>9300</v>
+        <v>9700</v>
       </c>
       <c r="G83" s="3">
-        <v>8300</v>
+        <v>-13800</v>
       </c>
       <c r="H83" s="3">
-        <v>5200</v>
+        <v>21900</v>
       </c>
       <c r="I83" s="3">
-        <v>4300</v>
+        <v>16900</v>
       </c>
       <c r="J83" s="3">
-        <v>4100</v>
+        <v>4800</v>
       </c>
       <c r="K83" s="3">
         <v>4300</v>
       </c>
       <c r="L83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="M83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>6300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>11500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>6100</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>645600</v>
+        <v>759500</v>
       </c>
       <c r="E89" s="3">
-        <v>-1837100</v>
+        <v>464500</v>
       </c>
       <c r="F89" s="3">
-        <v>216900</v>
+        <v>598400</v>
       </c>
       <c r="G89" s="3">
-        <v>251000</v>
+        <v>-1702900</v>
       </c>
       <c r="H89" s="3">
-        <v>1274500</v>
+        <v>201000</v>
       </c>
       <c r="I89" s="3">
+        <v>232600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1181300</v>
+      </c>
+      <c r="K89" s="3">
         <v>260000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>201800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-351600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>353200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>46900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-420300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>15000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>629600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4614,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-28400</v>
+        <v>-20300</v>
       </c>
       <c r="E91" s="3">
-        <v>-8400</v>
+        <v>-24900</v>
       </c>
       <c r="F91" s="3">
-        <v>-31500</v>
+        <v>-26300</v>
       </c>
       <c r="G91" s="3">
-        <v>-12600</v>
+        <v>-7800</v>
       </c>
       <c r="H91" s="3">
-        <v>-37700</v>
+        <v>-29200</v>
       </c>
       <c r="I91" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-24100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-6100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-8700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-7600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-10000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-24200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-12200</v>
+        <v>-13300</v>
       </c>
       <c r="E94" s="3">
-        <v>-6400</v>
+        <v>-23500</v>
       </c>
       <c r="F94" s="3">
-        <v>-31500</v>
+        <v>-11300</v>
       </c>
       <c r="G94" s="3">
-        <v>22100</v>
+        <v>-5900</v>
       </c>
       <c r="H94" s="3">
-        <v>-41100</v>
+        <v>-29200</v>
       </c>
       <c r="I94" s="3">
+        <v>20400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-19100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-8300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-21300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-4500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-14200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-8700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4402,34 +4870,40 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>1100</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>2100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-7600</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +5055,169 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>79300</v>
+        <v>-359500</v>
       </c>
       <c r="E100" s="3">
-        <v>-171100</v>
+        <v>-81000</v>
       </c>
       <c r="F100" s="3">
-        <v>36500</v>
+        <v>73500</v>
       </c>
       <c r="G100" s="3">
-        <v>-83400</v>
+        <v>-158600</v>
       </c>
       <c r="H100" s="3">
-        <v>-47800</v>
+        <v>33800</v>
       </c>
       <c r="I100" s="3">
+        <v>-77300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-65200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>239100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>22700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>44600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>206700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-5600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>37200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>27800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-388000</v>
+        <v>136100</v>
       </c>
       <c r="E101" s="3">
-        <v>1117500</v>
+        <v>100400</v>
       </c>
       <c r="F101" s="3">
-        <v>55000</v>
+        <v>-359700</v>
       </c>
       <c r="G101" s="3">
-        <v>195600</v>
+        <v>1035800</v>
       </c>
       <c r="H101" s="3">
-        <v>-92300</v>
+        <v>-2700</v>
       </c>
       <c r="I101" s="3">
+        <v>235000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-85600</v>
+      </c>
+      <c r="K101" s="3">
         <v>358800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>214100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>45300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>61100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>21100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>35900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-27600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>27100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>324800</v>
+        <v>522800</v>
       </c>
       <c r="E102" s="3">
-        <v>-897200</v>
+        <v>460300</v>
       </c>
       <c r="F102" s="3">
-        <v>276900</v>
+        <v>301000</v>
       </c>
       <c r="G102" s="3">
-        <v>385200</v>
+        <v>-831600</v>
       </c>
       <c r="H102" s="3">
-        <v>1070000</v>
+        <v>256700</v>
       </c>
       <c r="I102" s="3">
+        <v>357100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>991800</v>
+      </c>
+      <c r="K102" s="3">
         <v>554900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>631600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-291800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>437500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>270200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-404200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>11800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>673900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-152300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>GGAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,145 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>476000</v>
+        <v>421300</v>
       </c>
       <c r="E8" s="3">
-        <v>509000</v>
+        <v>963600</v>
       </c>
       <c r="F8" s="3">
-        <v>448500</v>
+        <v>462800</v>
       </c>
       <c r="G8" s="3">
-        <v>397500</v>
+        <v>407900</v>
       </c>
       <c r="H8" s="3">
-        <v>469000</v>
+        <v>520500</v>
       </c>
       <c r="I8" s="3">
-        <v>485600</v>
+        <v>932800</v>
       </c>
       <c r="J8" s="3">
+        <v>441600</v>
+      </c>
+      <c r="K8" s="3">
         <v>308800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>272200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>194300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>182800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>229300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>197700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>372300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>208700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>213100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>197300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,61 +1101,67 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-22000</v>
+        <v>-21500</v>
       </c>
       <c r="E15" s="3">
-        <v>-22200</v>
+        <v>-43300</v>
       </c>
       <c r="F15" s="3">
-        <v>-9700</v>
+        <v>-20200</v>
       </c>
       <c r="G15" s="3">
         <v>-8800</v>
       </c>
       <c r="H15" s="3">
-        <v>-21000</v>
+        <v>-17600</v>
       </c>
       <c r="I15" s="3">
-        <v>-17800</v>
+        <v>-38000</v>
       </c>
       <c r="J15" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="K15" s="3">
         <v>-4800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-4300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-10500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-9700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-8500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-10100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-21900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-16300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-7300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>281600</v>
+        <v>323300</v>
       </c>
       <c r="E17" s="3">
-        <v>348600</v>
+        <v>616900</v>
       </c>
       <c r="F17" s="3">
-        <v>313700</v>
+        <v>317000</v>
       </c>
       <c r="G17" s="3">
-        <v>332200</v>
+        <v>285300</v>
       </c>
       <c r="H17" s="3">
-        <v>476400</v>
+        <v>472900</v>
       </c>
       <c r="I17" s="3">
-        <v>450900</v>
+        <v>906000</v>
       </c>
       <c r="J17" s="3">
+        <v>410000</v>
+      </c>
+      <c r="K17" s="3">
         <v>265700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>130600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>107600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>128500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>109500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>220900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>124300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>131500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>135000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>194400</v>
+        <v>98100</v>
       </c>
       <c r="E18" s="3">
-        <v>160400</v>
+        <v>346600</v>
       </c>
       <c r="F18" s="3">
-        <v>134800</v>
+        <v>145800</v>
       </c>
       <c r="G18" s="3">
-        <v>65300</v>
+        <v>122600</v>
       </c>
       <c r="H18" s="3">
-        <v>-7300</v>
+        <v>47600</v>
       </c>
       <c r="I18" s="3">
-        <v>34800</v>
+        <v>26800</v>
       </c>
       <c r="J18" s="3">
+        <v>31600</v>
+      </c>
+      <c r="K18" s="3">
         <v>43100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>72000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>63700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>75200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>88100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>151400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>84400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>81600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>62200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-63200</v>
+        <v>35700</v>
       </c>
       <c r="E20" s="3">
-        <v>30300</v>
+        <v>-33300</v>
       </c>
       <c r="F20" s="3">
-        <v>19700</v>
+        <v>27600</v>
       </c>
       <c r="G20" s="3">
-        <v>126100</v>
+        <v>17900</v>
       </c>
       <c r="H20" s="3">
-        <v>172300</v>
+        <v>28500</v>
       </c>
       <c r="I20" s="3">
-        <v>233400</v>
+        <v>397200</v>
       </c>
       <c r="J20" s="3">
+        <v>212300</v>
+      </c>
+      <c r="K20" s="3">
         <v>43200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>20300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-12200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>154400</v>
+        <v>159300</v>
       </c>
       <c r="E21" s="3">
-        <v>211800</v>
+        <v>353700</v>
       </c>
       <c r="F21" s="3">
-        <v>164200</v>
+        <v>192600</v>
       </c>
       <c r="G21" s="3">
-        <v>177600</v>
+        <v>116400</v>
       </c>
       <c r="H21" s="3">
-        <v>186900</v>
+        <v>96500</v>
       </c>
       <c r="I21" s="3">
-        <v>285100</v>
+        <v>459400</v>
       </c>
       <c r="J21" s="3">
+        <v>259300</v>
+      </c>
+      <c r="K21" s="3">
         <v>91100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>96600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>63600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>78200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>92200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>95400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>146400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>78300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>75700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>131200</v>
+        <v>133800</v>
       </c>
       <c r="E23" s="3">
-        <v>190700</v>
+        <v>313400</v>
       </c>
       <c r="F23" s="3">
-        <v>154500</v>
+        <v>173400</v>
       </c>
       <c r="G23" s="3">
-        <v>191400</v>
+        <v>140500</v>
       </c>
       <c r="H23" s="3">
-        <v>164900</v>
+        <v>76100</v>
       </c>
       <c r="I23" s="3">
-        <v>268200</v>
+        <v>424000</v>
       </c>
       <c r="J23" s="3">
+        <v>243900</v>
+      </c>
+      <c r="K23" s="3">
         <v>86300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>92300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>59500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>74000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>92000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>89100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>134900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>72100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>75400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>54700</v>
+        <v>65800</v>
       </c>
       <c r="E24" s="3">
-        <v>68600</v>
+        <v>119000</v>
       </c>
       <c r="F24" s="3">
-        <v>22600</v>
+        <v>62400</v>
       </c>
       <c r="G24" s="3">
-        <v>31100</v>
+        <v>20600</v>
       </c>
       <c r="H24" s="3">
-        <v>30100</v>
+        <v>42800</v>
       </c>
       <c r="I24" s="3">
-        <v>115600</v>
+        <v>142700</v>
       </c>
       <c r="J24" s="3">
+        <v>105200</v>
+      </c>
+      <c r="K24" s="3">
         <v>26300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>29000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>17100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>22800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>22700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>36200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>40500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>25800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>25600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>76500</v>
+        <v>68000</v>
       </c>
       <c r="E26" s="3">
-        <v>122100</v>
+        <v>194400</v>
       </c>
       <c r="F26" s="3">
-        <v>131900</v>
+        <v>111000</v>
       </c>
       <c r="G26" s="3">
-        <v>160300</v>
+        <v>119900</v>
       </c>
       <c r="H26" s="3">
-        <v>134800</v>
+        <v>33300</v>
       </c>
       <c r="I26" s="3">
-        <v>152500</v>
+        <v>281300</v>
       </c>
       <c r="J26" s="3">
+        <v>138700</v>
+      </c>
+      <c r="K26" s="3">
         <v>60000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>63200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>42400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>51200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>69300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>52900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>94400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>46400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>49900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>76400</v>
+        <v>67300</v>
       </c>
       <c r="E27" s="3">
-        <v>119000</v>
+        <v>191400</v>
       </c>
       <c r="F27" s="3">
-        <v>127000</v>
+        <v>108200</v>
       </c>
       <c r="G27" s="3">
-        <v>157200</v>
+        <v>115500</v>
       </c>
       <c r="H27" s="3">
-        <v>134700</v>
+        <v>33900</v>
       </c>
       <c r="I27" s="3">
-        <v>152700</v>
+        <v>281300</v>
       </c>
       <c r="J27" s="3">
+        <v>138900</v>
+      </c>
+      <c r="K27" s="3">
         <v>60100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>61700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>40700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>48800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>65400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>48700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>88100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>42200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>46400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1779,8 +1840,8 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1789,28 +1850,31 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>900</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-4900</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>63200</v>
+        <v>-35700</v>
       </c>
       <c r="E32" s="3">
-        <v>-30300</v>
+        <v>33300</v>
       </c>
       <c r="F32" s="3">
-        <v>-19700</v>
+        <v>-27600</v>
       </c>
       <c r="G32" s="3">
-        <v>-126100</v>
+        <v>-17900</v>
       </c>
       <c r="H32" s="3">
-        <v>-172300</v>
+        <v>-28500</v>
       </c>
       <c r="I32" s="3">
-        <v>-233400</v>
+        <v>-397200</v>
       </c>
       <c r="J32" s="3">
+        <v>-212300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-43200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-20300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>16500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>12200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>76400</v>
+        <v>67300</v>
       </c>
       <c r="E33" s="3">
-        <v>119000</v>
+        <v>191400</v>
       </c>
       <c r="F33" s="3">
-        <v>127000</v>
+        <v>108200</v>
       </c>
       <c r="G33" s="3">
-        <v>157200</v>
+        <v>115500</v>
       </c>
       <c r="H33" s="3">
-        <v>134700</v>
+        <v>33900</v>
       </c>
       <c r="I33" s="3">
-        <v>152700</v>
+        <v>281300</v>
       </c>
       <c r="J33" s="3">
+        <v>138900</v>
+      </c>
+      <c r="K33" s="3">
         <v>60100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>61700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>40700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>49700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>65400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>48700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>83900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>37400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>46400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>76400</v>
+        <v>67300</v>
       </c>
       <c r="E35" s="3">
-        <v>119000</v>
+        <v>191400</v>
       </c>
       <c r="F35" s="3">
-        <v>127000</v>
+        <v>108200</v>
       </c>
       <c r="G35" s="3">
-        <v>157200</v>
+        <v>115500</v>
       </c>
       <c r="H35" s="3">
-        <v>134700</v>
+        <v>33900</v>
       </c>
       <c r="I35" s="3">
-        <v>152700</v>
+        <v>281300</v>
       </c>
       <c r="J35" s="3">
+        <v>138900</v>
+      </c>
+      <c r="K35" s="3">
         <v>60100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>61700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>40700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>49700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>65400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>48700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>83900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>37400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>46400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,114 +2313,121 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1678100</v>
+        <v>1731100</v>
       </c>
       <c r="E41" s="3">
-        <v>2503600</v>
+        <v>1526000</v>
       </c>
       <c r="F41" s="3">
-        <v>1977600</v>
+        <v>2276700</v>
       </c>
       <c r="G41" s="3">
-        <v>1425800</v>
+        <v>1936000</v>
       </c>
       <c r="H41" s="3">
-        <v>1688000</v>
+        <v>1296600</v>
       </c>
       <c r="I41" s="3">
-        <v>1758300</v>
+        <v>1535000</v>
       </c>
       <c r="J41" s="3">
+        <v>1599000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1905000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1658600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1327500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>759000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1429900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>894100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>822600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1623000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1625000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>791700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3580700</v>
+        <v>3282000</v>
       </c>
       <c r="E42" s="3">
-        <v>1735600</v>
+        <v>3256100</v>
       </c>
       <c r="F42" s="3">
-        <v>2006100</v>
+        <v>1578300</v>
       </c>
       <c r="G42" s="3">
-        <v>1931200</v>
+        <v>1963900</v>
       </c>
       <c r="H42" s="3">
-        <v>2498800</v>
+        <v>1756200</v>
       </c>
       <c r="I42" s="3">
-        <v>2116400</v>
+        <v>2272300</v>
       </c>
       <c r="J42" s="3">
+        <v>1924600</v>
+      </c>
+      <c r="K42" s="3">
         <v>1466600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1014200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>256000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>229600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2013000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>717600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>621300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>910600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>226700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>320200</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,167 +2647,179 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>30500</v>
+        <v>28300</v>
       </c>
       <c r="E47" s="3">
-        <v>30100</v>
+        <v>27800</v>
       </c>
       <c r="F47" s="3">
-        <v>38500</v>
+        <v>27400</v>
       </c>
       <c r="G47" s="3">
-        <v>33800</v>
+        <v>37700</v>
       </c>
       <c r="H47" s="3">
-        <v>32100</v>
+        <v>30700</v>
       </c>
       <c r="I47" s="3">
-        <v>34100</v>
+        <v>29200</v>
       </c>
       <c r="J47" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K47" s="3">
         <v>2200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>7100</v>
-      </c>
-      <c r="R47" s="3">
-        <v>1400</v>
       </c>
       <c r="S47" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>503300</v>
+        <v>488500</v>
       </c>
       <c r="E48" s="3">
-        <v>478000</v>
+        <v>457700</v>
       </c>
       <c r="F48" s="3">
-        <v>508100</v>
+        <v>434700</v>
       </c>
       <c r="G48" s="3">
-        <v>188500</v>
+        <v>497400</v>
       </c>
       <c r="H48" s="3">
-        <v>189000</v>
+        <v>171400</v>
       </c>
       <c r="I48" s="3">
-        <v>190600</v>
+        <v>171800</v>
       </c>
       <c r="J48" s="3">
+        <v>173300</v>
+      </c>
+      <c r="K48" s="3">
         <v>147700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>154000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>146900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>163700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>333600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>101200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>98000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>336500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>100000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>166600</v>
+        <v>161400</v>
       </c>
       <c r="E49" s="3">
-        <v>134000</v>
+        <v>151500</v>
       </c>
       <c r="F49" s="3">
-        <v>134000</v>
+        <v>121800</v>
       </c>
       <c r="G49" s="3">
-        <v>74200</v>
+        <v>131200</v>
       </c>
       <c r="H49" s="3">
-        <v>65900</v>
+        <v>67500</v>
       </c>
       <c r="I49" s="3">
-        <v>57700</v>
+        <v>60000</v>
       </c>
       <c r="J49" s="3">
+        <v>52500</v>
+      </c>
+      <c r="K49" s="3">
         <v>50800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>16300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>102800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>71400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>65400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>91900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>67600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>44900</v>
+        <v>67200</v>
       </c>
       <c r="E52" s="3">
-        <v>41600</v>
+        <v>40900</v>
       </c>
       <c r="F52" s="3">
-        <v>43700</v>
+        <v>37800</v>
       </c>
       <c r="G52" s="3">
-        <v>61300</v>
+        <v>42800</v>
       </c>
       <c r="H52" s="3">
-        <v>42600</v>
+        <v>55700</v>
       </c>
       <c r="I52" s="3">
-        <v>15000</v>
+        <v>38700</v>
       </c>
       <c r="J52" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K52" s="3">
         <v>17300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>149300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>46800</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12117900</v>
+        <v>11706100</v>
       </c>
       <c r="E54" s="3">
-        <v>10604900</v>
+        <v>11019500</v>
       </c>
       <c r="F54" s="3">
-        <v>10590600</v>
+        <v>9643700</v>
       </c>
       <c r="G54" s="3">
-        <v>8932400</v>
+        <v>10367900</v>
       </c>
       <c r="H54" s="3">
-        <v>8765800</v>
+        <v>8122800</v>
       </c>
       <c r="I54" s="3">
-        <v>8447600</v>
+        <v>7971300</v>
       </c>
       <c r="J54" s="3">
+        <v>7681900</v>
+      </c>
+      <c r="K54" s="3">
         <v>7670400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7580600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6216900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5415600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7508500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6294800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5807800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6325800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6342100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5183700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3043,29 +3174,32 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>100600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>91900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>82000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>84500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>69700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>76400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,61 +3251,67 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>104100</v>
+        <v>129500</v>
       </c>
       <c r="E59" s="3">
-        <v>180300</v>
+        <v>94600</v>
       </c>
       <c r="F59" s="3">
-        <v>159000</v>
+        <v>163900</v>
       </c>
       <c r="G59" s="3">
-        <v>102700</v>
+        <v>155600</v>
       </c>
       <c r="H59" s="3">
-        <v>73700</v>
+        <v>93400</v>
       </c>
       <c r="I59" s="3">
-        <v>83800</v>
+        <v>67000</v>
       </c>
       <c r="J59" s="3">
+        <v>76200</v>
+      </c>
+      <c r="K59" s="3">
         <v>79700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>70300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>43100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>67400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>233500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>156700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>138800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>200700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>152000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>133300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,114 +3363,123 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1260000</v>
+        <v>1271000</v>
       </c>
       <c r="E61" s="3">
-        <v>1555300</v>
+        <v>1145700</v>
       </c>
       <c r="F61" s="3">
-        <v>1039900</v>
+        <v>1414300</v>
       </c>
       <c r="G61" s="3">
-        <v>568900</v>
+        <v>1018100</v>
       </c>
       <c r="H61" s="3">
-        <v>444800</v>
+        <v>847600</v>
       </c>
       <c r="I61" s="3">
-        <v>347500</v>
+        <v>839200</v>
       </c>
       <c r="J61" s="3">
+        <v>755100</v>
+      </c>
+      <c r="K61" s="3">
         <v>396400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>538900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>434400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>270600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>291300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>599700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>576000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>287000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>599300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>536100</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>186100</v>
+        <v>185100</v>
       </c>
       <c r="E62" s="3">
-        <v>114100</v>
+        <v>169300</v>
       </c>
       <c r="F62" s="3">
-        <v>132000</v>
+        <v>103700</v>
       </c>
       <c r="G62" s="3">
-        <v>34200</v>
+        <v>129300</v>
       </c>
       <c r="H62" s="3">
-        <v>31400</v>
+        <v>31100</v>
       </c>
       <c r="I62" s="3">
-        <v>28000</v>
+        <v>28500</v>
       </c>
       <c r="J62" s="3">
+        <v>25500</v>
+      </c>
+      <c r="K62" s="3">
         <v>24900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>23300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>31000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>12400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>33800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10204400</v>
+        <v>9794100</v>
       </c>
       <c r="E66" s="3">
-        <v>8885000</v>
+        <v>9279400</v>
       </c>
       <c r="F66" s="3">
-        <v>8866200</v>
+        <v>8079700</v>
       </c>
       <c r="G66" s="3">
-        <v>7787500</v>
+        <v>8679700</v>
       </c>
       <c r="H66" s="3">
-        <v>7770900</v>
+        <v>7081600</v>
       </c>
       <c r="I66" s="3">
-        <v>7583100</v>
+        <v>7066500</v>
       </c>
       <c r="J66" s="3">
+        <v>6895700</v>
+      </c>
+      <c r="K66" s="3">
         <v>6925700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6842200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5538600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4677100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6562900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5487400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5267600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5719600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5809300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4697200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1749300</v>
+        <v>1770500</v>
       </c>
       <c r="E72" s="3">
-        <v>1579400</v>
+        <v>1590700</v>
       </c>
       <c r="F72" s="3">
-        <v>1555500</v>
+        <v>1436300</v>
       </c>
       <c r="G72" s="3">
-        <v>987300</v>
+        <v>1534500</v>
       </c>
       <c r="H72" s="3">
-        <v>830100</v>
+        <v>897800</v>
       </c>
       <c r="I72" s="3">
-        <v>700100</v>
+        <v>754900</v>
       </c>
       <c r="J72" s="3">
+        <v>636700</v>
+      </c>
+      <c r="K72" s="3">
         <v>577500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>554000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>492800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>529300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>662100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>549800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>499000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>560000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>485800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>439400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1913600</v>
+        <v>1912000</v>
       </c>
       <c r="E76" s="3">
-        <v>1719900</v>
+        <v>1740100</v>
       </c>
       <c r="F76" s="3">
-        <v>1724400</v>
+        <v>1564000</v>
       </c>
       <c r="G76" s="3">
-        <v>1145000</v>
+        <v>1688200</v>
       </c>
       <c r="H76" s="3">
-        <v>994900</v>
+        <v>1041200</v>
       </c>
       <c r="I76" s="3">
-        <v>864500</v>
+        <v>904700</v>
       </c>
       <c r="J76" s="3">
+        <v>786200</v>
+      </c>
+      <c r="K76" s="3">
         <v>744700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>738400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>678400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>738500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>945600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>807400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>540200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>606200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>532800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>486400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>76400</v>
+        <v>67300</v>
       </c>
       <c r="E81" s="3">
-        <v>119000</v>
+        <v>191400</v>
       </c>
       <c r="F81" s="3">
-        <v>127000</v>
+        <v>108200</v>
       </c>
       <c r="G81" s="3">
-        <v>157200</v>
+        <v>115500</v>
       </c>
       <c r="H81" s="3">
-        <v>134700</v>
+        <v>33900</v>
       </c>
       <c r="I81" s="3">
-        <v>152700</v>
+        <v>281300</v>
       </c>
       <c r="J81" s="3">
+        <v>138900</v>
+      </c>
+      <c r="K81" s="3">
         <v>60100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>61700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>40700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>49700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>65400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>48700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>83900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>37400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>46400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>23200</v>
+        <v>25500</v>
       </c>
       <c r="E83" s="3">
-        <v>21100</v>
+        <v>40400</v>
       </c>
       <c r="F83" s="3">
-        <v>9700</v>
+        <v>19200</v>
       </c>
       <c r="G83" s="3">
-        <v>-13800</v>
+        <v>-24100</v>
       </c>
       <c r="H83" s="3">
-        <v>21900</v>
+        <v>20400</v>
       </c>
       <c r="I83" s="3">
-        <v>16900</v>
+        <v>35300</v>
       </c>
       <c r="J83" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K83" s="3">
         <v>4800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6100</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>759500</v>
+        <v>-223700</v>
       </c>
       <c r="E89" s="3">
-        <v>464500</v>
+        <v>1113000</v>
       </c>
       <c r="F89" s="3">
-        <v>598400</v>
+        <v>422400</v>
       </c>
       <c r="G89" s="3">
-        <v>-1702900</v>
+        <v>544200</v>
       </c>
       <c r="H89" s="3">
-        <v>201000</v>
+        <v>-1548500</v>
       </c>
       <c r="I89" s="3">
-        <v>232600</v>
+        <v>394300</v>
       </c>
       <c r="J89" s="3">
+        <v>211500</v>
+      </c>
+      <c r="K89" s="3">
         <v>1181300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>260000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>201800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-351600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>353200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>46900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-420300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>15000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>629600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-20300</v>
+        <v>-18000</v>
       </c>
       <c r="E91" s="3">
-        <v>-24900</v>
+        <v>-41100</v>
       </c>
       <c r="F91" s="3">
-        <v>-26300</v>
+        <v>-22600</v>
       </c>
       <c r="G91" s="3">
-        <v>-7800</v>
+        <v>-23900</v>
       </c>
       <c r="H91" s="3">
-        <v>-29200</v>
+        <v>-7100</v>
       </c>
       <c r="I91" s="3">
-        <v>-11700</v>
+        <v>-37200</v>
       </c>
       <c r="J91" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-34900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-24200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13300</v>
+        <v>-15000</v>
       </c>
       <c r="E94" s="3">
-        <v>-23500</v>
+        <v>-33500</v>
       </c>
       <c r="F94" s="3">
-        <v>-11300</v>
+        <v>-21400</v>
       </c>
       <c r="G94" s="3">
-        <v>-5900</v>
+        <v>-10200</v>
       </c>
       <c r="H94" s="3">
-        <v>-29200</v>
+        <v>-5400</v>
       </c>
       <c r="I94" s="3">
-        <v>20400</v>
+        <v>-7900</v>
       </c>
       <c r="J94" s="3">
+        <v>18600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-38100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-21300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-14200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,16 +5082,17 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -4870,40 +5104,43 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-24700</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>1100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>2100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-359500</v>
+        <v>-60800</v>
       </c>
       <c r="E100" s="3">
-        <v>-81000</v>
+        <v>-400600</v>
       </c>
       <c r="F100" s="3">
-        <v>73500</v>
+        <v>-73700</v>
       </c>
       <c r="G100" s="3">
-        <v>-158600</v>
+        <v>66900</v>
       </c>
       <c r="H100" s="3">
-        <v>33800</v>
+        <v>-144200</v>
       </c>
       <c r="I100" s="3">
-        <v>-77300</v>
+        <v>-39500</v>
       </c>
       <c r="J100" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-44300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-65200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>239100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>22700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>44600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>206700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>37200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>27800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>136100</v>
+        <v>144300</v>
       </c>
       <c r="E101" s="3">
-        <v>100400</v>
+        <v>215000</v>
       </c>
       <c r="F101" s="3">
-        <v>-359700</v>
+        <v>91300</v>
       </c>
       <c r="G101" s="3">
-        <v>1035800</v>
+        <v>-327100</v>
       </c>
       <c r="H101" s="3">
-        <v>-2700</v>
+        <v>941900</v>
       </c>
       <c r="I101" s="3">
-        <v>235000</v>
+        <v>211200</v>
       </c>
       <c r="J101" s="3">
+        <v>213700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-85600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>358800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>214100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>45300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>61100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>21100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>35900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-27600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>27100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>522800</v>
+        <v>-155200</v>
       </c>
       <c r="E102" s="3">
-        <v>460300</v>
+        <v>894000</v>
       </c>
       <c r="F102" s="3">
-        <v>301000</v>
+        <v>418600</v>
       </c>
       <c r="G102" s="3">
-        <v>-831600</v>
+        <v>273700</v>
       </c>
       <c r="H102" s="3">
-        <v>256700</v>
+        <v>-756200</v>
       </c>
       <c r="I102" s="3">
-        <v>357100</v>
+        <v>558100</v>
       </c>
       <c r="J102" s="3">
+        <v>324700</v>
+      </c>
+      <c r="K102" s="3">
         <v>991800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>554900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>631600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-291800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>437500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>270200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-404200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>673900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-152300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>GGAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>421300</v>
+        <v>596000</v>
       </c>
       <c r="E8" s="3">
-        <v>963600</v>
+        <v>372900</v>
       </c>
       <c r="F8" s="3">
-        <v>462800</v>
+        <v>852700</v>
       </c>
       <c r="G8" s="3">
-        <v>407900</v>
+        <v>409600</v>
       </c>
       <c r="H8" s="3">
-        <v>520500</v>
+        <v>654100</v>
       </c>
       <c r="I8" s="3">
-        <v>932800</v>
+        <v>460600</v>
       </c>
       <c r="J8" s="3">
+        <v>825500</v>
+      </c>
+      <c r="K8" s="3">
         <v>441600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>308800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>272200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>194300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>182800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>229300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>197700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>372300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>208700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>213100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>197300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,64 +1123,70 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-21500</v>
+        <v>-31600</v>
       </c>
       <c r="E15" s="3">
-        <v>-43300</v>
+        <v>-19100</v>
       </c>
       <c r="F15" s="3">
-        <v>-20200</v>
+        <v>-38300</v>
       </c>
       <c r="G15" s="3">
-        <v>-8800</v>
+        <v>-17900</v>
       </c>
       <c r="H15" s="3">
-        <v>-17600</v>
+        <v>-26000</v>
       </c>
       <c r="I15" s="3">
-        <v>-38000</v>
+        <v>-15600</v>
       </c>
       <c r="J15" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="K15" s="3">
         <v>-16200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-4800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-4300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-10500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-9700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-8500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-21900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-16300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-7300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>323300</v>
+        <v>490500</v>
       </c>
       <c r="E17" s="3">
-        <v>616900</v>
+        <v>286100</v>
       </c>
       <c r="F17" s="3">
-        <v>317000</v>
+        <v>545900</v>
       </c>
       <c r="G17" s="3">
-        <v>285300</v>
+        <v>280500</v>
       </c>
       <c r="H17" s="3">
-        <v>472900</v>
+        <v>476000</v>
       </c>
       <c r="I17" s="3">
-        <v>906000</v>
+        <v>418500</v>
       </c>
       <c r="J17" s="3">
+        <v>801700</v>
+      </c>
+      <c r="K17" s="3">
         <v>410000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>265700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>130600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>107600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>128500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>109500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>220900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>124300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>131500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>135000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>98100</v>
+        <v>105500</v>
       </c>
       <c r="E18" s="3">
-        <v>346600</v>
+        <v>86800</v>
       </c>
       <c r="F18" s="3">
-        <v>145800</v>
+        <v>306800</v>
       </c>
       <c r="G18" s="3">
-        <v>122600</v>
+        <v>129000</v>
       </c>
       <c r="H18" s="3">
-        <v>47600</v>
+        <v>178100</v>
       </c>
       <c r="I18" s="3">
-        <v>26800</v>
+        <v>42100</v>
       </c>
       <c r="J18" s="3">
+        <v>23800</v>
+      </c>
+      <c r="K18" s="3">
         <v>31600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>43100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>72000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>63700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>75200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>88100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>151400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>84400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>81600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>62200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>35700</v>
+        <v>19800</v>
       </c>
       <c r="E20" s="3">
-        <v>-33300</v>
+        <v>31600</v>
       </c>
       <c r="F20" s="3">
-        <v>27600</v>
+        <v>-29400</v>
       </c>
       <c r="G20" s="3">
-        <v>17900</v>
+        <v>24400</v>
       </c>
       <c r="H20" s="3">
-        <v>28500</v>
+        <v>-69500</v>
       </c>
       <c r="I20" s="3">
-        <v>397200</v>
+        <v>25300</v>
       </c>
       <c r="J20" s="3">
+        <v>351500</v>
+      </c>
+      <c r="K20" s="3">
         <v>212300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>43200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>20300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-16500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-12200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>159300</v>
+        <v>157500</v>
       </c>
       <c r="E21" s="3">
-        <v>353700</v>
+        <v>141000</v>
       </c>
       <c r="F21" s="3">
-        <v>192600</v>
+        <v>313000</v>
       </c>
       <c r="G21" s="3">
-        <v>116400</v>
+        <v>170400</v>
       </c>
       <c r="H21" s="3">
-        <v>96500</v>
+        <v>134600</v>
       </c>
       <c r="I21" s="3">
-        <v>459400</v>
+        <v>85400</v>
       </c>
       <c r="J21" s="3">
+        <v>406500</v>
+      </c>
+      <c r="K21" s="3">
         <v>259300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>91100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>96600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>63600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>78200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>92200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>95400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>146400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>78300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>75700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>133800</v>
+        <v>125300</v>
       </c>
       <c r="E23" s="3">
-        <v>313400</v>
+        <v>118400</v>
       </c>
       <c r="F23" s="3">
-        <v>173400</v>
+        <v>277300</v>
       </c>
       <c r="G23" s="3">
-        <v>140500</v>
+        <v>153400</v>
       </c>
       <c r="H23" s="3">
-        <v>76100</v>
+        <v>108600</v>
       </c>
       <c r="I23" s="3">
-        <v>424000</v>
+        <v>67400</v>
       </c>
       <c r="J23" s="3">
+        <v>375200</v>
+      </c>
+      <c r="K23" s="3">
         <v>243900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>86300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>92300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>59500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>74000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>92000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>89100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>134900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>72100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>75400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>65800</v>
+        <v>65100</v>
       </c>
       <c r="E24" s="3">
-        <v>119000</v>
+        <v>58200</v>
       </c>
       <c r="F24" s="3">
-        <v>62400</v>
+        <v>105300</v>
       </c>
       <c r="G24" s="3">
-        <v>20600</v>
+        <v>55200</v>
       </c>
       <c r="H24" s="3">
-        <v>42800</v>
+        <v>60300</v>
       </c>
       <c r="I24" s="3">
-        <v>142700</v>
+        <v>37900</v>
       </c>
       <c r="J24" s="3">
+        <v>126300</v>
+      </c>
+      <c r="K24" s="3">
         <v>105200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>26300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>29000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>17100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>22800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>22700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>36200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>40500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>25800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>25600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>68000</v>
+        <v>60200</v>
       </c>
       <c r="E26" s="3">
-        <v>194400</v>
+        <v>60200</v>
       </c>
       <c r="F26" s="3">
-        <v>111000</v>
+        <v>172000</v>
       </c>
       <c r="G26" s="3">
-        <v>119900</v>
+        <v>98200</v>
       </c>
       <c r="H26" s="3">
-        <v>33300</v>
+        <v>48300</v>
       </c>
       <c r="I26" s="3">
-        <v>281300</v>
+        <v>29500</v>
       </c>
       <c r="J26" s="3">
+        <v>248900</v>
+      </c>
+      <c r="K26" s="3">
         <v>138700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>60000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>63200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>42400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>51200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>69300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>52900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>94400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>46400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>49900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>67300</v>
+        <v>59900</v>
       </c>
       <c r="E27" s="3">
-        <v>191400</v>
+        <v>59500</v>
       </c>
       <c r="F27" s="3">
-        <v>108200</v>
+        <v>169300</v>
       </c>
       <c r="G27" s="3">
-        <v>115500</v>
+        <v>95800</v>
       </c>
       <c r="H27" s="3">
-        <v>33900</v>
+        <v>46100</v>
       </c>
       <c r="I27" s="3">
-        <v>281300</v>
+        <v>30000</v>
       </c>
       <c r="J27" s="3">
+        <v>249000</v>
+      </c>
+      <c r="K27" s="3">
         <v>138900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>60100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>61700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>40700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>48800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>65400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>48700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>88100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>42200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>46400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,8 +1903,8 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1853,28 +1913,31 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>900</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-4300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-4900</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-35700</v>
+        <v>-19800</v>
       </c>
       <c r="E32" s="3">
-        <v>33300</v>
+        <v>-31600</v>
       </c>
       <c r="F32" s="3">
-        <v>-27600</v>
+        <v>29400</v>
       </c>
       <c r="G32" s="3">
-        <v>-17900</v>
+        <v>-24400</v>
       </c>
       <c r="H32" s="3">
-        <v>-28500</v>
+        <v>69500</v>
       </c>
       <c r="I32" s="3">
-        <v>-397200</v>
+        <v>-25300</v>
       </c>
       <c r="J32" s="3">
+        <v>-351500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-212300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-43200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-20300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>16500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>12200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>67300</v>
+        <v>59900</v>
       </c>
       <c r="E33" s="3">
-        <v>191400</v>
+        <v>59500</v>
       </c>
       <c r="F33" s="3">
-        <v>108200</v>
+        <v>169300</v>
       </c>
       <c r="G33" s="3">
-        <v>115500</v>
+        <v>95800</v>
       </c>
       <c r="H33" s="3">
-        <v>33900</v>
+        <v>46100</v>
       </c>
       <c r="I33" s="3">
-        <v>281300</v>
+        <v>30000</v>
       </c>
       <c r="J33" s="3">
+        <v>249000</v>
+      </c>
+      <c r="K33" s="3">
         <v>138900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>60100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>61700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>40700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>49700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>65400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>48700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>83900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>37400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>46400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>67300</v>
+        <v>59900</v>
       </c>
       <c r="E35" s="3">
-        <v>191400</v>
+        <v>59500</v>
       </c>
       <c r="F35" s="3">
-        <v>108200</v>
+        <v>169300</v>
       </c>
       <c r="G35" s="3">
-        <v>115500</v>
+        <v>95800</v>
       </c>
       <c r="H35" s="3">
-        <v>33900</v>
+        <v>46100</v>
       </c>
       <c r="I35" s="3">
-        <v>281300</v>
+        <v>30000</v>
       </c>
       <c r="J35" s="3">
+        <v>249000</v>
+      </c>
+      <c r="K35" s="3">
         <v>138900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>60100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>61700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>40700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>49700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>65400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>48700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>83900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>37400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>46400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,120 +2399,127 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1731100</v>
+        <v>1851400</v>
       </c>
       <c r="E41" s="3">
-        <v>1526000</v>
+        <v>1531900</v>
       </c>
       <c r="F41" s="3">
-        <v>2276700</v>
+        <v>1350400</v>
       </c>
       <c r="G41" s="3">
-        <v>1936000</v>
+        <v>2014700</v>
       </c>
       <c r="H41" s="3">
-        <v>1296600</v>
+        <v>1907300</v>
       </c>
       <c r="I41" s="3">
-        <v>1535000</v>
+        <v>1147400</v>
       </c>
       <c r="J41" s="3">
+        <v>1358300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1599000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1905000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1658600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1327500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>759000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1429900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>894100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>822600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1623000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1625000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>791700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3282000</v>
+        <v>2890400</v>
       </c>
       <c r="E42" s="3">
-        <v>3256100</v>
+        <v>2904300</v>
       </c>
       <c r="F42" s="3">
-        <v>1578300</v>
+        <v>2881400</v>
       </c>
       <c r="G42" s="3">
-        <v>1963900</v>
+        <v>1396600</v>
       </c>
       <c r="H42" s="3">
-        <v>1756200</v>
+        <v>1934800</v>
       </c>
       <c r="I42" s="3">
-        <v>2272300</v>
+        <v>1554100</v>
       </c>
       <c r="J42" s="3">
+        <v>2010900</v>
+      </c>
+      <c r="K42" s="3">
         <v>1924600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1466600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1014200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>256000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>229600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2013000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>717600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>621300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>910600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>226700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>320200</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2692,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,176 +2751,188 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>28300</v>
+        <v>41900</v>
       </c>
       <c r="E47" s="3">
-        <v>27800</v>
+        <v>25000</v>
       </c>
       <c r="F47" s="3">
-        <v>27400</v>
+        <v>24600</v>
       </c>
       <c r="G47" s="3">
-        <v>37700</v>
+        <v>24200</v>
       </c>
       <c r="H47" s="3">
-        <v>30700</v>
+        <v>37100</v>
       </c>
       <c r="I47" s="3">
-        <v>29200</v>
+        <v>27200</v>
       </c>
       <c r="J47" s="3">
+        <v>25900</v>
+      </c>
+      <c r="K47" s="3">
         <v>31100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>7100</v>
-      </c>
-      <c r="S47" s="3">
-        <v>1400</v>
       </c>
       <c r="T47" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>488500</v>
+        <v>477500</v>
       </c>
       <c r="E48" s="3">
-        <v>457700</v>
+        <v>432300</v>
       </c>
       <c r="F48" s="3">
-        <v>434700</v>
+        <v>405000</v>
       </c>
       <c r="G48" s="3">
-        <v>497400</v>
+        <v>384700</v>
       </c>
       <c r="H48" s="3">
-        <v>171400</v>
+        <v>490100</v>
       </c>
       <c r="I48" s="3">
-        <v>171800</v>
+        <v>151700</v>
       </c>
       <c r="J48" s="3">
+        <v>152100</v>
+      </c>
+      <c r="K48" s="3">
         <v>173300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>147700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>154000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>146900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>163700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>333600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>101200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>98000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>336500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>100000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>161400</v>
+        <v>158000</v>
       </c>
       <c r="E49" s="3">
-        <v>151500</v>
+        <v>142900</v>
       </c>
       <c r="F49" s="3">
-        <v>121800</v>
+        <v>134100</v>
       </c>
       <c r="G49" s="3">
-        <v>131200</v>
+        <v>107800</v>
       </c>
       <c r="H49" s="3">
-        <v>67500</v>
+        <v>129200</v>
       </c>
       <c r="I49" s="3">
-        <v>60000</v>
+        <v>59700</v>
       </c>
       <c r="J49" s="3">
+        <v>53100</v>
+      </c>
+      <c r="K49" s="3">
         <v>52500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>50800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>16300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>102800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>71400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>65400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>91900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>67600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>67200</v>
+        <v>112500</v>
       </c>
       <c r="E52" s="3">
-        <v>40900</v>
+        <v>59400</v>
       </c>
       <c r="F52" s="3">
-        <v>37800</v>
+        <v>36200</v>
       </c>
       <c r="G52" s="3">
-        <v>42800</v>
+        <v>33500</v>
       </c>
       <c r="H52" s="3">
-        <v>55700</v>
+        <v>42200</v>
       </c>
       <c r="I52" s="3">
-        <v>38700</v>
+        <v>49300</v>
       </c>
       <c r="J52" s="3">
+        <v>34300</v>
+      </c>
+      <c r="K52" s="3">
         <v>13600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>149300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>46800</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11706100</v>
+        <v>11552800</v>
       </c>
       <c r="E54" s="3">
-        <v>11019500</v>
+        <v>10359100</v>
       </c>
       <c r="F54" s="3">
-        <v>9643700</v>
+        <v>9751500</v>
       </c>
       <c r="G54" s="3">
-        <v>10367900</v>
+        <v>8534000</v>
       </c>
       <c r="H54" s="3">
-        <v>8122800</v>
+        <v>10214100</v>
       </c>
       <c r="I54" s="3">
-        <v>7971300</v>
+        <v>7188100</v>
       </c>
       <c r="J54" s="3">
+        <v>7054000</v>
+      </c>
+      <c r="K54" s="3">
         <v>7681900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7670400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7580600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6216900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5415600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7508500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6294800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5807800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6325800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6342100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5183700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3177,29 +3307,32 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>100600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>91900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>82000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>84500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>69700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>76400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,64 +3387,70 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>129500</v>
+        <v>171800</v>
       </c>
       <c r="E59" s="3">
-        <v>94600</v>
+        <v>114600</v>
       </c>
       <c r="F59" s="3">
-        <v>163900</v>
+        <v>83700</v>
       </c>
       <c r="G59" s="3">
-        <v>155600</v>
+        <v>145100</v>
       </c>
       <c r="H59" s="3">
-        <v>93400</v>
+        <v>153300</v>
       </c>
       <c r="I59" s="3">
-        <v>67000</v>
+        <v>82700</v>
       </c>
       <c r="J59" s="3">
+        <v>59300</v>
+      </c>
+      <c r="K59" s="3">
         <v>76200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>79700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>70300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>43100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>67400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>233500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>156700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>138800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>200700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>152000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>133300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,120 +3505,129 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1271000</v>
+        <v>1440100</v>
       </c>
       <c r="E61" s="3">
-        <v>1145700</v>
+        <v>1124800</v>
       </c>
       <c r="F61" s="3">
-        <v>1414300</v>
+        <v>1013900</v>
       </c>
       <c r="G61" s="3">
-        <v>1018100</v>
+        <v>1251600</v>
       </c>
       <c r="H61" s="3">
-        <v>847600</v>
+        <v>1003000</v>
       </c>
       <c r="I61" s="3">
-        <v>839200</v>
+        <v>750100</v>
       </c>
       <c r="J61" s="3">
+        <v>742600</v>
+      </c>
+      <c r="K61" s="3">
         <v>755100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>396400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>538900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>434400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>270600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>291300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>599700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>576000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>287000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>599300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>536100</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>185100</v>
+        <v>98900</v>
       </c>
       <c r="E62" s="3">
-        <v>169300</v>
+        <v>163800</v>
       </c>
       <c r="F62" s="3">
-        <v>103700</v>
+        <v>149800</v>
       </c>
       <c r="G62" s="3">
-        <v>129300</v>
+        <v>91800</v>
       </c>
       <c r="H62" s="3">
-        <v>31100</v>
+        <v>127400</v>
       </c>
       <c r="I62" s="3">
-        <v>28500</v>
+        <v>27600</v>
       </c>
       <c r="J62" s="3">
+        <v>25300</v>
+      </c>
+      <c r="K62" s="3">
         <v>25500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>31000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>33800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9794100</v>
+        <v>9588700</v>
       </c>
       <c r="E66" s="3">
-        <v>9279400</v>
+        <v>8667100</v>
       </c>
       <c r="F66" s="3">
-        <v>8079700</v>
+        <v>8211600</v>
       </c>
       <c r="G66" s="3">
-        <v>8679700</v>
+        <v>7149900</v>
       </c>
       <c r="H66" s="3">
-        <v>7081600</v>
+        <v>8550900</v>
       </c>
       <c r="I66" s="3">
-        <v>7066500</v>
+        <v>6266700</v>
       </c>
       <c r="J66" s="3">
+        <v>6253400</v>
+      </c>
+      <c r="K66" s="3">
         <v>6895700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6925700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6842200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5538600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4677100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6562900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5487400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5267600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5719600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5809300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4697200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1770500</v>
+        <v>1768800</v>
       </c>
       <c r="E72" s="3">
-        <v>1590700</v>
+        <v>1566700</v>
       </c>
       <c r="F72" s="3">
-        <v>1436300</v>
+        <v>1407700</v>
       </c>
       <c r="G72" s="3">
-        <v>1534500</v>
+        <v>1271000</v>
       </c>
       <c r="H72" s="3">
-        <v>897800</v>
+        <v>1527000</v>
       </c>
       <c r="I72" s="3">
-        <v>754900</v>
+        <v>794500</v>
       </c>
       <c r="J72" s="3">
+        <v>668000</v>
+      </c>
+      <c r="K72" s="3">
         <v>636700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>577500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>554000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>492800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>529300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>662100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>549800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>499000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>560000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>485800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>439400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1912000</v>
+        <v>1964100</v>
       </c>
       <c r="E76" s="3">
-        <v>1740100</v>
+        <v>1692000</v>
       </c>
       <c r="F76" s="3">
-        <v>1564000</v>
+        <v>1539900</v>
       </c>
       <c r="G76" s="3">
-        <v>1688200</v>
+        <v>1384000</v>
       </c>
       <c r="H76" s="3">
-        <v>1041200</v>
+        <v>1663100</v>
       </c>
       <c r="I76" s="3">
-        <v>904700</v>
+        <v>921400</v>
       </c>
       <c r="J76" s="3">
+        <v>800600</v>
+      </c>
+      <c r="K76" s="3">
         <v>786200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>744700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>738400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>678400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>738500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>945600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>807400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>540200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>606200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>532800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>486400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>67300</v>
+        <v>59900</v>
       </c>
       <c r="E81" s="3">
-        <v>191400</v>
+        <v>59500</v>
       </c>
       <c r="F81" s="3">
-        <v>108200</v>
+        <v>169300</v>
       </c>
       <c r="G81" s="3">
-        <v>115500</v>
+        <v>95800</v>
       </c>
       <c r="H81" s="3">
-        <v>33900</v>
+        <v>46100</v>
       </c>
       <c r="I81" s="3">
-        <v>281300</v>
+        <v>30000</v>
       </c>
       <c r="J81" s="3">
+        <v>249000</v>
+      </c>
+      <c r="K81" s="3">
         <v>138900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>60100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>61700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>40700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>49700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>65400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>48700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>83900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>37400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>46400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>25500</v>
+        <v>32200</v>
       </c>
       <c r="E83" s="3">
-        <v>40400</v>
+        <v>22600</v>
       </c>
       <c r="F83" s="3">
-        <v>19200</v>
+        <v>35700</v>
       </c>
       <c r="G83" s="3">
-        <v>-24100</v>
+        <v>17000</v>
       </c>
       <c r="H83" s="3">
-        <v>20400</v>
+        <v>26000</v>
       </c>
       <c r="I83" s="3">
-        <v>35300</v>
+        <v>18000</v>
       </c>
       <c r="J83" s="3">
+        <v>31300</v>
+      </c>
+      <c r="K83" s="3">
         <v>15400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6100</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-223700</v>
+        <v>-6100</v>
       </c>
       <c r="E89" s="3">
-        <v>1113000</v>
+        <v>-198000</v>
       </c>
       <c r="F89" s="3">
-        <v>422400</v>
+        <v>985000</v>
       </c>
       <c r="G89" s="3">
-        <v>544200</v>
+        <v>373800</v>
       </c>
       <c r="H89" s="3">
-        <v>-1548500</v>
+        <v>481600</v>
       </c>
       <c r="I89" s="3">
-        <v>394300</v>
+        <v>-1370300</v>
       </c>
       <c r="J89" s="3">
+        <v>349000</v>
+      </c>
+      <c r="K89" s="3">
         <v>211500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1181300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>260000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>201800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-351600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>353200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>46900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-420300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>15000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>629600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-18000</v>
+        <v>-25500</v>
       </c>
       <c r="E91" s="3">
-        <v>-41100</v>
+        <v>-15900</v>
       </c>
       <c r="F91" s="3">
-        <v>-22600</v>
+        <v>-36300</v>
       </c>
       <c r="G91" s="3">
-        <v>-23900</v>
+        <v>-20000</v>
       </c>
       <c r="H91" s="3">
-        <v>-7100</v>
+        <v>-21200</v>
       </c>
       <c r="I91" s="3">
-        <v>-37200</v>
+        <v>-6200</v>
       </c>
       <c r="J91" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-10600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-34900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-24100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-24200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-15000</v>
+        <v>-31200</v>
       </c>
       <c r="E94" s="3">
-        <v>-33500</v>
+        <v>-13300</v>
       </c>
       <c r="F94" s="3">
-        <v>-21400</v>
+        <v>-29600</v>
       </c>
       <c r="G94" s="3">
-        <v>-10200</v>
+        <v>-18900</v>
       </c>
       <c r="H94" s="3">
-        <v>-5400</v>
+        <v>-9100</v>
       </c>
       <c r="I94" s="3">
-        <v>-7900</v>
+        <v>-4800</v>
       </c>
       <c r="J94" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K94" s="3">
         <v>18600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-38100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-21300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-14200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-10500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,19 +5315,20 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-100</v>
       </c>
-      <c r="E96" s="3">
-        <v>-1500</v>
-      </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5104,43 +5337,46 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-24700</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-21800</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>1100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>2100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-7600</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-60800</v>
+        <v>24900</v>
       </c>
       <c r="E100" s="3">
-        <v>-400600</v>
+        <v>-53800</v>
       </c>
       <c r="F100" s="3">
-        <v>-73700</v>
+        <v>-354500</v>
       </c>
       <c r="G100" s="3">
-        <v>66900</v>
+        <v>-65200</v>
       </c>
       <c r="H100" s="3">
-        <v>-144200</v>
+        <v>59200</v>
       </c>
       <c r="I100" s="3">
-        <v>-39500</v>
+        <v>-127600</v>
       </c>
       <c r="J100" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-70300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-44300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-65200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>239100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>22700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>44600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>206700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>37200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>27800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>144300</v>
+        <v>40200</v>
       </c>
       <c r="E101" s="3">
-        <v>215000</v>
+        <v>127700</v>
       </c>
       <c r="F101" s="3">
-        <v>91300</v>
+        <v>190300</v>
       </c>
       <c r="G101" s="3">
-        <v>-327100</v>
+        <v>80800</v>
       </c>
       <c r="H101" s="3">
-        <v>941900</v>
+        <v>-92300</v>
       </c>
       <c r="I101" s="3">
-        <v>211200</v>
+        <v>833500</v>
       </c>
       <c r="J101" s="3">
+        <v>186900</v>
+      </c>
+      <c r="K101" s="3">
         <v>213700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-85600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>358800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>214100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>45300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>61100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>21100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>35900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-27600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>27100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-155200</v>
+        <v>27900</v>
       </c>
       <c r="E102" s="3">
-        <v>894000</v>
+        <v>-137400</v>
       </c>
       <c r="F102" s="3">
-        <v>418600</v>
+        <v>791200</v>
       </c>
       <c r="G102" s="3">
-        <v>273700</v>
+        <v>370400</v>
       </c>
       <c r="H102" s="3">
-        <v>-756200</v>
+        <v>242200</v>
       </c>
       <c r="I102" s="3">
-        <v>558100</v>
+        <v>-669200</v>
       </c>
       <c r="J102" s="3">
+        <v>493900</v>
+      </c>
+      <c r="K102" s="3">
         <v>324700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>991800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>554900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>631600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-291800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>437500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>270200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-404200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>673900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-152300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
@@ -755,25 +755,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>596000</v>
+        <v>579100</v>
       </c>
       <c r="E8" s="3">
-        <v>372900</v>
+        <v>362300</v>
       </c>
       <c r="F8" s="3">
-        <v>852700</v>
+        <v>828500</v>
       </c>
       <c r="G8" s="3">
-        <v>409600</v>
+        <v>397900</v>
       </c>
       <c r="H8" s="3">
-        <v>654100</v>
+        <v>635500</v>
       </c>
       <c r="I8" s="3">
-        <v>460600</v>
+        <v>447500</v>
       </c>
       <c r="J8" s="3">
-        <v>825500</v>
+        <v>802100</v>
       </c>
       <c r="K8" s="3">
         <v>441600</v>
@@ -1132,25 +1132,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-31600</v>
+        <v>-30700</v>
       </c>
       <c r="E15" s="3">
-        <v>-19100</v>
+        <v>-18500</v>
       </c>
       <c r="F15" s="3">
-        <v>-38300</v>
+        <v>-37300</v>
       </c>
       <c r="G15" s="3">
-        <v>-17900</v>
+        <v>-17400</v>
       </c>
       <c r="H15" s="3">
-        <v>-26000</v>
+        <v>-25200</v>
       </c>
       <c r="I15" s="3">
-        <v>-15600</v>
+        <v>-15200</v>
       </c>
       <c r="J15" s="3">
-        <v>-33600</v>
+        <v>-32700</v>
       </c>
       <c r="K15" s="3">
         <v>-16200</v>
@@ -1211,25 +1211,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>490500</v>
+        <v>476600</v>
       </c>
       <c r="E17" s="3">
-        <v>286100</v>
+        <v>278000</v>
       </c>
       <c r="F17" s="3">
-        <v>545900</v>
+        <v>530400</v>
       </c>
       <c r="G17" s="3">
-        <v>280500</v>
+        <v>272600</v>
       </c>
       <c r="H17" s="3">
-        <v>476000</v>
+        <v>462500</v>
       </c>
       <c r="I17" s="3">
-        <v>418500</v>
+        <v>406600</v>
       </c>
       <c r="J17" s="3">
-        <v>801700</v>
+        <v>779000</v>
       </c>
       <c r="K17" s="3">
         <v>410000</v>
@@ -1270,25 +1270,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>105500</v>
+        <v>102500</v>
       </c>
       <c r="E18" s="3">
-        <v>86800</v>
+        <v>84300</v>
       </c>
       <c r="F18" s="3">
-        <v>306800</v>
+        <v>298100</v>
       </c>
       <c r="G18" s="3">
-        <v>129000</v>
+        <v>125400</v>
       </c>
       <c r="H18" s="3">
-        <v>178100</v>
+        <v>173000</v>
       </c>
       <c r="I18" s="3">
-        <v>42100</v>
+        <v>40900</v>
       </c>
       <c r="J18" s="3">
-        <v>23800</v>
+        <v>23100</v>
       </c>
       <c r="K18" s="3">
         <v>31600</v>
@@ -1352,25 +1352,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>19800</v>
+        <v>19300</v>
       </c>
       <c r="E20" s="3">
-        <v>31600</v>
+        <v>30700</v>
       </c>
       <c r="F20" s="3">
-        <v>-29400</v>
+        <v>-28600</v>
       </c>
       <c r="G20" s="3">
-        <v>24400</v>
+        <v>23700</v>
       </c>
       <c r="H20" s="3">
-        <v>-69500</v>
+        <v>-67500</v>
       </c>
       <c r="I20" s="3">
-        <v>25300</v>
+        <v>24500</v>
       </c>
       <c r="J20" s="3">
-        <v>351500</v>
+        <v>341500</v>
       </c>
       <c r="K20" s="3">
         <v>212300</v>
@@ -1411,25 +1411,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>157500</v>
+        <v>153000</v>
       </c>
       <c r="E21" s="3">
-        <v>141000</v>
+        <v>137000</v>
       </c>
       <c r="F21" s="3">
-        <v>313000</v>
+        <v>304100</v>
       </c>
       <c r="G21" s="3">
-        <v>170400</v>
+        <v>165600</v>
       </c>
       <c r="H21" s="3">
-        <v>134600</v>
+        <v>130800</v>
       </c>
       <c r="I21" s="3">
-        <v>85400</v>
+        <v>83000</v>
       </c>
       <c r="J21" s="3">
-        <v>406500</v>
+        <v>395000</v>
       </c>
       <c r="K21" s="3">
         <v>259300</v>
@@ -1529,25 +1529,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>125300</v>
+        <v>121700</v>
       </c>
       <c r="E23" s="3">
-        <v>118400</v>
+        <v>115000</v>
       </c>
       <c r="F23" s="3">
-        <v>277300</v>
+        <v>269400</v>
       </c>
       <c r="G23" s="3">
-        <v>153400</v>
+        <v>149100</v>
       </c>
       <c r="H23" s="3">
-        <v>108600</v>
+        <v>105500</v>
       </c>
       <c r="I23" s="3">
-        <v>67400</v>
+        <v>65500</v>
       </c>
       <c r="J23" s="3">
-        <v>375200</v>
+        <v>364600</v>
       </c>
       <c r="K23" s="3">
         <v>243900</v>
@@ -1588,25 +1588,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>65100</v>
+        <v>63200</v>
       </c>
       <c r="E24" s="3">
-        <v>58200</v>
+        <v>56600</v>
       </c>
       <c r="F24" s="3">
-        <v>105300</v>
+        <v>102300</v>
       </c>
       <c r="G24" s="3">
-        <v>55200</v>
+        <v>53700</v>
       </c>
       <c r="H24" s="3">
-        <v>60300</v>
+        <v>58600</v>
       </c>
       <c r="I24" s="3">
-        <v>37900</v>
+        <v>36800</v>
       </c>
       <c r="J24" s="3">
-        <v>126300</v>
+        <v>122700</v>
       </c>
       <c r="K24" s="3">
         <v>105200</v>
@@ -1706,25 +1706,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>60200</v>
+        <v>58500</v>
       </c>
       <c r="E26" s="3">
-        <v>60200</v>
+        <v>58500</v>
       </c>
       <c r="F26" s="3">
-        <v>172000</v>
+        <v>167100</v>
       </c>
       <c r="G26" s="3">
-        <v>98200</v>
+        <v>95400</v>
       </c>
       <c r="H26" s="3">
-        <v>48300</v>
+        <v>46900</v>
       </c>
       <c r="I26" s="3">
-        <v>29500</v>
+        <v>28700</v>
       </c>
       <c r="J26" s="3">
-        <v>248900</v>
+        <v>241900</v>
       </c>
       <c r="K26" s="3">
         <v>138700</v>
@@ -1765,25 +1765,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>59900</v>
+        <v>58200</v>
       </c>
       <c r="E27" s="3">
-        <v>59500</v>
+        <v>57800</v>
       </c>
       <c r="F27" s="3">
-        <v>169300</v>
+        <v>164500</v>
       </c>
       <c r="G27" s="3">
-        <v>95800</v>
+        <v>93100</v>
       </c>
       <c r="H27" s="3">
-        <v>46100</v>
+        <v>44800</v>
       </c>
       <c r="I27" s="3">
-        <v>30000</v>
+        <v>29100</v>
       </c>
       <c r="J27" s="3">
-        <v>249000</v>
+        <v>241900</v>
       </c>
       <c r="K27" s="3">
         <v>138900</v>
@@ -2060,25 +2060,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-19800</v>
+        <v>-19300</v>
       </c>
       <c r="E32" s="3">
-        <v>-31600</v>
+        <v>-30700</v>
       </c>
       <c r="F32" s="3">
-        <v>29400</v>
+        <v>28600</v>
       </c>
       <c r="G32" s="3">
-        <v>-24400</v>
+        <v>-23700</v>
       </c>
       <c r="H32" s="3">
-        <v>69500</v>
+        <v>67500</v>
       </c>
       <c r="I32" s="3">
-        <v>-25300</v>
+        <v>-24500</v>
       </c>
       <c r="J32" s="3">
-        <v>-351500</v>
+        <v>-341500</v>
       </c>
       <c r="K32" s="3">
         <v>-212300</v>
@@ -2119,25 +2119,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>59900</v>
+        <v>58200</v>
       </c>
       <c r="E33" s="3">
-        <v>59500</v>
+        <v>57800</v>
       </c>
       <c r="F33" s="3">
-        <v>169300</v>
+        <v>164500</v>
       </c>
       <c r="G33" s="3">
-        <v>95800</v>
+        <v>93100</v>
       </c>
       <c r="H33" s="3">
-        <v>46100</v>
+        <v>44800</v>
       </c>
       <c r="I33" s="3">
-        <v>30000</v>
+        <v>29100</v>
       </c>
       <c r="J33" s="3">
-        <v>249000</v>
+        <v>241900</v>
       </c>
       <c r="K33" s="3">
         <v>138900</v>
@@ -2237,25 +2237,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>59900</v>
+        <v>58200</v>
       </c>
       <c r="E35" s="3">
-        <v>59500</v>
+        <v>57800</v>
       </c>
       <c r="F35" s="3">
-        <v>169300</v>
+        <v>164500</v>
       </c>
       <c r="G35" s="3">
-        <v>95800</v>
+        <v>93100</v>
       </c>
       <c r="H35" s="3">
-        <v>46100</v>
+        <v>44800</v>
       </c>
       <c r="I35" s="3">
-        <v>30000</v>
+        <v>29100</v>
       </c>
       <c r="J35" s="3">
-        <v>249000</v>
+        <v>241900</v>
       </c>
       <c r="K35" s="3">
         <v>138900</v>
@@ -2406,25 +2406,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1851400</v>
+        <v>1798900</v>
       </c>
       <c r="E41" s="3">
-        <v>1531900</v>
+        <v>1488400</v>
       </c>
       <c r="F41" s="3">
-        <v>1350400</v>
+        <v>1312000</v>
       </c>
       <c r="G41" s="3">
-        <v>2014700</v>
+        <v>1957500</v>
       </c>
       <c r="H41" s="3">
-        <v>1907300</v>
+        <v>1853100</v>
       </c>
       <c r="I41" s="3">
-        <v>1147400</v>
+        <v>1114800</v>
       </c>
       <c r="J41" s="3">
-        <v>1358300</v>
+        <v>1319800</v>
       </c>
       <c r="K41" s="3">
         <v>1599000</v>
@@ -2465,25 +2465,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2890400</v>
+        <v>2808300</v>
       </c>
       <c r="E42" s="3">
-        <v>2904300</v>
+        <v>2821900</v>
       </c>
       <c r="F42" s="3">
-        <v>2881400</v>
+        <v>2799600</v>
       </c>
       <c r="G42" s="3">
-        <v>1396600</v>
+        <v>1357000</v>
       </c>
       <c r="H42" s="3">
-        <v>1934800</v>
+        <v>1879800</v>
       </c>
       <c r="I42" s="3">
-        <v>1554100</v>
+        <v>1510000</v>
       </c>
       <c r="J42" s="3">
-        <v>2010900</v>
+        <v>1953800</v>
       </c>
       <c r="K42" s="3">
         <v>1924600</v>
@@ -2760,25 +2760,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>41900</v>
+        <v>40700</v>
       </c>
       <c r="E47" s="3">
-        <v>25000</v>
+        <v>24300</v>
       </c>
       <c r="F47" s="3">
-        <v>24600</v>
+        <v>23900</v>
       </c>
       <c r="G47" s="3">
-        <v>24200</v>
+        <v>23500</v>
       </c>
       <c r="H47" s="3">
-        <v>37100</v>
+        <v>36100</v>
       </c>
       <c r="I47" s="3">
-        <v>27200</v>
+        <v>26400</v>
       </c>
       <c r="J47" s="3">
-        <v>25900</v>
+        <v>25100</v>
       </c>
       <c r="K47" s="3">
         <v>31100</v>
@@ -2819,25 +2819,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>477500</v>
+        <v>464000</v>
       </c>
       <c r="E48" s="3">
-        <v>432300</v>
+        <v>420000</v>
       </c>
       <c r="F48" s="3">
-        <v>405000</v>
+        <v>393500</v>
       </c>
       <c r="G48" s="3">
-        <v>384700</v>
+        <v>373800</v>
       </c>
       <c r="H48" s="3">
-        <v>490100</v>
+        <v>476100</v>
       </c>
       <c r="I48" s="3">
-        <v>151700</v>
+        <v>147400</v>
       </c>
       <c r="J48" s="3">
-        <v>152100</v>
+        <v>147700</v>
       </c>
       <c r="K48" s="3">
         <v>173300</v>
@@ -2878,25 +2878,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>158000</v>
+        <v>153500</v>
       </c>
       <c r="E49" s="3">
-        <v>142900</v>
+        <v>138800</v>
       </c>
       <c r="F49" s="3">
-        <v>134100</v>
+        <v>130300</v>
       </c>
       <c r="G49" s="3">
-        <v>107800</v>
+        <v>104700</v>
       </c>
       <c r="H49" s="3">
-        <v>129200</v>
+        <v>125600</v>
       </c>
       <c r="I49" s="3">
-        <v>59700</v>
+        <v>58000</v>
       </c>
       <c r="J49" s="3">
-        <v>53100</v>
+        <v>51600</v>
       </c>
       <c r="K49" s="3">
         <v>52500</v>
@@ -3055,25 +3055,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>112500</v>
+        <v>109300</v>
       </c>
       <c r="E52" s="3">
-        <v>59400</v>
+        <v>57800</v>
       </c>
       <c r="F52" s="3">
-        <v>36200</v>
+        <v>35100</v>
       </c>
       <c r="G52" s="3">
-        <v>33500</v>
+        <v>32500</v>
       </c>
       <c r="H52" s="3">
-        <v>42200</v>
+        <v>41000</v>
       </c>
       <c r="I52" s="3">
-        <v>49300</v>
+        <v>47900</v>
       </c>
       <c r="J52" s="3">
-        <v>34300</v>
+        <v>33300</v>
       </c>
       <c r="K52" s="3">
         <v>13600</v>
@@ -3173,25 +3173,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11552800</v>
+        <v>11224800</v>
       </c>
       <c r="E54" s="3">
-        <v>10359100</v>
+        <v>10065000</v>
       </c>
       <c r="F54" s="3">
-        <v>9751500</v>
+        <v>9474700</v>
       </c>
       <c r="G54" s="3">
-        <v>8534000</v>
+        <v>8291700</v>
       </c>
       <c r="H54" s="3">
-        <v>10214100</v>
+        <v>9924100</v>
       </c>
       <c r="I54" s="3">
-        <v>7188100</v>
+        <v>6984000</v>
       </c>
       <c r="J54" s="3">
-        <v>7054000</v>
+        <v>6853700</v>
       </c>
       <c r="K54" s="3">
         <v>7681900</v>
@@ -3396,25 +3396,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>171800</v>
+        <v>166900</v>
       </c>
       <c r="E59" s="3">
-        <v>114600</v>
+        <v>111300</v>
       </c>
       <c r="F59" s="3">
-        <v>83700</v>
+        <v>81400</v>
       </c>
       <c r="G59" s="3">
-        <v>145100</v>
+        <v>140900</v>
       </c>
       <c r="H59" s="3">
-        <v>153300</v>
+        <v>149000</v>
       </c>
       <c r="I59" s="3">
-        <v>82700</v>
+        <v>80300</v>
       </c>
       <c r="J59" s="3">
-        <v>59300</v>
+        <v>57600</v>
       </c>
       <c r="K59" s="3">
         <v>76200</v>
@@ -3514,25 +3514,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1440100</v>
+        <v>1399200</v>
       </c>
       <c r="E61" s="3">
-        <v>1124800</v>
+        <v>1092900</v>
       </c>
       <c r="F61" s="3">
-        <v>1013900</v>
+        <v>985100</v>
       </c>
       <c r="G61" s="3">
-        <v>1251600</v>
+        <v>1216000</v>
       </c>
       <c r="H61" s="3">
-        <v>1003000</v>
+        <v>974500</v>
       </c>
       <c r="I61" s="3">
-        <v>750100</v>
+        <v>728800</v>
       </c>
       <c r="J61" s="3">
-        <v>742600</v>
+        <v>721600</v>
       </c>
       <c r="K61" s="3">
         <v>755100</v>
@@ -3573,25 +3573,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>98900</v>
+        <v>96100</v>
       </c>
       <c r="E62" s="3">
-        <v>163800</v>
+        <v>159100</v>
       </c>
       <c r="F62" s="3">
-        <v>149800</v>
+        <v>145500</v>
       </c>
       <c r="G62" s="3">
-        <v>91800</v>
+        <v>89200</v>
       </c>
       <c r="H62" s="3">
-        <v>127400</v>
+        <v>123700</v>
       </c>
       <c r="I62" s="3">
-        <v>27600</v>
+        <v>26800</v>
       </c>
       <c r="J62" s="3">
-        <v>25300</v>
+        <v>24500</v>
       </c>
       <c r="K62" s="3">
         <v>25500</v>
@@ -3809,25 +3809,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9588700</v>
+        <v>9316500</v>
       </c>
       <c r="E66" s="3">
-        <v>8667100</v>
+        <v>8421000</v>
       </c>
       <c r="F66" s="3">
-        <v>8211600</v>
+        <v>7978500</v>
       </c>
       <c r="G66" s="3">
-        <v>7149900</v>
+        <v>6947000</v>
       </c>
       <c r="H66" s="3">
-        <v>8550900</v>
+        <v>8308200</v>
       </c>
       <c r="I66" s="3">
-        <v>6266700</v>
+        <v>6088800</v>
       </c>
       <c r="J66" s="3">
-        <v>6253400</v>
+        <v>6075800</v>
       </c>
       <c r="K66" s="3">
         <v>6895700</v>
@@ -4127,25 +4127,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1768800</v>
+        <v>1718600</v>
       </c>
       <c r="E72" s="3">
-        <v>1566700</v>
+        <v>1522200</v>
       </c>
       <c r="F72" s="3">
-        <v>1407700</v>
+        <v>1367700</v>
       </c>
       <c r="G72" s="3">
-        <v>1271000</v>
+        <v>1234900</v>
       </c>
       <c r="H72" s="3">
-        <v>1527000</v>
+        <v>1483700</v>
       </c>
       <c r="I72" s="3">
-        <v>794500</v>
+        <v>771900</v>
       </c>
       <c r="J72" s="3">
-        <v>668000</v>
+        <v>649100</v>
       </c>
       <c r="K72" s="3">
         <v>636700</v>
@@ -4363,25 +4363,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1964100</v>
+        <v>1908300</v>
       </c>
       <c r="E76" s="3">
-        <v>1692000</v>
+        <v>1644000</v>
       </c>
       <c r="F76" s="3">
-        <v>1539900</v>
+        <v>1496200</v>
       </c>
       <c r="G76" s="3">
-        <v>1384000</v>
+        <v>1344700</v>
       </c>
       <c r="H76" s="3">
-        <v>1663100</v>
+        <v>1615900</v>
       </c>
       <c r="I76" s="3">
-        <v>921400</v>
+        <v>895200</v>
       </c>
       <c r="J76" s="3">
-        <v>800600</v>
+        <v>777900</v>
       </c>
       <c r="K76" s="3">
         <v>786200</v>
@@ -4545,25 +4545,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>59900</v>
+        <v>58200</v>
       </c>
       <c r="E81" s="3">
-        <v>59500</v>
+        <v>57800</v>
       </c>
       <c r="F81" s="3">
-        <v>169300</v>
+        <v>164500</v>
       </c>
       <c r="G81" s="3">
-        <v>95800</v>
+        <v>93100</v>
       </c>
       <c r="H81" s="3">
-        <v>46100</v>
+        <v>44800</v>
       </c>
       <c r="I81" s="3">
-        <v>30000</v>
+        <v>29100</v>
       </c>
       <c r="J81" s="3">
-        <v>249000</v>
+        <v>241900</v>
       </c>
       <c r="K81" s="3">
         <v>138900</v>
@@ -4627,25 +4627,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>32200</v>
+        <v>31200</v>
       </c>
       <c r="E83" s="3">
-        <v>22600</v>
+        <v>22000</v>
       </c>
       <c r="F83" s="3">
-        <v>35700</v>
+        <v>34700</v>
       </c>
       <c r="G83" s="3">
-        <v>17000</v>
+        <v>16500</v>
       </c>
       <c r="H83" s="3">
-        <v>26000</v>
+        <v>25300</v>
       </c>
       <c r="I83" s="3">
-        <v>18000</v>
+        <v>17500</v>
       </c>
       <c r="J83" s="3">
-        <v>31300</v>
+        <v>30400</v>
       </c>
       <c r="K83" s="3">
         <v>15400</v>
@@ -4981,25 +4981,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="E89" s="3">
-        <v>-198000</v>
+        <v>-192300</v>
       </c>
       <c r="F89" s="3">
-        <v>985000</v>
+        <v>957000</v>
       </c>
       <c r="G89" s="3">
-        <v>373800</v>
+        <v>363200</v>
       </c>
       <c r="H89" s="3">
-        <v>481600</v>
+        <v>467900</v>
       </c>
       <c r="I89" s="3">
-        <v>-1370300</v>
+        <v>-1331400</v>
       </c>
       <c r="J89" s="3">
-        <v>349000</v>
+        <v>339100</v>
       </c>
       <c r="K89" s="3">
         <v>211500</v>
@@ -5063,25 +5063,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-25500</v>
+        <v>-24800</v>
       </c>
       <c r="E91" s="3">
-        <v>-15900</v>
+        <v>-15500</v>
       </c>
       <c r="F91" s="3">
-        <v>-36300</v>
+        <v>-35300</v>
       </c>
       <c r="G91" s="3">
-        <v>-20000</v>
+        <v>-19400</v>
       </c>
       <c r="H91" s="3">
-        <v>-21200</v>
+        <v>-20600</v>
       </c>
       <c r="I91" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="J91" s="3">
-        <v>-32900</v>
+        <v>-32000</v>
       </c>
       <c r="K91" s="3">
         <v>-10600</v>
@@ -5240,25 +5240,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-31200</v>
+        <v>-30300</v>
       </c>
       <c r="E94" s="3">
-        <v>-13300</v>
+        <v>-12900</v>
       </c>
       <c r="F94" s="3">
-        <v>-29600</v>
+        <v>-28800</v>
       </c>
       <c r="G94" s="3">
-        <v>-18900</v>
+        <v>-18400</v>
       </c>
       <c r="H94" s="3">
-        <v>-9100</v>
+        <v>-8800</v>
       </c>
       <c r="I94" s="3">
-        <v>-4800</v>
+        <v>-4600</v>
       </c>
       <c r="J94" s="3">
-        <v>-7000</v>
+        <v>-6800</v>
       </c>
       <c r="K94" s="3">
         <v>18600</v>
@@ -5322,7 +5322,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-20800</v>
+        <v>-20200</v>
       </c>
       <c r="E96" s="3">
         <v>-100</v>
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-21800</v>
+        <v>-21200</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -5558,25 +5558,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>24900</v>
+        <v>24200</v>
       </c>
       <c r="E100" s="3">
-        <v>-53800</v>
+        <v>-52300</v>
       </c>
       <c r="F100" s="3">
-        <v>-354500</v>
+        <v>-344400</v>
       </c>
       <c r="G100" s="3">
-        <v>-65200</v>
+        <v>-63300</v>
       </c>
       <c r="H100" s="3">
-        <v>59200</v>
+        <v>57500</v>
       </c>
       <c r="I100" s="3">
-        <v>-127600</v>
+        <v>-124000</v>
       </c>
       <c r="J100" s="3">
-        <v>-34900</v>
+        <v>-34000</v>
       </c>
       <c r="K100" s="3">
         <v>-70300</v>
@@ -5617,25 +5617,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>40200</v>
+        <v>39100</v>
       </c>
       <c r="E101" s="3">
-        <v>127700</v>
+        <v>124100</v>
       </c>
       <c r="F101" s="3">
-        <v>190300</v>
+        <v>184900</v>
       </c>
       <c r="G101" s="3">
-        <v>80800</v>
+        <v>78500</v>
       </c>
       <c r="H101" s="3">
-        <v>-92300</v>
+        <v>-89700</v>
       </c>
       <c r="I101" s="3">
-        <v>833500</v>
+        <v>809800</v>
       </c>
       <c r="J101" s="3">
-        <v>186900</v>
+        <v>181600</v>
       </c>
       <c r="K101" s="3">
         <v>213700</v>
@@ -5676,25 +5676,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>27900</v>
+        <v>27100</v>
       </c>
       <c r="E102" s="3">
-        <v>-137400</v>
+        <v>-133500</v>
       </c>
       <c r="F102" s="3">
-        <v>791200</v>
+        <v>768700</v>
       </c>
       <c r="G102" s="3">
-        <v>370400</v>
+        <v>359900</v>
       </c>
       <c r="H102" s="3">
-        <v>242200</v>
+        <v>235400</v>
       </c>
       <c r="I102" s="3">
-        <v>-669200</v>
+        <v>-650200</v>
       </c>
       <c r="J102" s="3">
-        <v>493900</v>
+        <v>479900</v>
       </c>
       <c r="K102" s="3">
         <v>324700</v>

--- a/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>GGAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,158 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>579100</v>
+        <v>509100</v>
       </c>
       <c r="E8" s="3">
-        <v>362300</v>
+        <v>561100</v>
       </c>
       <c r="F8" s="3">
-        <v>828500</v>
+        <v>351000</v>
       </c>
       <c r="G8" s="3">
-        <v>397900</v>
+        <v>802700</v>
       </c>
       <c r="H8" s="3">
-        <v>635500</v>
+        <v>522000</v>
       </c>
       <c r="I8" s="3">
-        <v>447500</v>
+        <v>615700</v>
       </c>
       <c r="J8" s="3">
+        <v>433600</v>
+      </c>
+      <c r="K8" s="3">
         <v>802100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>441600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>308800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>272200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>194300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>182800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>229300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>197700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>372300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>208700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>213100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>197300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,67 +1146,73 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-30700</v>
+        <v>-26400</v>
       </c>
       <c r="E15" s="3">
-        <v>-18500</v>
+        <v>-29700</v>
       </c>
       <c r="F15" s="3">
-        <v>-37300</v>
+        <v>-17900</v>
       </c>
       <c r="G15" s="3">
-        <v>-17400</v>
+        <v>-36100</v>
       </c>
       <c r="H15" s="3">
-        <v>-25200</v>
+        <v>-22800</v>
       </c>
       <c r="I15" s="3">
-        <v>-15200</v>
+        <v>-24500</v>
       </c>
       <c r="J15" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="K15" s="3">
         <v>-32700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-16200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-4800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-4300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-10500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-9700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-10100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-21900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-16300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-7300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>476600</v>
+        <v>350300</v>
       </c>
       <c r="E17" s="3">
-        <v>278000</v>
+        <v>461800</v>
       </c>
       <c r="F17" s="3">
-        <v>530400</v>
+        <v>269300</v>
       </c>
       <c r="G17" s="3">
-        <v>272600</v>
+        <v>513900</v>
       </c>
       <c r="H17" s="3">
-        <v>462500</v>
+        <v>357500</v>
       </c>
       <c r="I17" s="3">
-        <v>406600</v>
+        <v>448100</v>
       </c>
       <c r="J17" s="3">
+        <v>394000</v>
+      </c>
+      <c r="K17" s="3">
         <v>779000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>410000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>265700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>130600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>107600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>128500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>109500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>220900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>124300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>131500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>135000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>102500</v>
+        <v>158800</v>
       </c>
       <c r="E18" s="3">
-        <v>84300</v>
+        <v>99300</v>
       </c>
       <c r="F18" s="3">
-        <v>298100</v>
+        <v>81700</v>
       </c>
       <c r="G18" s="3">
-        <v>125400</v>
+        <v>288800</v>
       </c>
       <c r="H18" s="3">
-        <v>173000</v>
+        <v>164400</v>
       </c>
       <c r="I18" s="3">
-        <v>40900</v>
+        <v>167600</v>
       </c>
       <c r="J18" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K18" s="3">
         <v>23100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>31600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>43100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>72000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>63700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>75200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>88100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>151400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>84400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>81600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>62200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>19300</v>
+        <v>-113000</v>
       </c>
       <c r="E20" s="3">
-        <v>30700</v>
+        <v>18700</v>
       </c>
       <c r="F20" s="3">
-        <v>-28600</v>
+        <v>29800</v>
       </c>
       <c r="G20" s="3">
-        <v>23700</v>
+        <v>-27700</v>
       </c>
       <c r="H20" s="3">
-        <v>-67500</v>
+        <v>25100</v>
       </c>
       <c r="I20" s="3">
-        <v>24500</v>
+        <v>-65400</v>
       </c>
       <c r="J20" s="3">
+        <v>23800</v>
+      </c>
+      <c r="K20" s="3">
         <v>341500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>212300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>43200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>20300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-16500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-12200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>153000</v>
+        <v>72200</v>
       </c>
       <c r="E21" s="3">
-        <v>137000</v>
+        <v>148200</v>
       </c>
       <c r="F21" s="3">
-        <v>304100</v>
+        <v>132700</v>
       </c>
       <c r="G21" s="3">
-        <v>165600</v>
+        <v>294700</v>
       </c>
       <c r="H21" s="3">
-        <v>130800</v>
+        <v>212300</v>
       </c>
       <c r="I21" s="3">
-        <v>83000</v>
+        <v>126700</v>
       </c>
       <c r="J21" s="3">
+        <v>80400</v>
+      </c>
+      <c r="K21" s="3">
         <v>395000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>259300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>91100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>96600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>63600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>78200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>92200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>95400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>146400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>78300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>75700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>121700</v>
+        <v>45900</v>
       </c>
       <c r="E23" s="3">
-        <v>115000</v>
+        <v>118000</v>
       </c>
       <c r="F23" s="3">
-        <v>269400</v>
+        <v>111400</v>
       </c>
       <c r="G23" s="3">
-        <v>149100</v>
+        <v>261100</v>
       </c>
       <c r="H23" s="3">
-        <v>105500</v>
+        <v>189500</v>
       </c>
       <c r="I23" s="3">
-        <v>65500</v>
+        <v>102300</v>
       </c>
       <c r="J23" s="3">
+        <v>63400</v>
+      </c>
+      <c r="K23" s="3">
         <v>364600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>243900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>86300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>92300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>59500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>74000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>92000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>89100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>134900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>72100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>75400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>63200</v>
+        <v>23800</v>
       </c>
       <c r="E24" s="3">
-        <v>56600</v>
+        <v>61300</v>
       </c>
       <c r="F24" s="3">
-        <v>102300</v>
+        <v>54800</v>
       </c>
       <c r="G24" s="3">
-        <v>53700</v>
+        <v>99100</v>
       </c>
       <c r="H24" s="3">
-        <v>58600</v>
+        <v>70400</v>
       </c>
       <c r="I24" s="3">
-        <v>36800</v>
+        <v>56800</v>
       </c>
       <c r="J24" s="3">
+        <v>35600</v>
+      </c>
+      <c r="K24" s="3">
         <v>122700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>105200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>26300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>29000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>17100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>22800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>22700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>36200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>40500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>25800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>25600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>58500</v>
+        <v>22100</v>
       </c>
       <c r="E26" s="3">
-        <v>58500</v>
+        <v>56700</v>
       </c>
       <c r="F26" s="3">
-        <v>167100</v>
+        <v>56700</v>
       </c>
       <c r="G26" s="3">
-        <v>95400</v>
+        <v>161900</v>
       </c>
       <c r="H26" s="3">
-        <v>46900</v>
+        <v>119100</v>
       </c>
       <c r="I26" s="3">
-        <v>28700</v>
+        <v>45400</v>
       </c>
       <c r="J26" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K26" s="3">
         <v>241900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>138700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>60000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>63200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>42400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>51200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>69300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>52900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>94400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>46400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>49900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>58200</v>
+        <v>22100</v>
       </c>
       <c r="E27" s="3">
-        <v>57800</v>
+        <v>56300</v>
       </c>
       <c r="F27" s="3">
-        <v>164500</v>
+        <v>56000</v>
       </c>
       <c r="G27" s="3">
-        <v>93100</v>
+        <v>159400</v>
       </c>
       <c r="H27" s="3">
-        <v>44800</v>
+        <v>116000</v>
       </c>
       <c r="I27" s="3">
-        <v>29100</v>
+        <v>43400</v>
       </c>
       <c r="J27" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K27" s="3">
         <v>241900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>138900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>60100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>61700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>40700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>48800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>65400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>48700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>88100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>42200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>46400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1906,8 +1967,8 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1916,28 +1977,31 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>900</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-4300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-4900</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-19300</v>
+        <v>113000</v>
       </c>
       <c r="E32" s="3">
-        <v>-30700</v>
+        <v>-18700</v>
       </c>
       <c r="F32" s="3">
-        <v>28600</v>
+        <v>-29800</v>
       </c>
       <c r="G32" s="3">
-        <v>-23700</v>
+        <v>27700</v>
       </c>
       <c r="H32" s="3">
-        <v>67500</v>
+        <v>-25100</v>
       </c>
       <c r="I32" s="3">
-        <v>-24500</v>
+        <v>65400</v>
       </c>
       <c r="J32" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-341500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-212300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-43200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-20300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>8800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>16500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>12200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>58200</v>
+        <v>22100</v>
       </c>
       <c r="E33" s="3">
-        <v>57800</v>
+        <v>56300</v>
       </c>
       <c r="F33" s="3">
-        <v>164500</v>
+        <v>56000</v>
       </c>
       <c r="G33" s="3">
-        <v>93100</v>
+        <v>159400</v>
       </c>
       <c r="H33" s="3">
-        <v>44800</v>
+        <v>116000</v>
       </c>
       <c r="I33" s="3">
-        <v>29100</v>
+        <v>43400</v>
       </c>
       <c r="J33" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K33" s="3">
         <v>241900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>138900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>60100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>61700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>40700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>49700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>65400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>48700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>83900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>37400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>46400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>58200</v>
+        <v>22100</v>
       </c>
       <c r="E35" s="3">
-        <v>57800</v>
+        <v>56300</v>
       </c>
       <c r="F35" s="3">
-        <v>164500</v>
+        <v>56000</v>
       </c>
       <c r="G35" s="3">
-        <v>93100</v>
+        <v>159400</v>
       </c>
       <c r="H35" s="3">
-        <v>44800</v>
+        <v>116000</v>
       </c>
       <c r="I35" s="3">
-        <v>29100</v>
+        <v>43400</v>
       </c>
       <c r="J35" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K35" s="3">
         <v>241900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>138900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>60100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>61700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>40700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>49700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>65400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>48700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>83900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>37400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>46400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,126 +2486,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1798900</v>
+        <v>2150400</v>
       </c>
       <c r="E41" s="3">
-        <v>1488400</v>
+        <v>1968700</v>
       </c>
       <c r="F41" s="3">
-        <v>1312000</v>
+        <v>1442100</v>
       </c>
       <c r="G41" s="3">
-        <v>1957500</v>
+        <v>1271200</v>
       </c>
       <c r="H41" s="3">
-        <v>1853100</v>
+        <v>1896600</v>
       </c>
       <c r="I41" s="3">
-        <v>1114800</v>
+        <v>1795500</v>
       </c>
       <c r="J41" s="3">
+        <v>1080100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1319800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1599000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1905000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1658600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1327500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>759000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1429900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>894100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>822600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1623000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1625000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>791700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2808300</v>
+        <v>3270500</v>
       </c>
       <c r="E42" s="3">
-        <v>2821900</v>
+        <v>3073400</v>
       </c>
       <c r="F42" s="3">
-        <v>2799600</v>
+        <v>2734100</v>
       </c>
       <c r="G42" s="3">
-        <v>1357000</v>
+        <v>2712600</v>
       </c>
       <c r="H42" s="3">
-        <v>1879800</v>
+        <v>1314800</v>
       </c>
       <c r="I42" s="3">
-        <v>1510000</v>
+        <v>1821400</v>
       </c>
       <c r="J42" s="3">
+        <v>1463000</v>
+      </c>
+      <c r="K42" s="3">
         <v>1953800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1924600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1466600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1014200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>256000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>229600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2013000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>717600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>621300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>910600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>226700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>320200</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2695,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,185 +2856,197 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>40700</v>
+        <v>36000</v>
       </c>
       <c r="E47" s="3">
-        <v>24300</v>
+        <v>44500</v>
       </c>
       <c r="F47" s="3">
-        <v>23900</v>
+        <v>23500</v>
       </c>
       <c r="G47" s="3">
-        <v>23500</v>
+        <v>23100</v>
       </c>
       <c r="H47" s="3">
-        <v>36100</v>
+        <v>22800</v>
       </c>
       <c r="I47" s="3">
-        <v>26400</v>
+        <v>35000</v>
       </c>
       <c r="J47" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K47" s="3">
         <v>25100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>31100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>7100</v>
-      </c>
-      <c r="T47" s="3">
-        <v>1400</v>
       </c>
       <c r="U47" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>464000</v>
+        <v>504000</v>
       </c>
       <c r="E48" s="3">
-        <v>420000</v>
+        <v>507800</v>
       </c>
       <c r="F48" s="3">
-        <v>393500</v>
+        <v>407000</v>
       </c>
       <c r="G48" s="3">
-        <v>373800</v>
+        <v>381300</v>
       </c>
       <c r="H48" s="3">
-        <v>476100</v>
+        <v>362100</v>
       </c>
       <c r="I48" s="3">
-        <v>147400</v>
+        <v>461300</v>
       </c>
       <c r="J48" s="3">
+        <v>142800</v>
+      </c>
+      <c r="K48" s="3">
         <v>147700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>173300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>147700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>154000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>146900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>163700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>333600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>101200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>98000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>336500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>100000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>153500</v>
+        <v>166900</v>
       </c>
       <c r="E49" s="3">
-        <v>138800</v>
+        <v>168000</v>
       </c>
       <c r="F49" s="3">
-        <v>130300</v>
+        <v>134500</v>
       </c>
       <c r="G49" s="3">
-        <v>104700</v>
+        <v>126200</v>
       </c>
       <c r="H49" s="3">
-        <v>125600</v>
+        <v>101500</v>
       </c>
       <c r="I49" s="3">
-        <v>58000</v>
+        <v>121700</v>
       </c>
       <c r="J49" s="3">
+        <v>56200</v>
+      </c>
+      <c r="K49" s="3">
         <v>51600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>52500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>50800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>16300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>15900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>102800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>71400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>65400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>91900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>67600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>109300</v>
+        <v>75100</v>
       </c>
       <c r="E52" s="3">
-        <v>57800</v>
+        <v>119600</v>
       </c>
       <c r="F52" s="3">
-        <v>35100</v>
+        <v>56000</v>
       </c>
       <c r="G52" s="3">
-        <v>32500</v>
+        <v>34000</v>
       </c>
       <c r="H52" s="3">
-        <v>41000</v>
+        <v>31500</v>
       </c>
       <c r="I52" s="3">
-        <v>47900</v>
+        <v>39700</v>
       </c>
       <c r="J52" s="3">
+        <v>46400</v>
+      </c>
+      <c r="K52" s="3">
         <v>33300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>149300</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>46800</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11224800</v>
+        <v>12057800</v>
       </c>
       <c r="E54" s="3">
-        <v>10065000</v>
+        <v>12284400</v>
       </c>
       <c r="F54" s="3">
-        <v>9474700</v>
+        <v>9751900</v>
       </c>
       <c r="G54" s="3">
-        <v>8291700</v>
+        <v>9180000</v>
       </c>
       <c r="H54" s="3">
-        <v>9924100</v>
+        <v>8033800</v>
       </c>
       <c r="I54" s="3">
-        <v>6984000</v>
+        <v>9615400</v>
       </c>
       <c r="J54" s="3">
+        <v>6766800</v>
+      </c>
+      <c r="K54" s="3">
         <v>6853700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7681900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7670400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7580600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6216900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5415600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7508500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6294800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5807800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6325800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6342100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5183700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3310,29 +3441,32 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>91900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>82000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>84500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>69700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>76400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,67 +3524,73 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>166900</v>
+        <v>111300</v>
       </c>
       <c r="E59" s="3">
-        <v>111300</v>
+        <v>182000</v>
       </c>
       <c r="F59" s="3">
-        <v>81400</v>
+        <v>107800</v>
       </c>
       <c r="G59" s="3">
-        <v>140900</v>
+        <v>78800</v>
       </c>
       <c r="H59" s="3">
-        <v>149000</v>
+        <v>136600</v>
       </c>
       <c r="I59" s="3">
-        <v>80300</v>
+        <v>144400</v>
       </c>
       <c r="J59" s="3">
+        <v>77800</v>
+      </c>
+      <c r="K59" s="3">
         <v>57600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>76200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>79700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>70300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>43100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>67400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>233500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>156700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>138800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>200700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>152000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>133300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3508,126 +3648,135 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1399200</v>
+        <v>1449700</v>
       </c>
       <c r="E61" s="3">
-        <v>1092900</v>
+        <v>610300</v>
       </c>
       <c r="F61" s="3">
-        <v>985100</v>
+        <v>1058900</v>
       </c>
       <c r="G61" s="3">
-        <v>1216000</v>
+        <v>954500</v>
       </c>
       <c r="H61" s="3">
-        <v>974500</v>
+        <v>1178200</v>
       </c>
       <c r="I61" s="3">
-        <v>728800</v>
+        <v>944200</v>
       </c>
       <c r="J61" s="3">
+        <v>706100</v>
+      </c>
+      <c r="K61" s="3">
         <v>721600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>755100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>396400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>538900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>434400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>270600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>291300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>599700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>576000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>287000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>599300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>536100</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>96100</v>
+        <v>97700</v>
       </c>
       <c r="E62" s="3">
-        <v>159100</v>
+        <v>105200</v>
       </c>
       <c r="F62" s="3">
-        <v>145500</v>
+        <v>154200</v>
       </c>
       <c r="G62" s="3">
-        <v>89200</v>
+        <v>141000</v>
       </c>
       <c r="H62" s="3">
-        <v>123700</v>
+        <v>86400</v>
       </c>
       <c r="I62" s="3">
-        <v>26800</v>
+        <v>119900</v>
       </c>
       <c r="J62" s="3">
+        <v>25900</v>
+      </c>
+      <c r="K62" s="3">
         <v>24500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>31000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>12400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>33800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>10100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9316500</v>
+        <v>9946100</v>
       </c>
       <c r="E66" s="3">
-        <v>8421000</v>
+        <v>10196000</v>
       </c>
       <c r="F66" s="3">
-        <v>7978500</v>
+        <v>8159100</v>
       </c>
       <c r="G66" s="3">
-        <v>6947000</v>
+        <v>7730300</v>
       </c>
       <c r="H66" s="3">
-        <v>8308200</v>
+        <v>6730900</v>
       </c>
       <c r="I66" s="3">
-        <v>6088800</v>
+        <v>8049800</v>
       </c>
       <c r="J66" s="3">
+        <v>5899400</v>
+      </c>
+      <c r="K66" s="3">
         <v>6075800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6895700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6925700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6842200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5538600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4677100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6562900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5487400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5267600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5719600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5809300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4697200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1718600</v>
+        <v>1919000</v>
       </c>
       <c r="E72" s="3">
-        <v>1522200</v>
+        <v>3115400</v>
       </c>
       <c r="F72" s="3">
-        <v>1367700</v>
+        <v>1474900</v>
       </c>
       <c r="G72" s="3">
-        <v>1234900</v>
+        <v>1325200</v>
       </c>
       <c r="H72" s="3">
-        <v>1483700</v>
+        <v>1196500</v>
       </c>
       <c r="I72" s="3">
-        <v>771900</v>
+        <v>1437500</v>
       </c>
       <c r="J72" s="3">
+        <v>747900</v>
+      </c>
+      <c r="K72" s="3">
         <v>649100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>636700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>577500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>554000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>492800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>529300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>662100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>549800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>499000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>560000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>485800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>439400</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1908300</v>
+        <v>2111700</v>
       </c>
       <c r="E76" s="3">
-        <v>1644000</v>
+        <v>2088500</v>
       </c>
       <c r="F76" s="3">
-        <v>1496200</v>
+        <v>1592800</v>
       </c>
       <c r="G76" s="3">
-        <v>1344700</v>
+        <v>1449600</v>
       </c>
       <c r="H76" s="3">
-        <v>1615900</v>
+        <v>1302900</v>
       </c>
       <c r="I76" s="3">
-        <v>895200</v>
+        <v>1565700</v>
       </c>
       <c r="J76" s="3">
+        <v>867400</v>
+      </c>
+      <c r="K76" s="3">
         <v>777900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>786200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>744700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>738400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>678400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>738500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>945600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>807400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>540200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>606200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>532800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>486400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>58200</v>
+        <v>22100</v>
       </c>
       <c r="E81" s="3">
-        <v>57800</v>
+        <v>56300</v>
       </c>
       <c r="F81" s="3">
-        <v>164500</v>
+        <v>56000</v>
       </c>
       <c r="G81" s="3">
-        <v>93100</v>
+        <v>159400</v>
       </c>
       <c r="H81" s="3">
-        <v>44800</v>
+        <v>116000</v>
       </c>
       <c r="I81" s="3">
-        <v>29100</v>
+        <v>43400</v>
       </c>
       <c r="J81" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K81" s="3">
         <v>241900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>138900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>60100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>61700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>40700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>49700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>65400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>48700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>83900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>37400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>46400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>31200</v>
+        <v>26400</v>
       </c>
       <c r="E83" s="3">
-        <v>22000</v>
+        <v>30300</v>
       </c>
       <c r="F83" s="3">
-        <v>34700</v>
+        <v>21300</v>
       </c>
       <c r="G83" s="3">
-        <v>16500</v>
+        <v>33600</v>
       </c>
       <c r="H83" s="3">
-        <v>25300</v>
+        <v>22800</v>
       </c>
       <c r="I83" s="3">
-        <v>17500</v>
+        <v>24500</v>
       </c>
       <c r="J83" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K83" s="3">
         <v>30400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>6100</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5900</v>
+        <v>45700</v>
       </c>
       <c r="E89" s="3">
-        <v>-192300</v>
+        <v>-5800</v>
       </c>
       <c r="F89" s="3">
-        <v>957000</v>
+        <v>-186400</v>
       </c>
       <c r="G89" s="3">
-        <v>363200</v>
+        <v>927200</v>
       </c>
       <c r="H89" s="3">
-        <v>467900</v>
+        <v>493100</v>
       </c>
       <c r="I89" s="3">
-        <v>-1331400</v>
+        <v>453300</v>
       </c>
       <c r="J89" s="3">
+        <v>-1290000</v>
+      </c>
+      <c r="K89" s="3">
         <v>339100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>211500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1181300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>260000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>201800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-351600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>353200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>46900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-420300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>15000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>629600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-24800</v>
+        <v>-13300</v>
       </c>
       <c r="E91" s="3">
-        <v>-15500</v>
+        <v>-24000</v>
       </c>
       <c r="F91" s="3">
-        <v>-35300</v>
+        <v>-15000</v>
       </c>
       <c r="G91" s="3">
-        <v>-19400</v>
+        <v>-34200</v>
       </c>
       <c r="H91" s="3">
-        <v>-20600</v>
+        <v>-18800</v>
       </c>
       <c r="I91" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="O91" s="3">
         <v>-6100</v>
       </c>
-      <c r="J91" s="3">
-        <v>-32000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-34900</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-24100</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-24200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-30300</v>
+        <v>-20100</v>
       </c>
       <c r="E94" s="3">
-        <v>-12900</v>
+        <v>-29300</v>
       </c>
       <c r="F94" s="3">
-        <v>-28800</v>
+        <v>-12500</v>
       </c>
       <c r="G94" s="3">
-        <v>-18400</v>
+        <v>-27900</v>
       </c>
       <c r="H94" s="3">
-        <v>-8800</v>
+        <v>-17800</v>
       </c>
       <c r="I94" s="3">
-        <v>-4600</v>
+        <v>-8500</v>
       </c>
       <c r="J94" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>18600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-38100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-21300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-14200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-10500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,22 +5549,23 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-20200</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="F96" s="3">
         <v>-100</v>
       </c>
-      <c r="F96" s="3">
-        <v>-1300</v>
-      </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -5340,43 +5574,46 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-21200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>1100</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>2100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-7600</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>24200</v>
+        <v>5600</v>
       </c>
       <c r="E100" s="3">
-        <v>-52300</v>
+        <v>23500</v>
       </c>
       <c r="F100" s="3">
-        <v>-344400</v>
+        <v>-50700</v>
       </c>
       <c r="G100" s="3">
-        <v>-63300</v>
+        <v>-333700</v>
       </c>
       <c r="H100" s="3">
-        <v>57500</v>
+        <v>-61400</v>
       </c>
       <c r="I100" s="3">
-        <v>-124000</v>
+        <v>55700</v>
       </c>
       <c r="J100" s="3">
+        <v>-120100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-34000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-70300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-44300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-65200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>239100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>22700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>44600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>206700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>37200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>27800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>39100</v>
+        <v>155000</v>
       </c>
       <c r="E101" s="3">
-        <v>124100</v>
+        <v>37900</v>
       </c>
       <c r="F101" s="3">
-        <v>184900</v>
+        <v>120200</v>
       </c>
       <c r="G101" s="3">
-        <v>78500</v>
+        <v>179100</v>
       </c>
       <c r="H101" s="3">
-        <v>-89700</v>
+        <v>108500</v>
       </c>
       <c r="I101" s="3">
-        <v>809800</v>
+        <v>-86900</v>
       </c>
       <c r="J101" s="3">
+        <v>784700</v>
+      </c>
+      <c r="K101" s="3">
         <v>181600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>213700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-85600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>358800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>214100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>45300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>61100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>21100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>35900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-27600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>27100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>27100</v>
+        <v>186200</v>
       </c>
       <c r="E102" s="3">
-        <v>-133500</v>
+        <v>26300</v>
       </c>
       <c r="F102" s="3">
-        <v>768700</v>
+        <v>-129300</v>
       </c>
       <c r="G102" s="3">
-        <v>359900</v>
+        <v>744800</v>
       </c>
       <c r="H102" s="3">
-        <v>235400</v>
+        <v>497400</v>
       </c>
       <c r="I102" s="3">
-        <v>-650200</v>
+        <v>228000</v>
       </c>
       <c r="J102" s="3">
+        <v>-630000</v>
+      </c>
+      <c r="K102" s="3">
         <v>479900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>324700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>991800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>554900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>631600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-291800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>437500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>270200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-404200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>673900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-152300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>GGAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,172 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>509100</v>
+        <v>676200</v>
       </c>
       <c r="E8" s="3">
-        <v>561100</v>
+        <v>1207200</v>
       </c>
       <c r="F8" s="3">
-        <v>351000</v>
+        <v>545100</v>
       </c>
       <c r="G8" s="3">
-        <v>802700</v>
+        <v>541400</v>
       </c>
       <c r="H8" s="3">
-        <v>522000</v>
+        <v>338700</v>
       </c>
       <c r="I8" s="3">
+        <v>522600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>558800</v>
+      </c>
+      <c r="K8" s="3">
         <v>615700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>433600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>802100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>441600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>308800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>272200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>194300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>182800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>229300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>197700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>372300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>208700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>213100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>197300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +891,14 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +959,14 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,70 +1189,82 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-26400</v>
+        <v>-33200</v>
       </c>
       <c r="E15" s="3">
-        <v>-29700</v>
+        <v>-64100</v>
       </c>
       <c r="F15" s="3">
-        <v>-17900</v>
+        <v>-28200</v>
       </c>
       <c r="G15" s="3">
-        <v>-36100</v>
+        <v>-28700</v>
       </c>
       <c r="H15" s="3">
-        <v>-22800</v>
+        <v>-17300</v>
       </c>
       <c r="I15" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="K15" s="3">
         <v>-24500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-14700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-32700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-16200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-4800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-4300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-10500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>-8500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>-10100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>-21900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>-16300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>-7300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>350300</v>
+        <v>443200</v>
       </c>
       <c r="E17" s="3">
-        <v>461800</v>
+        <v>881500</v>
       </c>
       <c r="F17" s="3">
-        <v>269300</v>
+        <v>375000</v>
       </c>
       <c r="G17" s="3">
-        <v>513900</v>
+        <v>445600</v>
       </c>
       <c r="H17" s="3">
-        <v>357500</v>
+        <v>259900</v>
       </c>
       <c r="I17" s="3">
+        <v>308800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>384600</v>
+      </c>
+      <c r="K17" s="3">
         <v>448100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>394000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>779000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>410000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>265700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>200200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>130600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>107600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>128500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>109500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>220900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>124300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>131500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>135000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>158800</v>
+        <v>233000</v>
       </c>
       <c r="E18" s="3">
-        <v>99300</v>
+        <v>325700</v>
       </c>
       <c r="F18" s="3">
-        <v>81700</v>
+        <v>170000</v>
       </c>
       <c r="G18" s="3">
-        <v>288800</v>
+        <v>95800</v>
       </c>
       <c r="H18" s="3">
-        <v>164400</v>
+        <v>78800</v>
       </c>
       <c r="I18" s="3">
+        <v>213800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>174200</v>
+      </c>
+      <c r="K18" s="3">
         <v>167600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>39600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>23100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>31600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>43100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>72000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>63700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>75200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>100800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>88100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>151400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>84400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>81600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>62200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1446,146 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-113000</v>
+        <v>-93300</v>
       </c>
       <c r="E20" s="3">
-        <v>18700</v>
+        <v>-141600</v>
       </c>
       <c r="F20" s="3">
-        <v>29800</v>
+        <v>-120900</v>
       </c>
       <c r="G20" s="3">
-        <v>-27700</v>
+        <v>18000</v>
       </c>
       <c r="H20" s="3">
-        <v>25100</v>
+        <v>28700</v>
       </c>
       <c r="I20" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>28700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-65400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>23800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>341500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>212300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>43200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>20300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-4200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-8800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-16500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-12200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-6200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>72200</v>
+        <v>178300</v>
       </c>
       <c r="E21" s="3">
-        <v>148200</v>
+        <v>243200</v>
       </c>
       <c r="F21" s="3">
-        <v>132700</v>
+        <v>74500</v>
       </c>
       <c r="G21" s="3">
-        <v>294700</v>
+        <v>115300</v>
       </c>
       <c r="H21" s="3">
-        <v>212300</v>
+        <v>139600</v>
       </c>
       <c r="I21" s="3">
+        <v>173700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>224900</v>
+      </c>
+      <c r="K21" s="3">
         <v>126700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>80400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>395000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>259300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>91100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>96600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>63600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>78200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>92200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>95400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>146400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>78300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>75700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,132 +1646,150 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>45900</v>
+        <v>139600</v>
       </c>
       <c r="E23" s="3">
-        <v>118000</v>
+        <v>184100</v>
       </c>
       <c r="F23" s="3">
-        <v>111400</v>
+        <v>49100</v>
       </c>
       <c r="G23" s="3">
-        <v>261100</v>
+        <v>113800</v>
       </c>
       <c r="H23" s="3">
-        <v>189500</v>
+        <v>107500</v>
       </c>
       <c r="I23" s="3">
+        <v>147000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>202900</v>
+      </c>
+      <c r="K23" s="3">
         <v>102300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>63400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>364600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>243900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>86300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>92300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>59500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>74000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>92000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>89100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>134900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>72100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>75400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23800</v>
+        <v>46300</v>
       </c>
       <c r="E24" s="3">
-        <v>61300</v>
+        <v>62000</v>
       </c>
       <c r="F24" s="3">
-        <v>54800</v>
+        <v>25500</v>
       </c>
       <c r="G24" s="3">
-        <v>99100</v>
+        <v>59100</v>
       </c>
       <c r="H24" s="3">
-        <v>70400</v>
+        <v>52900</v>
       </c>
       <c r="I24" s="3">
+        <v>60000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>75300</v>
+      </c>
+      <c r="K24" s="3">
         <v>56800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>35600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>122700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>105200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>26300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>29000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>17100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>22800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>22700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>36200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>40500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>25800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>25600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>22100</v>
+        <v>93300</v>
       </c>
       <c r="E26" s="3">
-        <v>56700</v>
+        <v>122100</v>
       </c>
       <c r="F26" s="3">
-        <v>56700</v>
+        <v>23600</v>
       </c>
       <c r="G26" s="3">
-        <v>161900</v>
+        <v>54700</v>
       </c>
       <c r="H26" s="3">
-        <v>119100</v>
+        <v>54700</v>
       </c>
       <c r="I26" s="3">
+        <v>86900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>127600</v>
+      </c>
+      <c r="K26" s="3">
         <v>45400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>27800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>241900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>138700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>60000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>63200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>42400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>51200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>69300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>52900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>94400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>46400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>49900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>22100</v>
+        <v>93300</v>
       </c>
       <c r="E27" s="3">
-        <v>56300</v>
+        <v>122100</v>
       </c>
       <c r="F27" s="3">
-        <v>56000</v>
+        <v>23600</v>
       </c>
       <c r="G27" s="3">
-        <v>159400</v>
+        <v>54400</v>
       </c>
       <c r="H27" s="3">
-        <v>116000</v>
+        <v>54100</v>
       </c>
       <c r="I27" s="3">
+        <v>86900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>124200</v>
+      </c>
+      <c r="K27" s="3">
         <v>43400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>28200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>241900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>138900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>60100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>61700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>40700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>48800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>65400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>48700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>88100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>42200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>46400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1970,38 +2092,44 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>900</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-4300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-4900</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>113000</v>
+        <v>93300</v>
       </c>
       <c r="E32" s="3">
-        <v>-18700</v>
+        <v>141600</v>
       </c>
       <c r="F32" s="3">
-        <v>-29800</v>
+        <v>120900</v>
       </c>
       <c r="G32" s="3">
-        <v>27700</v>
+        <v>-18000</v>
       </c>
       <c r="H32" s="3">
-        <v>-25100</v>
+        <v>-28700</v>
       </c>
       <c r="I32" s="3">
+        <v>66900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="K32" s="3">
         <v>65400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-23800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-341500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-212300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-43200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-20300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>4200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>8800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>16500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>12200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>6200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>22100</v>
+        <v>93300</v>
       </c>
       <c r="E33" s="3">
-        <v>56300</v>
+        <v>122100</v>
       </c>
       <c r="F33" s="3">
-        <v>56000</v>
+        <v>23600</v>
       </c>
       <c r="G33" s="3">
-        <v>159400</v>
+        <v>54400</v>
       </c>
       <c r="H33" s="3">
-        <v>116000</v>
+        <v>54100</v>
       </c>
       <c r="I33" s="3">
+        <v>86900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>124200</v>
+      </c>
+      <c r="K33" s="3">
         <v>43400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>28200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>241900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>138900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>60100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>61700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>40700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>49700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>65400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>48700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>83900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>37400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>46400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>22100</v>
+        <v>93300</v>
       </c>
       <c r="E35" s="3">
-        <v>56300</v>
+        <v>122100</v>
       </c>
       <c r="F35" s="3">
-        <v>56000</v>
+        <v>23600</v>
       </c>
       <c r="G35" s="3">
-        <v>159400</v>
+        <v>54400</v>
       </c>
       <c r="H35" s="3">
-        <v>116000</v>
+        <v>54100</v>
       </c>
       <c r="I35" s="3">
+        <v>86900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>124200</v>
+      </c>
+      <c r="K35" s="3">
         <v>43400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>28200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>241900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>138900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>60100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>61700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>40700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>49700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>65400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>48700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>83900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>37400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>46400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,132 +2659,146 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2150400</v>
+        <v>2188500</v>
       </c>
       <c r="E41" s="3">
-        <v>1968700</v>
+        <v>2101500</v>
       </c>
       <c r="F41" s="3">
-        <v>1442100</v>
+        <v>2075100</v>
       </c>
       <c r="G41" s="3">
-        <v>1271200</v>
+        <v>2303500</v>
       </c>
       <c r="H41" s="3">
-        <v>1896600</v>
+        <v>1391600</v>
       </c>
       <c r="I41" s="3">
+        <v>1226700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1830200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1795500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1080100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1319800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1599000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1905000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1658600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1327500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>759000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1429900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>894100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>822600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1623000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1625000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>791700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3270500</v>
+        <v>5397500</v>
       </c>
       <c r="E42" s="3">
-        <v>3073400</v>
+        <v>4574400</v>
       </c>
       <c r="F42" s="3">
-        <v>2734100</v>
+        <v>3156000</v>
       </c>
       <c r="G42" s="3">
-        <v>2712600</v>
+        <v>3596100</v>
       </c>
       <c r="H42" s="3">
-        <v>1314800</v>
+        <v>2638400</v>
       </c>
       <c r="I42" s="3">
+        <v>2617600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1268700</v>
+      </c>
+      <c r="K42" s="3">
         <v>1821400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1463000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1953800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1924600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1466600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1014200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>256000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>229600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>2013000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>717600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>621300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>910600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>226700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>320200</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2859,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2927,14 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2995,14 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,194 +3063,218 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>36000</v>
+        <v>35300</v>
       </c>
       <c r="E47" s="3">
-        <v>44500</v>
+        <v>37600</v>
       </c>
       <c r="F47" s="3">
-        <v>23500</v>
+        <v>34700</v>
       </c>
       <c r="G47" s="3">
-        <v>23100</v>
+        <v>52100</v>
       </c>
       <c r="H47" s="3">
-        <v>22800</v>
+        <v>22700</v>
       </c>
       <c r="I47" s="3">
+        <v>22300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K47" s="3">
         <v>35000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>25600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>25100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>31100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>2200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1400</v>
-      </c>
-      <c r="P47" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>2400</v>
       </c>
       <c r="R47" s="3">
         <v>600</v>
       </c>
       <c r="S47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T47" s="3">
+        <v>600</v>
+      </c>
+      <c r="U47" s="3">
         <v>1000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>7100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>1400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>504000</v>
+        <v>567800</v>
       </c>
       <c r="E48" s="3">
-        <v>507800</v>
+        <v>528300</v>
       </c>
       <c r="F48" s="3">
-        <v>407000</v>
+        <v>486300</v>
       </c>
       <c r="G48" s="3">
-        <v>381300</v>
+        <v>594100</v>
       </c>
       <c r="H48" s="3">
-        <v>362100</v>
+        <v>392700</v>
       </c>
       <c r="I48" s="3">
+        <v>367900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>349500</v>
+      </c>
+      <c r="K48" s="3">
         <v>461300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>142800</v>
-      </c>
-      <c r="K48" s="3">
-        <v>147700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>173300</v>
       </c>
       <c r="M48" s="3">
         <v>147700</v>
       </c>
       <c r="N48" s="3">
+        <v>173300</v>
+      </c>
+      <c r="O48" s="3">
+        <v>147700</v>
+      </c>
+      <c r="P48" s="3">
         <v>154000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>146900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>163700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>333600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>101200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>98000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>336500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>100000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>166900</v>
+        <v>192400</v>
       </c>
       <c r="E49" s="3">
-        <v>168000</v>
+        <v>176500</v>
       </c>
       <c r="F49" s="3">
-        <v>134500</v>
+        <v>161000</v>
       </c>
       <c r="G49" s="3">
-        <v>126200</v>
+        <v>196600</v>
       </c>
       <c r="H49" s="3">
-        <v>101500</v>
+        <v>129800</v>
       </c>
       <c r="I49" s="3">
+        <v>121800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>97900</v>
+      </c>
+      <c r="K49" s="3">
         <v>121700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>56200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>51600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>52500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>50800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>16300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>15900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>17800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>102800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>71400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>65400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>91900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>67600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3403,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>75100</v>
+        <v>37700</v>
       </c>
       <c r="E52" s="3">
-        <v>119600</v>
+        <v>33700</v>
       </c>
       <c r="F52" s="3">
-        <v>56000</v>
+        <v>72500</v>
       </c>
       <c r="G52" s="3">
-        <v>34000</v>
+        <v>140000</v>
       </c>
       <c r="H52" s="3">
-        <v>31500</v>
+        <v>54000</v>
       </c>
       <c r="I52" s="3">
+        <v>32900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>30400</v>
+      </c>
+      <c r="K52" s="3">
         <v>39700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>46400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>33300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>13600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>17300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>15100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>13200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>13800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>149300</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>46800</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12057800</v>
+        <v>14642600</v>
       </c>
       <c r="E54" s="3">
-        <v>12284400</v>
+        <v>13324500</v>
       </c>
       <c r="F54" s="3">
-        <v>9751900</v>
+        <v>11635600</v>
       </c>
       <c r="G54" s="3">
-        <v>9180000</v>
+        <v>14373500</v>
       </c>
       <c r="H54" s="3">
-        <v>8033800</v>
+        <v>9410400</v>
       </c>
       <c r="I54" s="3">
+        <v>8858500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>7752500</v>
+      </c>
+      <c r="K54" s="3">
         <v>9615400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6766800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6853700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7681900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7670400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7580600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6216900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5415600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>7508500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>6294800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5807800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>6325800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>6342100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>5183700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3663,10 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3444,29 +3706,35 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
+      <c r="P57" s="3">
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>100600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>91900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>82000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>84500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>69700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>76400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,70 +3795,82 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>111300</v>
+        <v>80300</v>
       </c>
       <c r="E59" s="3">
-        <v>182000</v>
+        <v>27400</v>
       </c>
       <c r="F59" s="3">
-        <v>107800</v>
+        <v>107400</v>
       </c>
       <c r="G59" s="3">
-        <v>78800</v>
+        <v>211900</v>
       </c>
       <c r="H59" s="3">
-        <v>136600</v>
+        <v>104100</v>
       </c>
       <c r="I59" s="3">
+        <v>76100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>131800</v>
+      </c>
+      <c r="K59" s="3">
         <v>144400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>77800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>57600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>76200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>79700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>70300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>43100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>67400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>233500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>156700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>138800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>200700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>152000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>133300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,132 +3931,150 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1449700</v>
+        <v>1741400</v>
       </c>
       <c r="E61" s="3">
-        <v>610300</v>
+        <v>1508300</v>
       </c>
       <c r="F61" s="3">
-        <v>1058900</v>
+        <v>1398900</v>
       </c>
       <c r="G61" s="3">
-        <v>954500</v>
+        <v>714100</v>
       </c>
       <c r="H61" s="3">
-        <v>1178200</v>
+        <v>1021800</v>
       </c>
       <c r="I61" s="3">
+        <v>921100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1137000</v>
+      </c>
+      <c r="K61" s="3">
         <v>944200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>706100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>721600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>755100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>396400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>538900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>434400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>270600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>291300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>599700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>576000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>287000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>599300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>536100</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>97700</v>
+        <v>153200</v>
       </c>
       <c r="E62" s="3">
-        <v>105200</v>
+        <v>140300</v>
       </c>
       <c r="F62" s="3">
-        <v>154200</v>
+        <v>94300</v>
       </c>
       <c r="G62" s="3">
-        <v>141000</v>
+        <v>123000</v>
       </c>
       <c r="H62" s="3">
-        <v>86400</v>
+        <v>148800</v>
       </c>
       <c r="I62" s="3">
+        <v>136100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>83400</v>
+      </c>
+      <c r="K62" s="3">
         <v>119900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>25900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>24500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>25500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>24900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>23300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>18800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>18300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>31000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>14100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>12400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>33800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>10100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9946100</v>
+        <v>11999900</v>
       </c>
       <c r="E66" s="3">
-        <v>10196000</v>
+        <v>10991200</v>
       </c>
       <c r="F66" s="3">
-        <v>8159100</v>
+        <v>9597800</v>
       </c>
       <c r="G66" s="3">
-        <v>7730300</v>
+        <v>11929900</v>
       </c>
       <c r="H66" s="3">
-        <v>6730900</v>
+        <v>7873400</v>
       </c>
       <c r="I66" s="3">
+        <v>7459600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>6495200</v>
+      </c>
+      <c r="K66" s="3">
         <v>8049800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5899400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6075800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6895700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6925700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6842200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5538600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4677100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6562900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>5487400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>5267600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>5719600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>5809300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>4697200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1919000</v>
+        <v>2457200</v>
       </c>
       <c r="E72" s="3">
-        <v>3115400</v>
+        <v>2147300</v>
       </c>
       <c r="F72" s="3">
-        <v>1474900</v>
+        <v>1851800</v>
       </c>
       <c r="G72" s="3">
-        <v>1325200</v>
+        <v>3434800</v>
       </c>
       <c r="H72" s="3">
-        <v>1196500</v>
+        <v>1423300</v>
       </c>
       <c r="I72" s="3">
+        <v>1278800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1154600</v>
+      </c>
+      <c r="K72" s="3">
         <v>1437500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>747900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>649100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>636700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>577500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>554000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>492800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>529300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>662100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>549800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>499000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>560000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>485800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>439400</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2111700</v>
+        <v>2642700</v>
       </c>
       <c r="E76" s="3">
-        <v>2088500</v>
+        <v>2333300</v>
       </c>
       <c r="F76" s="3">
-        <v>1592800</v>
+        <v>2037700</v>
       </c>
       <c r="G76" s="3">
-        <v>1449600</v>
+        <v>2443600</v>
       </c>
       <c r="H76" s="3">
-        <v>1302900</v>
+        <v>1537000</v>
       </c>
       <c r="I76" s="3">
+        <v>1398900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1257300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1565700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>867400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>777900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>786200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>744700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>738400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>678400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>738500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>945600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>807400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>540200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>606200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>532800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>486400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>22100</v>
+        <v>93300</v>
       </c>
       <c r="E81" s="3">
-        <v>56300</v>
+        <v>122100</v>
       </c>
       <c r="F81" s="3">
-        <v>56000</v>
+        <v>23600</v>
       </c>
       <c r="G81" s="3">
-        <v>159400</v>
+        <v>54400</v>
       </c>
       <c r="H81" s="3">
-        <v>116000</v>
+        <v>54100</v>
       </c>
       <c r="I81" s="3">
+        <v>86900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>124200</v>
+      </c>
+      <c r="K81" s="3">
         <v>43400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>28200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>241900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>138900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>60100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>61700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>40700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>49700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>65400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>48700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>83900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>37400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>46400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5216,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>26400</v>
+        <v>38700</v>
       </c>
       <c r="E83" s="3">
-        <v>30300</v>
+        <v>59100</v>
       </c>
       <c r="F83" s="3">
-        <v>21300</v>
+        <v>25400</v>
       </c>
       <c r="G83" s="3">
-        <v>33600</v>
+        <v>1400</v>
       </c>
       <c r="H83" s="3">
-        <v>22800</v>
+        <v>32000</v>
       </c>
       <c r="I83" s="3">
+        <v>26700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K83" s="3">
         <v>24500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>17000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>30400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>15400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>4800</v>
-      </c>
-      <c r="N83" s="3">
-        <v>4300</v>
-      </c>
-      <c r="O83" s="3">
-        <v>4100</v>
       </c>
       <c r="P83" s="3">
         <v>4300</v>
       </c>
       <c r="Q83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="R83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>6300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>11500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>6100</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>45700</v>
+        <v>680300</v>
       </c>
       <c r="E89" s="3">
-        <v>-5800</v>
+        <v>338300</v>
       </c>
       <c r="F89" s="3">
-        <v>-186400</v>
+        <v>44100</v>
       </c>
       <c r="G89" s="3">
-        <v>927200</v>
+        <v>-388100</v>
       </c>
       <c r="H89" s="3">
-        <v>493100</v>
+        <v>-223200</v>
       </c>
       <c r="I89" s="3">
+        <v>844900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>475800</v>
+      </c>
+      <c r="K89" s="3">
         <v>453300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1290000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>339100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>211500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1181300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>260000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>201800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-351600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>353200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>46900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-420300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>15000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>629600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5718,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13300</v>
+        <v>-12000</v>
       </c>
       <c r="E91" s="3">
-        <v>-24000</v>
+        <v>-22100</v>
       </c>
       <c r="F91" s="3">
-        <v>-15000</v>
+        <v>-12800</v>
       </c>
       <c r="G91" s="3">
-        <v>-34200</v>
+        <v>-23200</v>
       </c>
       <c r="H91" s="3">
-        <v>-18800</v>
+        <v>-14500</v>
       </c>
       <c r="I91" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-19900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-5900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-32000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-10600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-34900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-24100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-6100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-7600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-3700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-10000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-24200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-5600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-20100</v>
+        <v>-26800</v>
       </c>
       <c r="E94" s="3">
-        <v>-29300</v>
+        <v>-39900</v>
       </c>
       <c r="F94" s="3">
-        <v>-12500</v>
+        <v>-19400</v>
       </c>
       <c r="G94" s="3">
-        <v>-27900</v>
+        <v>-28300</v>
       </c>
       <c r="H94" s="3">
-        <v>-17800</v>
+        <v>-12100</v>
       </c>
       <c r="I94" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-8500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-4500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-6800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>18600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-38100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-19100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-3000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-21300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-4500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-14200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-8700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-10500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,26 +6016,28 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E96" s="3">
-        <v>-19600</v>
+        <v>-15900</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="H96" s="3">
         <v>-100</v>
       </c>
-      <c r="G96" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -5577,43 +6045,49 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-21200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>1100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>2100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-7600</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6284,214 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5600</v>
+        <v>-1400</v>
       </c>
       <c r="E100" s="3">
-        <v>23500</v>
+        <v>27600</v>
       </c>
       <c r="F100" s="3">
-        <v>-50700</v>
+        <v>5400</v>
       </c>
       <c r="G100" s="3">
-        <v>-333700</v>
+        <v>22600</v>
       </c>
       <c r="H100" s="3">
-        <v>-61400</v>
+        <v>-48900</v>
       </c>
       <c r="I100" s="3">
+        <v>-262800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="K100" s="3">
         <v>55700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-120100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-34000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-70300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-44300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-65200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>239100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>22700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>44600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>206700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-5600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>37200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>27800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>85100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>241100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>149600</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-115000</v>
+      </c>
+      <c r="H101" s="3">
+        <v>180800</v>
+      </c>
+      <c r="I101" s="3">
         <v>155000</v>
       </c>
-      <c r="E101" s="3">
-        <v>37900</v>
-      </c>
-      <c r="F101" s="3">
-        <v>120200</v>
-      </c>
-      <c r="G101" s="3">
-        <v>179100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>108500</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>104700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-86900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>784700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>181600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>213700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-85600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>358800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>214100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>45300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>61100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>21100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>35900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-27600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>27100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>186200</v>
+        <v>737200</v>
       </c>
       <c r="E102" s="3">
-        <v>26300</v>
+        <v>567200</v>
       </c>
       <c r="F102" s="3">
-        <v>-129300</v>
+        <v>179600</v>
       </c>
       <c r="G102" s="3">
-        <v>744800</v>
+        <v>-287400</v>
       </c>
       <c r="H102" s="3">
-        <v>497400</v>
+        <v>-171800</v>
       </c>
       <c r="I102" s="3">
+        <v>598400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>480000</v>
+      </c>
+      <c r="K102" s="3">
         <v>228000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-630000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>479900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>324700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>991800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>554900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>631600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-291800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>437500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>270200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-404200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>11800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>673900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-152300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>GGAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,178 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>676200</v>
+        <v>921900</v>
       </c>
       <c r="E8" s="3">
-        <v>1207200</v>
+        <v>626400</v>
       </c>
       <c r="F8" s="3">
-        <v>545100</v>
+        <v>1118400</v>
       </c>
       <c r="G8" s="3">
-        <v>541400</v>
+        <v>505000</v>
       </c>
       <c r="H8" s="3">
-        <v>338700</v>
+        <v>744900</v>
       </c>
       <c r="I8" s="3">
-        <v>522600</v>
+        <v>478700</v>
       </c>
       <c r="J8" s="3">
+        <v>1098200</v>
+      </c>
+      <c r="K8" s="3">
         <v>558800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>615700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>433600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>802100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>441600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>308800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>272200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>194300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>182800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>229300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>197700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>372300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>208700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>213100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>197300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,76 +1214,82 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-33200</v>
+        <v>-43000</v>
       </c>
       <c r="E15" s="3">
-        <v>-64100</v>
+        <v>-30700</v>
       </c>
       <c r="F15" s="3">
-        <v>-28200</v>
+        <v>-59400</v>
       </c>
       <c r="G15" s="3">
-        <v>-28700</v>
+        <v>-26100</v>
       </c>
       <c r="H15" s="3">
-        <v>-17300</v>
+        <v>-39600</v>
       </c>
       <c r="I15" s="3">
-        <v>-24200</v>
+        <v>-24500</v>
       </c>
       <c r="J15" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="K15" s="3">
         <v>-24400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-24500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-14700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-32700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-16200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-4800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-10500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-9700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-8500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-10100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-21900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-16300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-7300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>443200</v>
+        <v>623400</v>
       </c>
       <c r="E17" s="3">
-        <v>881500</v>
+        <v>410600</v>
       </c>
       <c r="F17" s="3">
-        <v>375000</v>
+        <v>816600</v>
       </c>
       <c r="G17" s="3">
-        <v>445600</v>
+        <v>347400</v>
       </c>
       <c r="H17" s="3">
-        <v>259900</v>
+        <v>614000</v>
       </c>
       <c r="I17" s="3">
-        <v>308800</v>
+        <v>375600</v>
       </c>
       <c r="J17" s="3">
+        <v>702000</v>
+      </c>
+      <c r="K17" s="3">
         <v>384600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>448100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>394000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>779000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>410000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>265700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>130600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>107600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>128500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>109500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>220900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>124300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>131500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>135000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>233000</v>
+        <v>298500</v>
       </c>
       <c r="E18" s="3">
-        <v>325700</v>
+        <v>215800</v>
       </c>
       <c r="F18" s="3">
-        <v>170000</v>
+        <v>301700</v>
       </c>
       <c r="G18" s="3">
-        <v>95800</v>
+        <v>157500</v>
       </c>
       <c r="H18" s="3">
-        <v>78800</v>
+        <v>130900</v>
       </c>
       <c r="I18" s="3">
-        <v>213800</v>
+        <v>103100</v>
       </c>
       <c r="J18" s="3">
+        <v>396200</v>
+      </c>
+      <c r="K18" s="3">
         <v>174200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>167600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>39600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>23100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>31600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>43100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>72000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>63700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>75200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>100800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>88100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>151400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>84400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>81600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>62200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-93300</v>
+        <v>-140000</v>
       </c>
       <c r="E20" s="3">
-        <v>-141600</v>
+        <v>-86500</v>
       </c>
       <c r="F20" s="3">
-        <v>-120900</v>
+        <v>-131100</v>
       </c>
       <c r="G20" s="3">
-        <v>18000</v>
+        <v>-112000</v>
       </c>
       <c r="H20" s="3">
+        <v>23500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>41500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-43900</v>
+      </c>
+      <c r="K20" s="3">
         <v>28700</v>
       </c>
-      <c r="I20" s="3">
-        <v>-66900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>28700</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-65400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>23800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>341500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>212300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>43200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>20300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-8800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-16500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-12200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-6200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>178300</v>
+        <v>201100</v>
       </c>
       <c r="E21" s="3">
-        <v>243200</v>
+        <v>165200</v>
       </c>
       <c r="F21" s="3">
-        <v>74500</v>
+        <v>225300</v>
       </c>
       <c r="G21" s="3">
-        <v>115300</v>
+        <v>69100</v>
       </c>
       <c r="H21" s="3">
-        <v>139600</v>
+        <v>194500</v>
       </c>
       <c r="I21" s="3">
-        <v>173700</v>
+        <v>174300</v>
       </c>
       <c r="J21" s="3">
+        <v>397400</v>
+      </c>
+      <c r="K21" s="3">
         <v>224900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>126700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>80400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>395000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>259300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>91100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>96600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>63600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>78200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>92200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>95400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>146400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>78300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>75700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1691,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>139600</v>
+        <v>158500</v>
       </c>
       <c r="E23" s="3">
-        <v>184100</v>
+        <v>129300</v>
       </c>
       <c r="F23" s="3">
-        <v>49100</v>
+        <v>170600</v>
       </c>
       <c r="G23" s="3">
-        <v>113800</v>
+        <v>45500</v>
       </c>
       <c r="H23" s="3">
-        <v>107500</v>
+        <v>154400</v>
       </c>
       <c r="I23" s="3">
-        <v>147000</v>
+        <v>144600</v>
       </c>
       <c r="J23" s="3">
+        <v>352300</v>
+      </c>
+      <c r="K23" s="3">
         <v>202900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>102300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>63400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>364600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>243900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>86300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>92300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>59500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>74000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>92000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>89100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>134900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>72100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>75400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>46300</v>
+        <v>55500</v>
       </c>
       <c r="E24" s="3">
-        <v>62000</v>
+        <v>42900</v>
       </c>
       <c r="F24" s="3">
-        <v>25500</v>
+        <v>57400</v>
       </c>
       <c r="G24" s="3">
-        <v>59100</v>
+        <v>23600</v>
       </c>
       <c r="H24" s="3">
-        <v>52900</v>
+        <v>80600</v>
       </c>
       <c r="I24" s="3">
-        <v>60000</v>
+        <v>74700</v>
       </c>
       <c r="J24" s="3">
+        <v>135100</v>
+      </c>
+      <c r="K24" s="3">
         <v>75300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>56800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>35600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>122700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>105200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>26300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>29000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>17100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>22800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>22700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>36200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>40500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>25800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>25600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>93300</v>
+        <v>103000</v>
       </c>
       <c r="E26" s="3">
-        <v>122100</v>
+        <v>86500</v>
       </c>
       <c r="F26" s="3">
-        <v>23600</v>
+        <v>113100</v>
       </c>
       <c r="G26" s="3">
-        <v>54700</v>
+        <v>21900</v>
       </c>
       <c r="H26" s="3">
-        <v>54700</v>
+        <v>73800</v>
       </c>
       <c r="I26" s="3">
-        <v>86900</v>
+        <v>69900</v>
       </c>
       <c r="J26" s="3">
+        <v>217200</v>
+      </c>
+      <c r="K26" s="3">
         <v>127600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>45400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>27800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>241900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>138700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>60000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>63200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>42400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>51200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>69300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>52900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>94400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>46400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>49900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>93300</v>
+        <v>103000</v>
       </c>
       <c r="E27" s="3">
-        <v>122100</v>
+        <v>86500</v>
       </c>
       <c r="F27" s="3">
-        <v>23600</v>
+        <v>113100</v>
       </c>
       <c r="G27" s="3">
-        <v>54400</v>
+        <v>21900</v>
       </c>
       <c r="H27" s="3">
-        <v>54100</v>
+        <v>73400</v>
       </c>
       <c r="I27" s="3">
-        <v>86900</v>
+        <v>69000</v>
       </c>
       <c r="J27" s="3">
+        <v>213800</v>
+      </c>
+      <c r="K27" s="3">
         <v>124200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>43400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>28200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>241900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>138900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>60100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>61700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>40700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>48800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>65400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>48700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>88100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>42200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>46400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,31 +2117,34 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -2098,8 +2158,8 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2108,28 +2168,31 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>900</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-4300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-4900</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>93300</v>
+        <v>140000</v>
       </c>
       <c r="E32" s="3">
-        <v>141600</v>
+        <v>86500</v>
       </c>
       <c r="F32" s="3">
-        <v>120900</v>
+        <v>131100</v>
       </c>
       <c r="G32" s="3">
-        <v>-18000</v>
+        <v>112000</v>
       </c>
       <c r="H32" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>43900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-28700</v>
       </c>
-      <c r="I32" s="3">
-        <v>66900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-28700</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>65400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-23800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-341500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-212300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-43200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>8800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>16500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>12200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>6200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>93300</v>
+        <v>103000</v>
       </c>
       <c r="E33" s="3">
-        <v>122100</v>
+        <v>86500</v>
       </c>
       <c r="F33" s="3">
-        <v>23600</v>
+        <v>113100</v>
       </c>
       <c r="G33" s="3">
-        <v>54400</v>
+        <v>21900</v>
       </c>
       <c r="H33" s="3">
-        <v>54100</v>
+        <v>73400</v>
       </c>
       <c r="I33" s="3">
-        <v>86900</v>
+        <v>69000</v>
       </c>
       <c r="J33" s="3">
+        <v>213800</v>
+      </c>
+      <c r="K33" s="3">
         <v>124200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>43400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>28200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>241900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>138900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>60100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>61700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>40700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>49700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>65400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>48700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>83900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>37400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>46400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>93300</v>
+        <v>103000</v>
       </c>
       <c r="E35" s="3">
-        <v>122100</v>
+        <v>86500</v>
       </c>
       <c r="F35" s="3">
-        <v>23600</v>
+        <v>113100</v>
       </c>
       <c r="G35" s="3">
-        <v>54400</v>
+        <v>21900</v>
       </c>
       <c r="H35" s="3">
-        <v>54100</v>
+        <v>73400</v>
       </c>
       <c r="I35" s="3">
-        <v>86900</v>
+        <v>69000</v>
       </c>
       <c r="J35" s="3">
+        <v>213800</v>
+      </c>
+      <c r="K35" s="3">
         <v>124200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>43400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>28200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>241900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>138900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>60100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>61700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>40700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>49700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>65400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>48700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>83900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>37400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>46400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,144 +2746,151 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2188500</v>
+        <v>2095100</v>
       </c>
       <c r="E41" s="3">
-        <v>2101500</v>
+        <v>2027400</v>
       </c>
       <c r="F41" s="3">
-        <v>2075100</v>
+        <v>1946800</v>
       </c>
       <c r="G41" s="3">
-        <v>2303500</v>
+        <v>1922400</v>
       </c>
       <c r="H41" s="3">
-        <v>1391600</v>
+        <v>2351800</v>
       </c>
       <c r="I41" s="3">
-        <v>1226700</v>
+        <v>1289200</v>
       </c>
       <c r="J41" s="3">
+        <v>1136400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1830200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1795500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1080100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1319800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1599000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1905000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1658600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1327500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>759000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1429900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>894100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>822600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1623000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1625000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>791700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5397500</v>
+        <v>5327000</v>
       </c>
       <c r="E42" s="3">
-        <v>4574400</v>
+        <v>5000300</v>
       </c>
       <c r="F42" s="3">
-        <v>3156000</v>
+        <v>4237800</v>
       </c>
       <c r="G42" s="3">
-        <v>3596100</v>
+        <v>2923800</v>
       </c>
       <c r="H42" s="3">
-        <v>2638400</v>
+        <v>3671600</v>
       </c>
       <c r="I42" s="3">
-        <v>2617600</v>
+        <v>2444200</v>
       </c>
       <c r="J42" s="3">
+        <v>2424900</v>
+      </c>
+      <c r="K42" s="3">
         <v>1268700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1821400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1463000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1953800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1924600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1466600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1014200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>256000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>229600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2013000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>717600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>621300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>910600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>226700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>320200</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3099,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,212 +3170,224 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>35300</v>
+        <v>35200</v>
       </c>
       <c r="E47" s="3">
-        <v>37600</v>
+        <v>32700</v>
       </c>
       <c r="F47" s="3">
-        <v>34700</v>
+        <v>34800</v>
       </c>
       <c r="G47" s="3">
-        <v>52100</v>
+        <v>32200</v>
       </c>
       <c r="H47" s="3">
-        <v>22700</v>
+        <v>53200</v>
       </c>
       <c r="I47" s="3">
-        <v>22300</v>
+        <v>21000</v>
       </c>
       <c r="J47" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K47" s="3">
         <v>22000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>35000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>25600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>25100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>31100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>7100</v>
-      </c>
-      <c r="W47" s="3">
-        <v>1400</v>
       </c>
       <c r="X47" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>567800</v>
+        <v>571600</v>
       </c>
       <c r="E48" s="3">
-        <v>528300</v>
+        <v>526000</v>
       </c>
       <c r="F48" s="3">
-        <v>486300</v>
+        <v>489400</v>
       </c>
       <c r="G48" s="3">
-        <v>594100</v>
+        <v>450600</v>
       </c>
       <c r="H48" s="3">
-        <v>392700</v>
+        <v>606600</v>
       </c>
       <c r="I48" s="3">
-        <v>367900</v>
+        <v>363800</v>
       </c>
       <c r="J48" s="3">
+        <v>340900</v>
+      </c>
+      <c r="K48" s="3">
         <v>349500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>461300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>142800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>147700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>173300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>147700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>154000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>146900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>163700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>333600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>101200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>98000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>336500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>100000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>192400</v>
+        <v>195100</v>
       </c>
       <c r="E49" s="3">
-        <v>176500</v>
+        <v>178300</v>
       </c>
       <c r="F49" s="3">
-        <v>161000</v>
+        <v>163500</v>
       </c>
       <c r="G49" s="3">
-        <v>196600</v>
+        <v>149200</v>
       </c>
       <c r="H49" s="3">
-        <v>129800</v>
+        <v>200700</v>
       </c>
       <c r="I49" s="3">
-        <v>121800</v>
+        <v>120200</v>
       </c>
       <c r="J49" s="3">
+        <v>112800</v>
+      </c>
+      <c r="K49" s="3">
         <v>97900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>121700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>56200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>51600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>52500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>50800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>16300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>15900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>17800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>102800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>71400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>65400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>91900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>67600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>37700</v>
+        <v>39400</v>
       </c>
       <c r="E52" s="3">
-        <v>33700</v>
+        <v>34900</v>
       </c>
       <c r="F52" s="3">
-        <v>72500</v>
+        <v>31200</v>
       </c>
       <c r="G52" s="3">
-        <v>140000</v>
+        <v>67200</v>
       </c>
       <c r="H52" s="3">
-        <v>54000</v>
+        <v>142900</v>
       </c>
       <c r="I52" s="3">
-        <v>32900</v>
+        <v>50000</v>
       </c>
       <c r="J52" s="3">
         <v>30400</v>
       </c>
       <c r="K52" s="3">
+        <v>30400</v>
+      </c>
+      <c r="L52" s="3">
         <v>39700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>46400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>33300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>15100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>13200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>13800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>149300</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>46800</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14642600</v>
+        <v>15454800</v>
       </c>
       <c r="E54" s="3">
-        <v>13324500</v>
+        <v>13565100</v>
       </c>
       <c r="F54" s="3">
-        <v>11635600</v>
+        <v>12344000</v>
       </c>
       <c r="G54" s="3">
-        <v>14373500</v>
+        <v>10779300</v>
       </c>
       <c r="H54" s="3">
-        <v>9410400</v>
+        <v>14675400</v>
       </c>
       <c r="I54" s="3">
-        <v>8858500</v>
+        <v>8717900</v>
       </c>
       <c r="J54" s="3">
+        <v>8206600</v>
+      </c>
+      <c r="K54" s="3">
         <v>7752500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9615400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6766800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6853700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7681900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7670400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7580600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6216900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5415600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7508500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6294800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5807800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6325800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6342100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5183700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3712,29 +3842,32 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>100600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>91900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>82000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>84500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>69700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>76400</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,76 +3934,82 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>80300</v>
+        <v>96700</v>
       </c>
       <c r="E59" s="3">
-        <v>27400</v>
+        <v>74400</v>
       </c>
       <c r="F59" s="3">
-        <v>107400</v>
+        <v>25400</v>
       </c>
       <c r="G59" s="3">
-        <v>211900</v>
+        <v>99500</v>
       </c>
       <c r="H59" s="3">
-        <v>104100</v>
+        <v>219700</v>
       </c>
       <c r="I59" s="3">
-        <v>76100</v>
+        <v>96400</v>
       </c>
       <c r="J59" s="3">
+        <v>70500</v>
+      </c>
+      <c r="K59" s="3">
         <v>131800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>144400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>77800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>57600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>76200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>79700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>70300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>43100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>67400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>233500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>156700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>138800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>200700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>152000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>133300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,144 +4076,153 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1741400</v>
+        <v>1973800</v>
       </c>
       <c r="E61" s="3">
-        <v>1508300</v>
+        <v>1613200</v>
       </c>
       <c r="F61" s="3">
-        <v>1398900</v>
+        <v>1397300</v>
       </c>
       <c r="G61" s="3">
-        <v>714100</v>
+        <v>1295900</v>
       </c>
       <c r="H61" s="3">
-        <v>1021800</v>
+        <v>1829300</v>
       </c>
       <c r="I61" s="3">
-        <v>921100</v>
+        <v>946600</v>
       </c>
       <c r="J61" s="3">
+        <v>853300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1137000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>944200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>706100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>721600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>755100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>396400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>538900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>434400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>270600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>291300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>599700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>576000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>287000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>599300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>536100</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>153200</v>
+        <v>141200</v>
       </c>
       <c r="E62" s="3">
-        <v>140300</v>
+        <v>142000</v>
       </c>
       <c r="F62" s="3">
-        <v>94300</v>
+        <v>130000</v>
       </c>
       <c r="G62" s="3">
-        <v>123000</v>
+        <v>87400</v>
       </c>
       <c r="H62" s="3">
-        <v>148800</v>
+        <v>125600</v>
       </c>
       <c r="I62" s="3">
-        <v>136100</v>
+        <v>137800</v>
       </c>
       <c r="J62" s="3">
+        <v>126100</v>
+      </c>
+      <c r="K62" s="3">
         <v>83400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>119900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>24900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>23300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>18800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>18300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>31000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>12400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>33800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>10100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11999900</v>
+        <v>12674200</v>
       </c>
       <c r="E66" s="3">
-        <v>10991200</v>
+        <v>11116800</v>
       </c>
       <c r="F66" s="3">
-        <v>9597800</v>
+        <v>10182400</v>
       </c>
       <c r="G66" s="3">
-        <v>11929900</v>
+        <v>8891500</v>
       </c>
       <c r="H66" s="3">
-        <v>7873400</v>
+        <v>12180400</v>
       </c>
       <c r="I66" s="3">
-        <v>7459600</v>
+        <v>7294000</v>
       </c>
       <c r="J66" s="3">
+        <v>6910700</v>
+      </c>
+      <c r="K66" s="3">
         <v>6495200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8049800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5899400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6075800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6895700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6925700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6842200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5538600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4677100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6562900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5487400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5267600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5719600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5809300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4697200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2457200</v>
+        <v>2609000</v>
       </c>
       <c r="E72" s="3">
-        <v>2147300</v>
+        <v>2276400</v>
       </c>
       <c r="F72" s="3">
-        <v>1851800</v>
+        <v>1989300</v>
       </c>
       <c r="G72" s="3">
-        <v>3434800</v>
+        <v>1715500</v>
       </c>
       <c r="H72" s="3">
-        <v>1423300</v>
+        <v>3413400</v>
       </c>
       <c r="I72" s="3">
-        <v>1278800</v>
+        <v>1318500</v>
       </c>
       <c r="J72" s="3">
+        <v>1184700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1154600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1437500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>747900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>649100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>636700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>577500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>554000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>492800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>529300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>662100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>549800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>499000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>560000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>485800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>439400</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2642700</v>
+        <v>2780600</v>
       </c>
       <c r="E76" s="3">
-        <v>2333300</v>
+        <v>2448300</v>
       </c>
       <c r="F76" s="3">
-        <v>2037700</v>
+        <v>2161600</v>
       </c>
       <c r="G76" s="3">
-        <v>2443600</v>
+        <v>1887800</v>
       </c>
       <c r="H76" s="3">
-        <v>1537000</v>
+        <v>2494900</v>
       </c>
       <c r="I76" s="3">
-        <v>1398900</v>
+        <v>1423900</v>
       </c>
       <c r="J76" s="3">
+        <v>1295900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1257300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1565700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>867400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>777900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>786200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>744700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>738400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>678400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>738500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>945600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>807400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>540200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>606200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>532800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>486400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>93300</v>
+        <v>103000</v>
       </c>
       <c r="E81" s="3">
-        <v>122100</v>
+        <v>86500</v>
       </c>
       <c r="F81" s="3">
-        <v>23600</v>
+        <v>113100</v>
       </c>
       <c r="G81" s="3">
-        <v>54400</v>
+        <v>21900</v>
       </c>
       <c r="H81" s="3">
-        <v>54100</v>
+        <v>73400</v>
       </c>
       <c r="I81" s="3">
-        <v>86900</v>
+        <v>69000</v>
       </c>
       <c r="J81" s="3">
+        <v>213800</v>
+      </c>
+      <c r="K81" s="3">
         <v>124200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>43400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>28200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>241900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>138900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>60100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>61700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>40700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>49700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>65400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>48700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>83900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>37400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>46400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>38700</v>
+        <v>42600</v>
       </c>
       <c r="E83" s="3">
-        <v>59100</v>
+        <v>35900</v>
       </c>
       <c r="F83" s="3">
-        <v>25400</v>
+        <v>54700</v>
       </c>
       <c r="G83" s="3">
-        <v>1400</v>
+        <v>23600</v>
       </c>
       <c r="H83" s="3">
-        <v>32000</v>
+        <v>40100</v>
       </c>
       <c r="I83" s="3">
-        <v>26700</v>
+        <v>29700</v>
       </c>
       <c r="J83" s="3">
+        <v>45100</v>
+      </c>
+      <c r="K83" s="3">
         <v>22000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>24500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>30400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>15400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>6300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>11500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>6100</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>680300</v>
+        <v>-702200</v>
       </c>
       <c r="E89" s="3">
-        <v>338300</v>
+        <v>630300</v>
       </c>
       <c r="F89" s="3">
-        <v>44100</v>
+        <v>313400</v>
       </c>
       <c r="G89" s="3">
-        <v>-388100</v>
+        <v>40900</v>
       </c>
       <c r="H89" s="3">
-        <v>-223200</v>
+        <v>-13800</v>
       </c>
       <c r="I89" s="3">
-        <v>844900</v>
+        <v>-206800</v>
       </c>
       <c r="J89" s="3">
+        <v>1223500</v>
+      </c>
+      <c r="K89" s="3">
         <v>475800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>453300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1290000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>339100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>211500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1181300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>260000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>201800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-351600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>353200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>46900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-420300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>15000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>629600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12000</v>
+        <v>-65300</v>
       </c>
       <c r="E91" s="3">
-        <v>-22100</v>
+        <v>-11200</v>
       </c>
       <c r="F91" s="3">
-        <v>-12800</v>
+        <v>-20400</v>
       </c>
       <c r="G91" s="3">
-        <v>-23200</v>
+        <v>-11800</v>
       </c>
       <c r="H91" s="3">
-        <v>-14500</v>
+        <v>-21500</v>
       </c>
       <c r="I91" s="3">
-        <v>-14800</v>
+        <v>-13400</v>
       </c>
       <c r="J91" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-18200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-32000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-34900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-24100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-24200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-26800</v>
+        <v>-21100</v>
       </c>
       <c r="E94" s="3">
-        <v>-39900</v>
+        <v>-24800</v>
       </c>
       <c r="F94" s="3">
-        <v>-19400</v>
+        <v>-37000</v>
       </c>
       <c r="G94" s="3">
-        <v>-28300</v>
+        <v>-18000</v>
       </c>
       <c r="H94" s="3">
-        <v>-12100</v>
+        <v>-26200</v>
       </c>
       <c r="I94" s="3">
-        <v>-9700</v>
+        <v>-11200</v>
       </c>
       <c r="J94" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-17200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>18600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-38100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-19100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-21300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-14200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-8700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-10500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,31 +6250,32 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E96" s="3">
-        <v>-15900</v>
+        <v>-1400</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-14700</v>
       </c>
       <c r="G96" s="3">
-        <v>-18900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="I96" s="3">
         <v>-100</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -6051,43 +6284,46 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-21200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>1100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>2100</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-7600</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1400</v>
+        <v>53200</v>
       </c>
       <c r="E100" s="3">
-        <v>27600</v>
+        <v>-1300</v>
       </c>
       <c r="F100" s="3">
-        <v>5400</v>
+        <v>25600</v>
       </c>
       <c r="G100" s="3">
-        <v>22600</v>
+        <v>5000</v>
       </c>
       <c r="H100" s="3">
-        <v>-48900</v>
+        <v>21000</v>
       </c>
       <c r="I100" s="3">
-        <v>-262800</v>
+        <v>-45300</v>
       </c>
       <c r="J100" s="3">
+        <v>-298300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-59200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>55700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-120100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-34000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-70300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-44300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-65200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>239100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>22700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>44600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>206700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>37200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>27800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>85100</v>
+        <v>105800</v>
       </c>
       <c r="E101" s="3">
-        <v>241100</v>
+        <v>78800</v>
       </c>
       <c r="F101" s="3">
-        <v>149600</v>
+        <v>223400</v>
       </c>
       <c r="G101" s="3">
-        <v>-115000</v>
+        <v>138600</v>
       </c>
       <c r="H101" s="3">
-        <v>180800</v>
+        <v>47000</v>
       </c>
       <c r="I101" s="3">
-        <v>155000</v>
+        <v>167500</v>
       </c>
       <c r="J101" s="3">
+        <v>240500</v>
+      </c>
+      <c r="K101" s="3">
         <v>104700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-86900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>784700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>181600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>213700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-85600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>358800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>214100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>45300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>61100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>21100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>35900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-27600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>27100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>737200</v>
+        <v>-564400</v>
       </c>
       <c r="E102" s="3">
-        <v>567200</v>
+        <v>682900</v>
       </c>
       <c r="F102" s="3">
-        <v>179600</v>
+        <v>525400</v>
       </c>
       <c r="G102" s="3">
-        <v>-287400</v>
+        <v>166400</v>
       </c>
       <c r="H102" s="3">
-        <v>-171800</v>
+        <v>37000</v>
       </c>
       <c r="I102" s="3">
-        <v>598400</v>
+        <v>-159100</v>
       </c>
       <c r="J102" s="3">
+        <v>999100</v>
+      </c>
+      <c r="K102" s="3">
         <v>480000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>228000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-630000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>479900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>324700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>991800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>554900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>631600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-291800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>437500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>270200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-404200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>11800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>673900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-152300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
@@ -770,25 +770,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>921900</v>
+        <v>855700</v>
       </c>
       <c r="E8" s="3">
-        <v>626400</v>
+        <v>581400</v>
       </c>
       <c r="F8" s="3">
-        <v>1118400</v>
+        <v>1038000</v>
       </c>
       <c r="G8" s="3">
-        <v>505000</v>
+        <v>468700</v>
       </c>
       <c r="H8" s="3">
-        <v>744900</v>
+        <v>691400</v>
       </c>
       <c r="I8" s="3">
-        <v>478700</v>
+        <v>444300</v>
       </c>
       <c r="J8" s="3">
-        <v>1098200</v>
+        <v>1019300</v>
       </c>
       <c r="K8" s="3">
         <v>558800</v>
@@ -1223,25 +1223,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-43000</v>
+        <v>-39900</v>
       </c>
       <c r="E15" s="3">
-        <v>-30700</v>
+        <v>-28500</v>
       </c>
       <c r="F15" s="3">
-        <v>-59400</v>
+        <v>-55100</v>
       </c>
       <c r="G15" s="3">
-        <v>-26100</v>
+        <v>-24300</v>
       </c>
       <c r="H15" s="3">
-        <v>-39600</v>
+        <v>-36700</v>
       </c>
       <c r="I15" s="3">
-        <v>-24500</v>
+        <v>-22700</v>
       </c>
       <c r="J15" s="3">
-        <v>-49200</v>
+        <v>-45700</v>
       </c>
       <c r="K15" s="3">
         <v>-24400</v>
@@ -1318,25 +1318,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>623400</v>
+        <v>578600</v>
       </c>
       <c r="E17" s="3">
-        <v>410600</v>
+        <v>381100</v>
       </c>
       <c r="F17" s="3">
-        <v>816600</v>
+        <v>758000</v>
       </c>
       <c r="G17" s="3">
-        <v>347400</v>
+        <v>322500</v>
       </c>
       <c r="H17" s="3">
-        <v>614000</v>
+        <v>569900</v>
       </c>
       <c r="I17" s="3">
-        <v>375600</v>
+        <v>348700</v>
       </c>
       <c r="J17" s="3">
-        <v>702000</v>
+        <v>651600</v>
       </c>
       <c r="K17" s="3">
         <v>384600</v>
@@ -1389,25 +1389,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>298500</v>
+        <v>277100</v>
       </c>
       <c r="E18" s="3">
-        <v>215800</v>
+        <v>200300</v>
       </c>
       <c r="F18" s="3">
-        <v>301700</v>
+        <v>280000</v>
       </c>
       <c r="G18" s="3">
-        <v>157500</v>
+        <v>146200</v>
       </c>
       <c r="H18" s="3">
-        <v>130900</v>
+        <v>121500</v>
       </c>
       <c r="I18" s="3">
-        <v>103100</v>
+        <v>95700</v>
       </c>
       <c r="J18" s="3">
-        <v>396200</v>
+        <v>367800</v>
       </c>
       <c r="K18" s="3">
         <v>174200</v>
@@ -1487,25 +1487,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-140000</v>
+        <v>-130000</v>
       </c>
       <c r="E20" s="3">
-        <v>-86500</v>
+        <v>-80300</v>
       </c>
       <c r="F20" s="3">
-        <v>-131100</v>
+        <v>-121700</v>
       </c>
       <c r="G20" s="3">
-        <v>-112000</v>
+        <v>-104000</v>
       </c>
       <c r="H20" s="3">
-        <v>23500</v>
+        <v>21800</v>
       </c>
       <c r="I20" s="3">
-        <v>41500</v>
+        <v>38500</v>
       </c>
       <c r="J20" s="3">
-        <v>-43900</v>
+        <v>-40800</v>
       </c>
       <c r="K20" s="3">
         <v>28700</v>
@@ -1558,25 +1558,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>201100</v>
+        <v>186700</v>
       </c>
       <c r="E21" s="3">
-        <v>165200</v>
+        <v>153400</v>
       </c>
       <c r="F21" s="3">
-        <v>225300</v>
+        <v>209100</v>
       </c>
       <c r="G21" s="3">
-        <v>69100</v>
+        <v>64100</v>
       </c>
       <c r="H21" s="3">
-        <v>194500</v>
+        <v>180500</v>
       </c>
       <c r="I21" s="3">
-        <v>174300</v>
+        <v>161700</v>
       </c>
       <c r="J21" s="3">
-        <v>397400</v>
+        <v>368900</v>
       </c>
       <c r="K21" s="3">
         <v>224900</v>
@@ -1700,25 +1700,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>158500</v>
+        <v>147100</v>
       </c>
       <c r="E23" s="3">
-        <v>129300</v>
+        <v>120100</v>
       </c>
       <c r="F23" s="3">
-        <v>170600</v>
+        <v>158300</v>
       </c>
       <c r="G23" s="3">
-        <v>45500</v>
+        <v>42200</v>
       </c>
       <c r="H23" s="3">
-        <v>154400</v>
+        <v>143300</v>
       </c>
       <c r="I23" s="3">
-        <v>144600</v>
+        <v>134200</v>
       </c>
       <c r="J23" s="3">
-        <v>352300</v>
+        <v>327000</v>
       </c>
       <c r="K23" s="3">
         <v>202900</v>
@@ -1771,25 +1771,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>55500</v>
+        <v>51500</v>
       </c>
       <c r="E24" s="3">
-        <v>42900</v>
+        <v>39800</v>
       </c>
       <c r="F24" s="3">
-        <v>57400</v>
+        <v>53300</v>
       </c>
       <c r="G24" s="3">
-        <v>23600</v>
+        <v>21900</v>
       </c>
       <c r="H24" s="3">
-        <v>80600</v>
+        <v>74800</v>
       </c>
       <c r="I24" s="3">
-        <v>74700</v>
+        <v>69300</v>
       </c>
       <c r="J24" s="3">
-        <v>135100</v>
+        <v>125400</v>
       </c>
       <c r="K24" s="3">
         <v>75300</v>
@@ -1913,25 +1913,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>103000</v>
+        <v>95600</v>
       </c>
       <c r="E26" s="3">
-        <v>86500</v>
+        <v>80300</v>
       </c>
       <c r="F26" s="3">
-        <v>113100</v>
+        <v>105000</v>
       </c>
       <c r="G26" s="3">
-        <v>21900</v>
+        <v>20300</v>
       </c>
       <c r="H26" s="3">
-        <v>73800</v>
+        <v>68500</v>
       </c>
       <c r="I26" s="3">
-        <v>69900</v>
+        <v>64900</v>
       </c>
       <c r="J26" s="3">
-        <v>217200</v>
+        <v>201600</v>
       </c>
       <c r="K26" s="3">
         <v>127600</v>
@@ -1984,25 +1984,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>103000</v>
+        <v>95600</v>
       </c>
       <c r="E27" s="3">
-        <v>86500</v>
+        <v>80300</v>
       </c>
       <c r="F27" s="3">
-        <v>113100</v>
+        <v>105000</v>
       </c>
       <c r="G27" s="3">
-        <v>21900</v>
+        <v>20300</v>
       </c>
       <c r="H27" s="3">
-        <v>73400</v>
+        <v>68100</v>
       </c>
       <c r="I27" s="3">
-        <v>69000</v>
+        <v>64100</v>
       </c>
       <c r="J27" s="3">
-        <v>213800</v>
+        <v>198400</v>
       </c>
       <c r="K27" s="3">
         <v>124200</v>
@@ -2339,25 +2339,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="E32" s="3">
-        <v>86500</v>
+        <v>80300</v>
       </c>
       <c r="F32" s="3">
-        <v>131100</v>
+        <v>121700</v>
       </c>
       <c r="G32" s="3">
-        <v>112000</v>
+        <v>104000</v>
       </c>
       <c r="H32" s="3">
-        <v>-23500</v>
+        <v>-21800</v>
       </c>
       <c r="I32" s="3">
-        <v>-41500</v>
+        <v>-38500</v>
       </c>
       <c r="J32" s="3">
-        <v>43900</v>
+        <v>40800</v>
       </c>
       <c r="K32" s="3">
         <v>-28700</v>
@@ -2410,25 +2410,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>103000</v>
+        <v>95600</v>
       </c>
       <c r="E33" s="3">
-        <v>86500</v>
+        <v>80300</v>
       </c>
       <c r="F33" s="3">
-        <v>113100</v>
+        <v>105000</v>
       </c>
       <c r="G33" s="3">
-        <v>21900</v>
+        <v>20300</v>
       </c>
       <c r="H33" s="3">
-        <v>73400</v>
+        <v>68100</v>
       </c>
       <c r="I33" s="3">
-        <v>69000</v>
+        <v>64100</v>
       </c>
       <c r="J33" s="3">
-        <v>213800</v>
+        <v>198400</v>
       </c>
       <c r="K33" s="3">
         <v>124200</v>
@@ -2552,25 +2552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>103000</v>
+        <v>95600</v>
       </c>
       <c r="E35" s="3">
-        <v>86500</v>
+        <v>80300</v>
       </c>
       <c r="F35" s="3">
-        <v>113100</v>
+        <v>105000</v>
       </c>
       <c r="G35" s="3">
-        <v>21900</v>
+        <v>20300</v>
       </c>
       <c r="H35" s="3">
-        <v>73400</v>
+        <v>68100</v>
       </c>
       <c r="I35" s="3">
-        <v>69000</v>
+        <v>64100</v>
       </c>
       <c r="J35" s="3">
-        <v>213800</v>
+        <v>198400</v>
       </c>
       <c r="K35" s="3">
         <v>124200</v>
@@ -2753,25 +2753,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2095100</v>
+        <v>1944600</v>
       </c>
       <c r="E41" s="3">
-        <v>2027400</v>
+        <v>1881800</v>
       </c>
       <c r="F41" s="3">
-        <v>1946800</v>
+        <v>1807000</v>
       </c>
       <c r="G41" s="3">
-        <v>1922400</v>
+        <v>1784300</v>
       </c>
       <c r="H41" s="3">
-        <v>2351800</v>
+        <v>2182900</v>
       </c>
       <c r="I41" s="3">
-        <v>1289200</v>
+        <v>1196600</v>
       </c>
       <c r="J41" s="3">
-        <v>1136400</v>
+        <v>1054800</v>
       </c>
       <c r="K41" s="3">
         <v>1830200</v>
@@ -2824,25 +2824,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5327000</v>
+        <v>4944400</v>
       </c>
       <c r="E42" s="3">
-        <v>5000300</v>
+        <v>4641200</v>
       </c>
       <c r="F42" s="3">
-        <v>4237800</v>
+        <v>3933400</v>
       </c>
       <c r="G42" s="3">
-        <v>2923800</v>
+        <v>2713800</v>
       </c>
       <c r="H42" s="3">
-        <v>3671600</v>
+        <v>3407900</v>
       </c>
       <c r="I42" s="3">
-        <v>2444200</v>
+        <v>2268700</v>
       </c>
       <c r="J42" s="3">
-        <v>2424900</v>
+        <v>2250800</v>
       </c>
       <c r="K42" s="3">
         <v>1268700</v>
@@ -3179,25 +3179,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>35200</v>
+        <v>32700</v>
       </c>
       <c r="E47" s="3">
-        <v>32700</v>
+        <v>30300</v>
       </c>
       <c r="F47" s="3">
-        <v>34800</v>
+        <v>32300</v>
       </c>
       <c r="G47" s="3">
-        <v>32200</v>
+        <v>29900</v>
       </c>
       <c r="H47" s="3">
-        <v>53200</v>
+        <v>49400</v>
       </c>
       <c r="I47" s="3">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="J47" s="3">
-        <v>20700</v>
+        <v>19200</v>
       </c>
       <c r="K47" s="3">
         <v>22000</v>
@@ -3250,25 +3250,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>571600</v>
+        <v>530500</v>
       </c>
       <c r="E48" s="3">
-        <v>526000</v>
+        <v>488200</v>
       </c>
       <c r="F48" s="3">
-        <v>489400</v>
+        <v>454200</v>
       </c>
       <c r="G48" s="3">
-        <v>450600</v>
+        <v>418200</v>
       </c>
       <c r="H48" s="3">
-        <v>606600</v>
+        <v>563100</v>
       </c>
       <c r="I48" s="3">
-        <v>363800</v>
+        <v>337700</v>
       </c>
       <c r="J48" s="3">
-        <v>340900</v>
+        <v>316400</v>
       </c>
       <c r="K48" s="3">
         <v>349500</v>
@@ -3321,25 +3321,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>195100</v>
+        <v>181100</v>
       </c>
       <c r="E49" s="3">
-        <v>178300</v>
+        <v>165500</v>
       </c>
       <c r="F49" s="3">
-        <v>163500</v>
+        <v>151800</v>
       </c>
       <c r="G49" s="3">
-        <v>149200</v>
+        <v>138500</v>
       </c>
       <c r="H49" s="3">
-        <v>200700</v>
+        <v>186300</v>
       </c>
       <c r="I49" s="3">
-        <v>120200</v>
+        <v>111600</v>
       </c>
       <c r="J49" s="3">
-        <v>112800</v>
+        <v>104700</v>
       </c>
       <c r="K49" s="3">
         <v>97900</v>
@@ -3534,25 +3534,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>39400</v>
+        <v>36600</v>
       </c>
       <c r="E52" s="3">
-        <v>34900</v>
+        <v>32400</v>
       </c>
       <c r="F52" s="3">
-        <v>31200</v>
+        <v>29000</v>
       </c>
       <c r="G52" s="3">
-        <v>67200</v>
+        <v>62300</v>
       </c>
       <c r="H52" s="3">
-        <v>142900</v>
+        <v>132600</v>
       </c>
       <c r="I52" s="3">
-        <v>50000</v>
+        <v>46400</v>
       </c>
       <c r="J52" s="3">
-        <v>30400</v>
+        <v>28200</v>
       </c>
       <c r="K52" s="3">
         <v>30400</v>
@@ -3676,25 +3676,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15454800</v>
+        <v>14344900</v>
       </c>
       <c r="E54" s="3">
-        <v>13565100</v>
+        <v>12590900</v>
       </c>
       <c r="F54" s="3">
-        <v>12344000</v>
+        <v>11457500</v>
       </c>
       <c r="G54" s="3">
-        <v>10779300</v>
+        <v>10005200</v>
       </c>
       <c r="H54" s="3">
-        <v>14675400</v>
+        <v>13621400</v>
       </c>
       <c r="I54" s="3">
-        <v>8717900</v>
+        <v>8091800</v>
       </c>
       <c r="J54" s="3">
-        <v>8206600</v>
+        <v>7617200</v>
       </c>
       <c r="K54" s="3">
         <v>7752500</v>
@@ -3943,25 +3943,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>96700</v>
+        <v>89700</v>
       </c>
       <c r="E59" s="3">
-        <v>74400</v>
+        <v>69100</v>
       </c>
       <c r="F59" s="3">
-        <v>25400</v>
+        <v>23600</v>
       </c>
       <c r="G59" s="3">
-        <v>99500</v>
+        <v>92400</v>
       </c>
       <c r="H59" s="3">
-        <v>219700</v>
+        <v>203900</v>
       </c>
       <c r="I59" s="3">
-        <v>96400</v>
+        <v>89500</v>
       </c>
       <c r="J59" s="3">
-        <v>70500</v>
+        <v>65400</v>
       </c>
       <c r="K59" s="3">
         <v>131800</v>
@@ -4085,25 +4085,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1973800</v>
+        <v>1832000</v>
       </c>
       <c r="E61" s="3">
-        <v>1613200</v>
+        <v>1497400</v>
       </c>
       <c r="F61" s="3">
-        <v>1397300</v>
+        <v>1296900</v>
       </c>
       <c r="G61" s="3">
-        <v>1295900</v>
+        <v>1202900</v>
       </c>
       <c r="H61" s="3">
-        <v>1829300</v>
+        <v>1698000</v>
       </c>
       <c r="I61" s="3">
-        <v>946600</v>
+        <v>878600</v>
       </c>
       <c r="J61" s="3">
-        <v>853300</v>
+        <v>792000</v>
       </c>
       <c r="K61" s="3">
         <v>1137000</v>
@@ -4156,25 +4156,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>141200</v>
+        <v>131100</v>
       </c>
       <c r="E62" s="3">
-        <v>142000</v>
+        <v>131800</v>
       </c>
       <c r="F62" s="3">
-        <v>130000</v>
+        <v>120700</v>
       </c>
       <c r="G62" s="3">
-        <v>87400</v>
+        <v>81100</v>
       </c>
       <c r="H62" s="3">
-        <v>125600</v>
+        <v>116600</v>
       </c>
       <c r="I62" s="3">
-        <v>137800</v>
+        <v>127900</v>
       </c>
       <c r="J62" s="3">
-        <v>126100</v>
+        <v>117000</v>
       </c>
       <c r="K62" s="3">
         <v>83400</v>
@@ -4440,25 +4440,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12674200</v>
+        <v>11764000</v>
       </c>
       <c r="E66" s="3">
-        <v>11116800</v>
+        <v>10318400</v>
       </c>
       <c r="F66" s="3">
-        <v>10182400</v>
+        <v>9451100</v>
       </c>
       <c r="G66" s="3">
-        <v>8891500</v>
+        <v>8253000</v>
       </c>
       <c r="H66" s="3">
-        <v>12180400</v>
+        <v>11305700</v>
       </c>
       <c r="I66" s="3">
-        <v>7294000</v>
+        <v>6770200</v>
       </c>
       <c r="J66" s="3">
-        <v>6910700</v>
+        <v>6414400</v>
       </c>
       <c r="K66" s="3">
         <v>6495200</v>
@@ -4822,25 +4822,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2609000</v>
+        <v>2421700</v>
       </c>
       <c r="E72" s="3">
-        <v>2276400</v>
+        <v>2112900</v>
       </c>
       <c r="F72" s="3">
-        <v>1989300</v>
+        <v>1846400</v>
       </c>
       <c r="G72" s="3">
-        <v>1715500</v>
+        <v>1592300</v>
       </c>
       <c r="H72" s="3">
-        <v>3413400</v>
+        <v>3168200</v>
       </c>
       <c r="I72" s="3">
-        <v>1318500</v>
+        <v>1223800</v>
       </c>
       <c r="J72" s="3">
-        <v>1184700</v>
+        <v>1099600</v>
       </c>
       <c r="K72" s="3">
         <v>1154600</v>
@@ -5106,25 +5106,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2780600</v>
+        <v>2580900</v>
       </c>
       <c r="E76" s="3">
-        <v>2448300</v>
+        <v>2272400</v>
       </c>
       <c r="F76" s="3">
-        <v>2161600</v>
+        <v>2006400</v>
       </c>
       <c r="G76" s="3">
-        <v>1887800</v>
+        <v>1752200</v>
       </c>
       <c r="H76" s="3">
-        <v>2494900</v>
+        <v>2315800</v>
       </c>
       <c r="I76" s="3">
-        <v>1423900</v>
+        <v>1321700</v>
       </c>
       <c r="J76" s="3">
-        <v>1295900</v>
+        <v>1202900</v>
       </c>
       <c r="K76" s="3">
         <v>1257300</v>
@@ -5324,25 +5324,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>103000</v>
+        <v>95600</v>
       </c>
       <c r="E81" s="3">
-        <v>86500</v>
+        <v>80300</v>
       </c>
       <c r="F81" s="3">
-        <v>113100</v>
+        <v>105000</v>
       </c>
       <c r="G81" s="3">
-        <v>21900</v>
+        <v>20300</v>
       </c>
       <c r="H81" s="3">
-        <v>73400</v>
+        <v>68100</v>
       </c>
       <c r="I81" s="3">
-        <v>69000</v>
+        <v>64100</v>
       </c>
       <c r="J81" s="3">
-        <v>213800</v>
+        <v>198400</v>
       </c>
       <c r="K81" s="3">
         <v>124200</v>
@@ -5422,25 +5422,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>42600</v>
+        <v>39600</v>
       </c>
       <c r="E83" s="3">
-        <v>35900</v>
+        <v>33300</v>
       </c>
       <c r="F83" s="3">
-        <v>54700</v>
+        <v>50800</v>
       </c>
       <c r="G83" s="3">
-        <v>23600</v>
+        <v>21900</v>
       </c>
       <c r="H83" s="3">
-        <v>40100</v>
+        <v>37200</v>
       </c>
       <c r="I83" s="3">
-        <v>29700</v>
+        <v>27500</v>
       </c>
       <c r="J83" s="3">
-        <v>45100</v>
+        <v>41900</v>
       </c>
       <c r="K83" s="3">
         <v>22000</v>
@@ -5848,25 +5848,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-702200</v>
+        <v>-651800</v>
       </c>
       <c r="E89" s="3">
-        <v>630300</v>
+        <v>585000</v>
       </c>
       <c r="F89" s="3">
-        <v>313400</v>
+        <v>290900</v>
       </c>
       <c r="G89" s="3">
-        <v>40900</v>
+        <v>37900</v>
       </c>
       <c r="H89" s="3">
-        <v>-13800</v>
+        <v>-12800</v>
       </c>
       <c r="I89" s="3">
-        <v>-206800</v>
+        <v>-192000</v>
       </c>
       <c r="J89" s="3">
-        <v>1223500</v>
+        <v>1135600</v>
       </c>
       <c r="K89" s="3">
         <v>475800</v>
@@ -5946,25 +5946,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-65300</v>
+        <v>-60600</v>
       </c>
       <c r="E91" s="3">
-        <v>-11200</v>
+        <v>-10400</v>
       </c>
       <c r="F91" s="3">
-        <v>-20400</v>
+        <v>-19000</v>
       </c>
       <c r="G91" s="3">
-        <v>-11800</v>
+        <v>-11000</v>
       </c>
       <c r="H91" s="3">
-        <v>-21500</v>
+        <v>-19900</v>
       </c>
       <c r="I91" s="3">
-        <v>-13400</v>
+        <v>-12400</v>
       </c>
       <c r="J91" s="3">
-        <v>-30600</v>
+        <v>-28400</v>
       </c>
       <c r="K91" s="3">
         <v>-18200</v>
@@ -6159,25 +6159,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21100</v>
+        <v>-19600</v>
       </c>
       <c r="E94" s="3">
-        <v>-24800</v>
+        <v>-23000</v>
       </c>
       <c r="F94" s="3">
-        <v>-37000</v>
+        <v>-34300</v>
       </c>
       <c r="G94" s="3">
-        <v>-18000</v>
+        <v>-16700</v>
       </c>
       <c r="H94" s="3">
-        <v>-26200</v>
+        <v>-24300</v>
       </c>
       <c r="I94" s="3">
-        <v>-11200</v>
+        <v>-10400</v>
       </c>
       <c r="J94" s="3">
-        <v>-24900</v>
+        <v>-23100</v>
       </c>
       <c r="K94" s="3">
         <v>-17200</v>
@@ -6257,25 +6257,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="F96" s="3">
-        <v>-14700</v>
+        <v>-13600</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-17500</v>
+        <v>-16300</v>
       </c>
       <c r="I96" s="3">
         <v>-100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -6541,25 +6541,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>53200</v>
+        <v>49400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="F100" s="3">
-        <v>25600</v>
+        <v>23700</v>
       </c>
       <c r="G100" s="3">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="H100" s="3">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="I100" s="3">
-        <v>-45300</v>
+        <v>-42000</v>
       </c>
       <c r="J100" s="3">
-        <v>-298300</v>
+        <v>-276900</v>
       </c>
       <c r="K100" s="3">
         <v>-59200</v>
@@ -6612,25 +6612,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>105800</v>
+        <v>98200</v>
       </c>
       <c r="E101" s="3">
-        <v>78800</v>
+        <v>73100</v>
       </c>
       <c r="F101" s="3">
-        <v>223400</v>
+        <v>207400</v>
       </c>
       <c r="G101" s="3">
-        <v>138600</v>
+        <v>128600</v>
       </c>
       <c r="H101" s="3">
-        <v>47000</v>
+        <v>43600</v>
       </c>
       <c r="I101" s="3">
-        <v>167500</v>
+        <v>155500</v>
       </c>
       <c r="J101" s="3">
-        <v>240500</v>
+        <v>223300</v>
       </c>
       <c r="K101" s="3">
         <v>104700</v>
@@ -6683,25 +6683,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-564400</v>
+        <v>-523800</v>
       </c>
       <c r="E102" s="3">
-        <v>682900</v>
+        <v>633900</v>
       </c>
       <c r="F102" s="3">
-        <v>525400</v>
+        <v>487700</v>
       </c>
       <c r="G102" s="3">
-        <v>166400</v>
+        <v>154500</v>
       </c>
       <c r="H102" s="3">
-        <v>37000</v>
+        <v>34300</v>
       </c>
       <c r="I102" s="3">
-        <v>-159100</v>
+        <v>-147700</v>
       </c>
       <c r="J102" s="3">
-        <v>999100</v>
+        <v>927300</v>
       </c>
       <c r="K102" s="3">
         <v>480000</v>

--- a/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>GGAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,185 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>855700</v>
+        <v>614400</v>
       </c>
       <c r="E8" s="3">
-        <v>581400</v>
+        <v>730300</v>
       </c>
       <c r="F8" s="3">
-        <v>1038000</v>
+        <v>496200</v>
       </c>
       <c r="G8" s="3">
-        <v>468700</v>
+        <v>885900</v>
       </c>
       <c r="H8" s="3">
-        <v>691400</v>
+        <v>561600</v>
       </c>
       <c r="I8" s="3">
-        <v>444300</v>
+        <v>590100</v>
       </c>
       <c r="J8" s="3">
+        <v>379200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1019300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>558800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>615700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>433600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>802100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>441600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>308800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>272200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>194300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>182800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>229300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>197700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>372300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>208700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>213100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>197300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,79 +1237,85 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-39900</v>
+        <v>-27800</v>
       </c>
       <c r="E15" s="3">
-        <v>-28500</v>
+        <v>-34100</v>
       </c>
       <c r="F15" s="3">
-        <v>-55100</v>
+        <v>-24300</v>
       </c>
       <c r="G15" s="3">
-        <v>-24300</v>
+        <v>-47100</v>
       </c>
       <c r="H15" s="3">
-        <v>-36700</v>
+        <v>-28900</v>
       </c>
       <c r="I15" s="3">
-        <v>-22700</v>
+        <v>-31300</v>
       </c>
       <c r="J15" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="K15" s="3">
         <v>-45700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-24400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-24500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-14700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-32700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-16200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-4300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-10500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-9700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-8500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-10100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-21900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-16300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-7300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>578600</v>
+        <v>447900</v>
       </c>
       <c r="E17" s="3">
-        <v>381100</v>
+        <v>493800</v>
       </c>
       <c r="F17" s="3">
-        <v>758000</v>
+        <v>325300</v>
       </c>
       <c r="G17" s="3">
-        <v>322500</v>
+        <v>646900</v>
       </c>
       <c r="H17" s="3">
-        <v>569900</v>
+        <v>386500</v>
       </c>
       <c r="I17" s="3">
-        <v>348700</v>
+        <v>486400</v>
       </c>
       <c r="J17" s="3">
+        <v>297600</v>
+      </c>
+      <c r="K17" s="3">
         <v>651600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>384600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>448100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>394000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>779000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>410000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>265700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>130600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>107600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>128500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>109500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>220900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>124300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>131500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>135000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>277100</v>
+        <v>166500</v>
       </c>
       <c r="E18" s="3">
-        <v>200300</v>
+        <v>236500</v>
       </c>
       <c r="F18" s="3">
-        <v>280000</v>
+        <v>171000</v>
       </c>
       <c r="G18" s="3">
-        <v>146200</v>
+        <v>239000</v>
       </c>
       <c r="H18" s="3">
-        <v>121500</v>
+        <v>175100</v>
       </c>
       <c r="I18" s="3">
-        <v>95700</v>
+        <v>103700</v>
       </c>
       <c r="J18" s="3">
+        <v>81700</v>
+      </c>
+      <c r="K18" s="3">
         <v>367800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>174200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>167600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>39600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>23100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>31600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>43100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>72000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>63700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>75200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>100800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>88100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>151400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>84400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>81600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>62200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-130000</v>
+        <v>-105000</v>
       </c>
       <c r="E20" s="3">
-        <v>-80300</v>
+        <v>-110900</v>
       </c>
       <c r="F20" s="3">
-        <v>-121700</v>
+        <v>-68500</v>
       </c>
       <c r="G20" s="3">
-        <v>-104000</v>
+        <v>-103900</v>
       </c>
       <c r="H20" s="3">
-        <v>21800</v>
+        <v>-124700</v>
       </c>
       <c r="I20" s="3">
-        <v>38500</v>
+        <v>18600</v>
       </c>
       <c r="J20" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-40800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>28700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-65400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>23800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>341500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>212300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>43200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>20300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-8800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-16500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-12200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>186700</v>
+        <v>89500</v>
       </c>
       <c r="E21" s="3">
-        <v>153400</v>
+        <v>159300</v>
       </c>
       <c r="F21" s="3">
-        <v>209100</v>
+        <v>130900</v>
       </c>
       <c r="G21" s="3">
-        <v>64100</v>
+        <v>178500</v>
       </c>
       <c r="H21" s="3">
-        <v>180500</v>
+        <v>79300</v>
       </c>
       <c r="I21" s="3">
-        <v>161700</v>
+        <v>154100</v>
       </c>
       <c r="J21" s="3">
+        <v>138000</v>
+      </c>
+      <c r="K21" s="3">
         <v>368900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>224900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>126700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>80400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>395000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>259300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>91100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>96600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>63600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>78200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>92200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>95400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>146400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>78300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>75700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,150 +1734,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>147100</v>
+        <v>61500</v>
       </c>
       <c r="E23" s="3">
-        <v>120100</v>
+        <v>125600</v>
       </c>
       <c r="F23" s="3">
-        <v>158300</v>
+        <v>102500</v>
       </c>
       <c r="G23" s="3">
-        <v>42200</v>
+        <v>135100</v>
       </c>
       <c r="H23" s="3">
-        <v>143300</v>
+        <v>50400</v>
       </c>
       <c r="I23" s="3">
-        <v>134200</v>
+        <v>122300</v>
       </c>
       <c r="J23" s="3">
+        <v>114500</v>
+      </c>
+      <c r="K23" s="3">
         <v>327000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>202900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>102300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>63400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>364600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>243900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>86300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>92300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>59500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>74000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>92000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>89100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>134900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>72100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>75400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>51500</v>
+        <v>23600</v>
       </c>
       <c r="E24" s="3">
-        <v>39800</v>
+        <v>44000</v>
       </c>
       <c r="F24" s="3">
-        <v>53300</v>
+        <v>34000</v>
       </c>
       <c r="G24" s="3">
-        <v>21900</v>
+        <v>45500</v>
       </c>
       <c r="H24" s="3">
-        <v>74800</v>
+        <v>26100</v>
       </c>
       <c r="I24" s="3">
-        <v>69300</v>
+        <v>63800</v>
       </c>
       <c r="J24" s="3">
+        <v>59200</v>
+      </c>
+      <c r="K24" s="3">
         <v>125400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>75300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>56800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>35600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>122700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>105200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>26300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>29000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>17100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>22800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>22700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>36200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>40500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>25800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>25600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>95600</v>
+        <v>37800</v>
       </c>
       <c r="E26" s="3">
-        <v>80300</v>
+        <v>81600</v>
       </c>
       <c r="F26" s="3">
-        <v>105000</v>
+        <v>68500</v>
       </c>
       <c r="G26" s="3">
-        <v>20300</v>
+        <v>89600</v>
       </c>
       <c r="H26" s="3">
-        <v>68500</v>
+        <v>24200</v>
       </c>
       <c r="I26" s="3">
-        <v>64900</v>
+        <v>58500</v>
       </c>
       <c r="J26" s="3">
+        <v>55400</v>
+      </c>
+      <c r="K26" s="3">
         <v>201600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>127600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>45400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>27800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>241900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>138700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>60000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>63200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>42400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>51200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>69300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>52900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>94400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>46400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>49900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>95600</v>
+        <v>37800</v>
       </c>
       <c r="E27" s="3">
-        <v>80300</v>
+        <v>81600</v>
       </c>
       <c r="F27" s="3">
-        <v>105000</v>
+        <v>68500</v>
       </c>
       <c r="G27" s="3">
-        <v>20300</v>
+        <v>89600</v>
       </c>
       <c r="H27" s="3">
-        <v>68100</v>
+        <v>24200</v>
       </c>
       <c r="I27" s="3">
-        <v>64100</v>
+        <v>58100</v>
       </c>
       <c r="J27" s="3">
+        <v>54700</v>
+      </c>
+      <c r="K27" s="3">
         <v>198400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>124200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>43400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>28200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>241900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>138900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>60100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>61700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>40700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>48800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>65400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>48700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>88100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>42200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>46400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2146,8 +2207,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -2161,8 +2222,8 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2171,28 +2232,31 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>900</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-4300</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-4900</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>130000</v>
+        <v>105000</v>
       </c>
       <c r="E32" s="3">
-        <v>80300</v>
+        <v>110900</v>
       </c>
       <c r="F32" s="3">
-        <v>121700</v>
+        <v>68500</v>
       </c>
       <c r="G32" s="3">
-        <v>104000</v>
+        <v>103900</v>
       </c>
       <c r="H32" s="3">
-        <v>-21800</v>
+        <v>124700</v>
       </c>
       <c r="I32" s="3">
-        <v>-38500</v>
+        <v>-18600</v>
       </c>
       <c r="J32" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="K32" s="3">
         <v>40800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-28700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>65400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-23800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-341500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-212300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-43200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-20300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>8800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>16500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>12200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>6200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>95600</v>
+        <v>37800</v>
       </c>
       <c r="E33" s="3">
-        <v>80300</v>
+        <v>81600</v>
       </c>
       <c r="F33" s="3">
-        <v>105000</v>
+        <v>68500</v>
       </c>
       <c r="G33" s="3">
-        <v>20300</v>
+        <v>89600</v>
       </c>
       <c r="H33" s="3">
-        <v>68100</v>
+        <v>24200</v>
       </c>
       <c r="I33" s="3">
-        <v>64100</v>
+        <v>58100</v>
       </c>
       <c r="J33" s="3">
+        <v>54700</v>
+      </c>
+      <c r="K33" s="3">
         <v>198400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>124200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>43400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>28200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>241900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>138900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>60100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>61700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>40700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>49700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>65400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>48700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>83900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>37400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>46400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>95600</v>
+        <v>37800</v>
       </c>
       <c r="E35" s="3">
-        <v>80300</v>
+        <v>81600</v>
       </c>
       <c r="F35" s="3">
-        <v>105000</v>
+        <v>68500</v>
       </c>
       <c r="G35" s="3">
-        <v>20300</v>
+        <v>89600</v>
       </c>
       <c r="H35" s="3">
-        <v>68100</v>
+        <v>24200</v>
       </c>
       <c r="I35" s="3">
-        <v>64100</v>
+        <v>58100</v>
       </c>
       <c r="J35" s="3">
+        <v>54700</v>
+      </c>
+      <c r="K35" s="3">
         <v>198400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>124200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>43400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>28200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>241900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>138900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>60100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>61700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>40700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>49700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>65400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>48700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>83900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>37400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>46400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,150 +2833,157 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1944600</v>
+        <v>2043600</v>
       </c>
       <c r="E41" s="3">
-        <v>1881800</v>
+        <v>1926300</v>
       </c>
       <c r="F41" s="3">
-        <v>1807000</v>
+        <v>1606100</v>
       </c>
       <c r="G41" s="3">
-        <v>1784300</v>
+        <v>1542200</v>
       </c>
       <c r="H41" s="3">
-        <v>2182900</v>
+        <v>1522800</v>
       </c>
       <c r="I41" s="3">
-        <v>1196600</v>
+        <v>1863000</v>
       </c>
       <c r="J41" s="3">
+        <v>1021300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1054800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1830200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1795500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1080100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1319800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1599000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1905000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1658600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1327500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>759000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1429900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>894100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>822600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1623000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1625000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>791700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4944400</v>
+        <v>4315100</v>
       </c>
       <c r="E42" s="3">
-        <v>4641200</v>
+        <v>4898000</v>
       </c>
       <c r="F42" s="3">
-        <v>3933400</v>
+        <v>3961100</v>
       </c>
       <c r="G42" s="3">
-        <v>2713800</v>
+        <v>3357000</v>
       </c>
       <c r="H42" s="3">
-        <v>3407900</v>
+        <v>2316100</v>
       </c>
       <c r="I42" s="3">
-        <v>2268700</v>
+        <v>2908500</v>
       </c>
       <c r="J42" s="3">
+        <v>1936200</v>
+      </c>
+      <c r="K42" s="3">
         <v>2250800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1268700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1821400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1463000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1953800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1924600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1466600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1014200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>256000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>229600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2013000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>717600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>621300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>910600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>226700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>320200</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3102,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3173,221 +3275,233 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>32700</v>
+        <v>12900</v>
       </c>
       <c r="E47" s="3">
-        <v>30300</v>
+        <v>32400</v>
       </c>
       <c r="F47" s="3">
-        <v>32300</v>
+        <v>25900</v>
       </c>
       <c r="G47" s="3">
-        <v>29900</v>
+        <v>27600</v>
       </c>
       <c r="H47" s="3">
-        <v>49400</v>
+        <v>25500</v>
       </c>
       <c r="I47" s="3">
-        <v>19500</v>
+        <v>42100</v>
       </c>
       <c r="J47" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K47" s="3">
         <v>19200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>22000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>35000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>25600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>25100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>31100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>7100</v>
-      </c>
-      <c r="X47" s="3">
-        <v>1400</v>
       </c>
       <c r="Y47" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>530500</v>
+        <v>515000</v>
       </c>
       <c r="E48" s="3">
-        <v>488200</v>
+        <v>525500</v>
       </c>
       <c r="F48" s="3">
-        <v>454200</v>
+        <v>416700</v>
       </c>
       <c r="G48" s="3">
-        <v>418200</v>
+        <v>387700</v>
       </c>
       <c r="H48" s="3">
-        <v>563100</v>
+        <v>356900</v>
       </c>
       <c r="I48" s="3">
-        <v>337700</v>
+        <v>480500</v>
       </c>
       <c r="J48" s="3">
+        <v>288200</v>
+      </c>
+      <c r="K48" s="3">
         <v>316400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>349500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>461300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>142800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>147700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>173300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>147700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>154000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>146900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>163700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>333600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>101200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>98000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>336500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>100000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>181100</v>
+        <v>178900</v>
       </c>
       <c r="E49" s="3">
-        <v>165500</v>
+        <v>179400</v>
       </c>
       <c r="F49" s="3">
-        <v>151800</v>
+        <v>141200</v>
       </c>
       <c r="G49" s="3">
-        <v>138500</v>
+        <v>129500</v>
       </c>
       <c r="H49" s="3">
-        <v>186300</v>
+        <v>118200</v>
       </c>
       <c r="I49" s="3">
-        <v>111600</v>
+        <v>159000</v>
       </c>
       <c r="J49" s="3">
+        <v>95200</v>
+      </c>
+      <c r="K49" s="3">
         <v>104700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>97900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>121700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>56200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>51600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>52500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>50800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>16300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>15900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>17800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>102800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>71400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>65400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>91900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>67600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>36600</v>
+        <v>34800</v>
       </c>
       <c r="E52" s="3">
-        <v>32400</v>
+        <v>36200</v>
       </c>
       <c r="F52" s="3">
-        <v>29000</v>
+        <v>27600</v>
       </c>
       <c r="G52" s="3">
-        <v>62300</v>
+        <v>24700</v>
       </c>
       <c r="H52" s="3">
-        <v>132600</v>
+        <v>53200</v>
       </c>
       <c r="I52" s="3">
+        <v>113200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K52" s="3">
+        <v>28200</v>
+      </c>
+      <c r="L52" s="3">
+        <v>30400</v>
+      </c>
+      <c r="M52" s="3">
+        <v>39700</v>
+      </c>
+      <c r="N52" s="3">
         <v>46400</v>
       </c>
-      <c r="J52" s="3">
-        <v>28200</v>
-      </c>
-      <c r="K52" s="3">
-        <v>30400</v>
-      </c>
-      <c r="L52" s="3">
-        <v>39700</v>
-      </c>
-      <c r="M52" s="3">
-        <v>46400</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>33300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>15100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>13200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>13800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>149300</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>46800</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14344900</v>
+        <v>13319200</v>
       </c>
       <c r="E54" s="3">
-        <v>12590900</v>
+        <v>14210100</v>
       </c>
       <c r="F54" s="3">
-        <v>11457500</v>
+        <v>10745800</v>
       </c>
       <c r="G54" s="3">
-        <v>10005200</v>
+        <v>9778500</v>
       </c>
       <c r="H54" s="3">
-        <v>13621400</v>
+        <v>8539000</v>
       </c>
       <c r="I54" s="3">
-        <v>8091800</v>
+        <v>11625300</v>
       </c>
       <c r="J54" s="3">
+        <v>6906000</v>
+      </c>
+      <c r="K54" s="3">
         <v>7617200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7752500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9615400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6766800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6853700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7681900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7670400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7580600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6216900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5415600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7508500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6294800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5807800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6325800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6342100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5183700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3845,29 +3976,32 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>100600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>91900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>82000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>84500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>69700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>76400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3937,79 +4071,85 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>89700</v>
+        <v>45100</v>
       </c>
       <c r="E59" s="3">
-        <v>69100</v>
+        <v>87900</v>
       </c>
       <c r="F59" s="3">
-        <v>23600</v>
+        <v>58900</v>
       </c>
       <c r="G59" s="3">
-        <v>92400</v>
+        <v>20100</v>
       </c>
       <c r="H59" s="3">
-        <v>203900</v>
+        <v>78800</v>
       </c>
       <c r="I59" s="3">
-        <v>89500</v>
+        <v>174000</v>
       </c>
       <c r="J59" s="3">
+        <v>76400</v>
+      </c>
+      <c r="K59" s="3">
         <v>65400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>131800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>144400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>77800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>57600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>76200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>79700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>70300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>43100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>67400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>233500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>156700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>138800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>200700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>152000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>133300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4079,150 +4219,159 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1832000</v>
+        <v>1653600</v>
       </c>
       <c r="E61" s="3">
-        <v>1497400</v>
+        <v>658700</v>
       </c>
       <c r="F61" s="3">
-        <v>1296900</v>
+        <v>1278000</v>
       </c>
       <c r="G61" s="3">
-        <v>1202900</v>
+        <v>1106900</v>
       </c>
       <c r="H61" s="3">
-        <v>1698000</v>
+        <v>1026600</v>
       </c>
       <c r="I61" s="3">
-        <v>878600</v>
+        <v>1449100</v>
       </c>
       <c r="J61" s="3">
+        <v>749900</v>
+      </c>
+      <c r="K61" s="3">
         <v>792000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1137000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>944200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>706100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>721600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>755100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>396400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>538900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>434400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>270600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>291300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>599700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>576000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>287000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>599300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>536100</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>131100</v>
+        <v>130300</v>
       </c>
       <c r="E62" s="3">
-        <v>131800</v>
+        <v>129900</v>
       </c>
       <c r="F62" s="3">
-        <v>120700</v>
+        <v>112400</v>
       </c>
       <c r="G62" s="3">
-        <v>81100</v>
+        <v>103000</v>
       </c>
       <c r="H62" s="3">
-        <v>116600</v>
+        <v>69200</v>
       </c>
       <c r="I62" s="3">
-        <v>127900</v>
+        <v>99500</v>
       </c>
       <c r="J62" s="3">
+        <v>109200</v>
+      </c>
+      <c r="K62" s="3">
         <v>117000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>83400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>119900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>24500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>25500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>24900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>23300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>18800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>18300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>31000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>12400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>33800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>10100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11764000</v>
+        <v>10724100</v>
       </c>
       <c r="E66" s="3">
-        <v>10318400</v>
+        <v>11653500</v>
       </c>
       <c r="F66" s="3">
-        <v>9451100</v>
+        <v>8806300</v>
       </c>
       <c r="G66" s="3">
-        <v>8253000</v>
+        <v>8066100</v>
       </c>
       <c r="H66" s="3">
-        <v>11305700</v>
+        <v>7043600</v>
       </c>
       <c r="I66" s="3">
-        <v>6770200</v>
+        <v>9648900</v>
       </c>
       <c r="J66" s="3">
+        <v>5778000</v>
+      </c>
+      <c r="K66" s="3">
         <v>6414400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6495200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8049800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5899400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6075800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6895700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6925700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6842200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5538600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4677100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6562900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5487400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5267600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5719600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5809300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4697200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2421700</v>
+        <v>2458700</v>
       </c>
       <c r="E72" s="3">
-        <v>2112900</v>
+        <v>3510400</v>
       </c>
       <c r="F72" s="3">
-        <v>1846400</v>
+        <v>1803300</v>
       </c>
       <c r="G72" s="3">
-        <v>1592300</v>
+        <v>1575800</v>
       </c>
       <c r="H72" s="3">
-        <v>3168200</v>
+        <v>1359000</v>
       </c>
       <c r="I72" s="3">
-        <v>1223800</v>
+        <v>2703900</v>
       </c>
       <c r="J72" s="3">
+        <v>1044500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1099600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1154600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1437500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>747900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>649100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>636700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>577500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>554000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>492800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>529300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>662100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>549800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>499000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>560000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>485800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>439400</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2580900</v>
+        <v>2595100</v>
       </c>
       <c r="E76" s="3">
-        <v>2272400</v>
+        <v>2556600</v>
       </c>
       <c r="F76" s="3">
-        <v>2006400</v>
+        <v>1939400</v>
       </c>
       <c r="G76" s="3">
-        <v>1752200</v>
+        <v>1712400</v>
       </c>
       <c r="H76" s="3">
-        <v>2315800</v>
+        <v>1495400</v>
       </c>
       <c r="I76" s="3">
-        <v>1321700</v>
+        <v>1976400</v>
       </c>
       <c r="J76" s="3">
+        <v>1128000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1202900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1257300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1565700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>867400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>777900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>786200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>744700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>738400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>678400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>738500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>945600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>807400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>540200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>606200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>532800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>486400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>95600</v>
+        <v>37800</v>
       </c>
       <c r="E81" s="3">
-        <v>80300</v>
+        <v>81600</v>
       </c>
       <c r="F81" s="3">
-        <v>105000</v>
+        <v>68500</v>
       </c>
       <c r="G81" s="3">
-        <v>20300</v>
+        <v>89600</v>
       </c>
       <c r="H81" s="3">
-        <v>68100</v>
+        <v>24200</v>
       </c>
       <c r="I81" s="3">
-        <v>64100</v>
+        <v>58100</v>
       </c>
       <c r="J81" s="3">
+        <v>54700</v>
+      </c>
+      <c r="K81" s="3">
         <v>198400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>124200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>43400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>28200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>241900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>138900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>60100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>61700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>40700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>49700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>65400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>48700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>83900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>37400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>46400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>39600</v>
+        <v>28000</v>
       </c>
       <c r="E83" s="3">
-        <v>33300</v>
+        <v>33800</v>
       </c>
       <c r="F83" s="3">
-        <v>50800</v>
+        <v>28400</v>
       </c>
       <c r="G83" s="3">
-        <v>21900</v>
+        <v>43400</v>
       </c>
       <c r="H83" s="3">
-        <v>37200</v>
+        <v>29000</v>
       </c>
       <c r="I83" s="3">
-        <v>27500</v>
+        <v>31800</v>
       </c>
       <c r="J83" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K83" s="3">
         <v>41900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>22000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>24500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>17000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>30400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>15400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>6300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>11500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>6100</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-651800</v>
+        <v>-1520300</v>
       </c>
       <c r="E89" s="3">
-        <v>585000</v>
+        <v>-556300</v>
       </c>
       <c r="F89" s="3">
-        <v>290900</v>
+        <v>499300</v>
       </c>
       <c r="G89" s="3">
-        <v>37900</v>
+        <v>248300</v>
       </c>
       <c r="H89" s="3">
-        <v>-12800</v>
+        <v>40100</v>
       </c>
       <c r="I89" s="3">
-        <v>-192000</v>
+        <v>-10900</v>
       </c>
       <c r="J89" s="3">
+        <v>-163800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1135600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>475800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>453300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1290000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>339100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>211500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1181300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>260000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>201800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-351600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>353200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>46900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-420300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>15000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>629600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-60600</v>
+        <v>-8400</v>
       </c>
       <c r="E91" s="3">
-        <v>-10400</v>
+        <v>-51700</v>
       </c>
       <c r="F91" s="3">
-        <v>-19000</v>
+        <v>-8800</v>
       </c>
       <c r="G91" s="3">
-        <v>-11000</v>
+        <v>-16200</v>
       </c>
       <c r="H91" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="M91" s="3">
         <v>-19900</v>
       </c>
-      <c r="I91" s="3">
-        <v>-12400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-28400</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-18200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-19900</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-32000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-34900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-24100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-10000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-24200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-19600</v>
       </c>
-      <c r="E94" s="3">
-        <v>-23000</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-34300</v>
-      </c>
       <c r="G94" s="3">
-        <v>-16700</v>
+        <v>-29300</v>
       </c>
       <c r="H94" s="3">
-        <v>-24300</v>
+        <v>-14200</v>
       </c>
       <c r="I94" s="3">
-        <v>-10400</v>
+        <v>-20800</v>
       </c>
       <c r="J94" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-23100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-17200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>18600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-38100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-19100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-21300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-14200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-8700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-10500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,35 +6484,36 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>-1300</v>
       </c>
       <c r="F96" s="3">
-        <v>-13600</v>
+        <v>-1100</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-11600</v>
       </c>
       <c r="H96" s="3">
-        <v>-16300</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="J96" s="3">
         <v>-100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -6287,43 +6521,46 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-21200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>1100</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>2100</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-7600</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>49400</v>
+        <v>31000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1200</v>
+        <v>42100</v>
       </c>
       <c r="F100" s="3">
-        <v>23700</v>
+        <v>-1000</v>
       </c>
       <c r="G100" s="3">
-        <v>4600</v>
+        <v>20300</v>
       </c>
       <c r="H100" s="3">
-        <v>19500</v>
+        <v>6100</v>
       </c>
       <c r="I100" s="3">
-        <v>-42000</v>
+        <v>16600</v>
       </c>
       <c r="J100" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-276900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-59200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>55700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-120100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-34000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-70300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-44300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-65200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>239100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>22700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>44600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>206700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>37200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>27800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>98200</v>
+        <v>122400</v>
       </c>
       <c r="E101" s="3">
-        <v>73100</v>
+        <v>83800</v>
       </c>
       <c r="F101" s="3">
-        <v>207400</v>
+        <v>62400</v>
       </c>
       <c r="G101" s="3">
-        <v>128600</v>
+        <v>177000</v>
       </c>
       <c r="H101" s="3">
-        <v>43600</v>
+        <v>170200</v>
       </c>
       <c r="I101" s="3">
-        <v>155500</v>
+        <v>37200</v>
       </c>
       <c r="J101" s="3">
+        <v>132700</v>
+      </c>
+      <c r="K101" s="3">
         <v>223300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>104700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-86900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>784700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>181600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>213700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-85600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>358800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>214100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>45300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>61100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>21100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>35900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-27600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>27100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-523800</v>
+        <v>-1384600</v>
       </c>
       <c r="E102" s="3">
-        <v>633900</v>
+        <v>-447100</v>
       </c>
       <c r="F102" s="3">
-        <v>487700</v>
+        <v>541000</v>
       </c>
       <c r="G102" s="3">
-        <v>154500</v>
+        <v>416200</v>
       </c>
       <c r="H102" s="3">
-        <v>34300</v>
+        <v>194400</v>
       </c>
       <c r="I102" s="3">
-        <v>-147700</v>
+        <v>29300</v>
       </c>
       <c r="J102" s="3">
+        <v>-126000</v>
+      </c>
+      <c r="K102" s="3">
         <v>927300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>480000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>228000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-630000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>479900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>324700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>991800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>554900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>631600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-291800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>437500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>270200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-404200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>11800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>673900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-152300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>GGAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,192 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>614400</v>
+        <v>747800</v>
       </c>
       <c r="E8" s="3">
-        <v>730300</v>
+        <v>617700</v>
       </c>
       <c r="F8" s="3">
-        <v>496200</v>
+        <v>626000</v>
       </c>
       <c r="G8" s="3">
-        <v>885900</v>
+        <v>425300</v>
       </c>
       <c r="H8" s="3">
-        <v>561600</v>
+        <v>574800</v>
       </c>
       <c r="I8" s="3">
-        <v>590100</v>
+        <v>564600</v>
       </c>
       <c r="J8" s="3">
+        <v>505800</v>
+      </c>
+      <c r="K8" s="3">
         <v>379200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1019300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>558800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>615700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>433600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>802100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>441600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>308800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>272200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>194300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>182800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>229300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>197700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>372300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>208700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>213100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>197300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,82 +1260,88 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-27800</v>
+        <v>-29300</v>
       </c>
       <c r="E15" s="3">
-        <v>-34100</v>
+        <v>-28000</v>
       </c>
       <c r="F15" s="3">
-        <v>-24300</v>
+        <v>-29200</v>
       </c>
       <c r="G15" s="3">
-        <v>-47100</v>
+        <v>-20900</v>
       </c>
       <c r="H15" s="3">
-        <v>-28900</v>
+        <v>-31400</v>
       </c>
       <c r="I15" s="3">
-        <v>-31300</v>
+        <v>-29100</v>
       </c>
       <c r="J15" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="K15" s="3">
         <v>-19400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-45700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-24400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-24500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-14700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-32700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-16200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-4800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-4300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-10500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-9700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-8500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-10100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-21900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-16300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-7300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>447900</v>
+        <v>543900</v>
       </c>
       <c r="E17" s="3">
-        <v>493800</v>
+        <v>442500</v>
       </c>
       <c r="F17" s="3">
-        <v>325300</v>
+        <v>423300</v>
       </c>
       <c r="G17" s="3">
-        <v>646900</v>
+        <v>278800</v>
       </c>
       <c r="H17" s="3">
-        <v>386500</v>
+        <v>441100</v>
       </c>
       <c r="I17" s="3">
-        <v>486400</v>
+        <v>385900</v>
       </c>
       <c r="J17" s="3">
+        <v>416900</v>
+      </c>
+      <c r="K17" s="3">
         <v>297600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>651600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>384600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>448100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>394000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>779000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>410000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>265700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>130600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>107600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>128500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>109500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>220900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>124300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>131500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>135000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>166500</v>
+        <v>203900</v>
       </c>
       <c r="E18" s="3">
-        <v>236500</v>
+        <v>175200</v>
       </c>
       <c r="F18" s="3">
-        <v>171000</v>
+        <v>202700</v>
       </c>
       <c r="G18" s="3">
-        <v>239000</v>
+        <v>146500</v>
       </c>
       <c r="H18" s="3">
-        <v>175100</v>
+        <v>133700</v>
       </c>
       <c r="I18" s="3">
-        <v>103700</v>
+        <v>178700</v>
       </c>
       <c r="J18" s="3">
+        <v>88900</v>
+      </c>
+      <c r="K18" s="3">
         <v>81700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>367800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>174200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>167600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>39600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>23100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>31600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>43100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>72000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>63700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>75200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>100800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>88100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>151400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>84400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>81600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>62200</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,156 +1548,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-105000</v>
+        <v>-162200</v>
       </c>
       <c r="E20" s="3">
-        <v>-110900</v>
+        <v>-113400</v>
       </c>
       <c r="F20" s="3">
-        <v>-68500</v>
+        <v>-95100</v>
       </c>
       <c r="G20" s="3">
-        <v>-103900</v>
+        <v>-58700</v>
       </c>
       <c r="H20" s="3">
-        <v>-124700</v>
+        <v>-10600</v>
       </c>
       <c r="I20" s="3">
-        <v>18600</v>
+        <v>-128100</v>
       </c>
       <c r="J20" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K20" s="3">
         <v>32900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-40800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>28700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-65400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>23800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>341500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>212300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>43200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>20300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-8800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-16500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-12200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-6200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>89500</v>
+        <v>75300</v>
       </c>
       <c r="E21" s="3">
-        <v>159300</v>
+        <v>85800</v>
       </c>
       <c r="F21" s="3">
-        <v>130900</v>
+        <v>136600</v>
       </c>
       <c r="G21" s="3">
-        <v>178500</v>
+        <v>88400</v>
       </c>
       <c r="H21" s="3">
-        <v>79300</v>
+        <v>159200</v>
       </c>
       <c r="I21" s="3">
-        <v>154100</v>
+        <v>75500</v>
       </c>
       <c r="J21" s="3">
+        <v>132100</v>
+      </c>
+      <c r="K21" s="3">
         <v>138000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>368900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>224900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>126700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>80400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>395000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>259300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>91100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>96600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>63600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>78200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>92200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>95400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>146400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>78300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>75700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,156 +1777,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>61500</v>
+        <v>41700</v>
       </c>
       <c r="E23" s="3">
-        <v>125600</v>
+        <v>61800</v>
       </c>
       <c r="F23" s="3">
-        <v>102500</v>
+        <v>107600</v>
       </c>
       <c r="G23" s="3">
-        <v>135100</v>
+        <v>87800</v>
       </c>
       <c r="H23" s="3">
-        <v>50400</v>
+        <v>123100</v>
       </c>
       <c r="I23" s="3">
-        <v>122300</v>
+        <v>50600</v>
       </c>
       <c r="J23" s="3">
+        <v>104800</v>
+      </c>
+      <c r="K23" s="3">
         <v>114500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>327000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>202900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>102300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>63400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>364600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>243900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>86300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>92300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>59500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>74000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>92000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>89100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>134900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>72100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>75400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23600</v>
+        <v>9700</v>
       </c>
       <c r="E24" s="3">
-        <v>44000</v>
+        <v>23800</v>
       </c>
       <c r="F24" s="3">
-        <v>34000</v>
+        <v>37700</v>
       </c>
       <c r="G24" s="3">
-        <v>45500</v>
+        <v>29100</v>
       </c>
       <c r="H24" s="3">
-        <v>26100</v>
+        <v>32200</v>
       </c>
       <c r="I24" s="3">
-        <v>63800</v>
+        <v>26300</v>
       </c>
       <c r="J24" s="3">
+        <v>54700</v>
+      </c>
+      <c r="K24" s="3">
         <v>59200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>125400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>75300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>56800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>35600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>122700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>105200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>26300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>29000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>17100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>22800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>22700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>36200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>40500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>25800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>25600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>37800</v>
+        <v>31900</v>
       </c>
       <c r="E26" s="3">
-        <v>81600</v>
+        <v>38000</v>
       </c>
       <c r="F26" s="3">
-        <v>68500</v>
+        <v>69900</v>
       </c>
       <c r="G26" s="3">
-        <v>89600</v>
+        <v>58700</v>
       </c>
       <c r="H26" s="3">
-        <v>24200</v>
+        <v>90900</v>
       </c>
       <c r="I26" s="3">
-        <v>58500</v>
+        <v>24400</v>
       </c>
       <c r="J26" s="3">
+        <v>50100</v>
+      </c>
+      <c r="K26" s="3">
         <v>55400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>201600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>127600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>45400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>27800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>241900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>138700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>60000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>63200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>42400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>51200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>69300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>52900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>94400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>46400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>49900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>37800</v>
+        <v>31900</v>
       </c>
       <c r="E27" s="3">
-        <v>81600</v>
+        <v>38000</v>
       </c>
       <c r="F27" s="3">
-        <v>68500</v>
+        <v>69900</v>
       </c>
       <c r="G27" s="3">
-        <v>89600</v>
+        <v>58700</v>
       </c>
       <c r="H27" s="3">
-        <v>24200</v>
+        <v>90900</v>
       </c>
       <c r="I27" s="3">
-        <v>58100</v>
+        <v>24400</v>
       </c>
       <c r="J27" s="3">
+        <v>49800</v>
+      </c>
+      <c r="K27" s="3">
         <v>54700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>198400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>124200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>43400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>28200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>241900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>138900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>60100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>61700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>40700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>48800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>65400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>48700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>88100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>42200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>46400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2210,8 +2271,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -2225,8 +2286,8 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2235,28 +2296,31 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>900</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-4300</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-4900</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>105000</v>
+        <v>162200</v>
       </c>
       <c r="E32" s="3">
-        <v>110900</v>
+        <v>113400</v>
       </c>
       <c r="F32" s="3">
-        <v>68500</v>
+        <v>95100</v>
       </c>
       <c r="G32" s="3">
-        <v>103900</v>
+        <v>58700</v>
       </c>
       <c r="H32" s="3">
-        <v>124700</v>
+        <v>10600</v>
       </c>
       <c r="I32" s="3">
-        <v>-18600</v>
+        <v>128100</v>
       </c>
       <c r="J32" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-32900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>40800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-28700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>65400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-23800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-341500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-212300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-43200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-20300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>8800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>16500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>12200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>6200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>37800</v>
+        <v>31900</v>
       </c>
       <c r="E33" s="3">
-        <v>81600</v>
+        <v>38000</v>
       </c>
       <c r="F33" s="3">
-        <v>68500</v>
+        <v>69900</v>
       </c>
       <c r="G33" s="3">
-        <v>89600</v>
+        <v>58700</v>
       </c>
       <c r="H33" s="3">
-        <v>24200</v>
+        <v>90900</v>
       </c>
       <c r="I33" s="3">
-        <v>58100</v>
+        <v>24400</v>
       </c>
       <c r="J33" s="3">
+        <v>49800</v>
+      </c>
+      <c r="K33" s="3">
         <v>54700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>198400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>124200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>43400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>28200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>241900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>138900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>60100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>61700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>40700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>49700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>65400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>48700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>83900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>37400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>46400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>37800</v>
+        <v>31900</v>
       </c>
       <c r="E35" s="3">
-        <v>81600</v>
+        <v>38000</v>
       </c>
       <c r="F35" s="3">
-        <v>68500</v>
+        <v>69900</v>
       </c>
       <c r="G35" s="3">
-        <v>89600</v>
+        <v>58700</v>
       </c>
       <c r="H35" s="3">
-        <v>24200</v>
+        <v>90900</v>
       </c>
       <c r="I35" s="3">
-        <v>58100</v>
+        <v>24400</v>
       </c>
       <c r="J35" s="3">
+        <v>49800</v>
+      </c>
+      <c r="K35" s="3">
         <v>54700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>198400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>124200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>43400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>28200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>241900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>138900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>60100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>61700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>40700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>49700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>65400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>48700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>83900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>37400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>46400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,156 +2920,163 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2043600</v>
+        <v>1663900</v>
       </c>
       <c r="E41" s="3">
-        <v>1926300</v>
+        <v>1751700</v>
       </c>
       <c r="F41" s="3">
-        <v>1606100</v>
+        <v>1936800</v>
       </c>
       <c r="G41" s="3">
-        <v>1542200</v>
+        <v>1376600</v>
       </c>
       <c r="H41" s="3">
-        <v>1522800</v>
+        <v>1321900</v>
       </c>
       <c r="I41" s="3">
-        <v>1863000</v>
+        <v>1305300</v>
       </c>
       <c r="J41" s="3">
+        <v>1596900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1021300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1054800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1830200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1795500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1080100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1319800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1599000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1905000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1658600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1327500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>759000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1429900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>894100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>822600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1623000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1625000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>791700</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4315100</v>
+        <v>4781400</v>
       </c>
       <c r="E42" s="3">
-        <v>4898000</v>
+        <v>3698600</v>
       </c>
       <c r="F42" s="3">
-        <v>3961100</v>
+        <v>4924700</v>
       </c>
       <c r="G42" s="3">
-        <v>3357000</v>
+        <v>3395200</v>
       </c>
       <c r="H42" s="3">
-        <v>2316100</v>
+        <v>2877400</v>
       </c>
       <c r="I42" s="3">
-        <v>2908500</v>
+        <v>1985200</v>
       </c>
       <c r="J42" s="3">
+        <v>2493000</v>
+      </c>
+      <c r="K42" s="3">
         <v>1936200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2250800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1268700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1821400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1463000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1953800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1924600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1466600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1014200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>256000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>229600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2013000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>717600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>621300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>910600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>226700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>320200</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,230 +3380,242 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12900</v>
+        <v>16300</v>
       </c>
       <c r="E47" s="3">
-        <v>32400</v>
+        <v>11100</v>
       </c>
       <c r="F47" s="3">
-        <v>25900</v>
+        <v>32500</v>
       </c>
       <c r="G47" s="3">
-        <v>27600</v>
+        <v>22200</v>
       </c>
       <c r="H47" s="3">
-        <v>25500</v>
+        <v>23600</v>
       </c>
       <c r="I47" s="3">
-        <v>42100</v>
+        <v>21800</v>
       </c>
       <c r="J47" s="3">
+        <v>36100</v>
+      </c>
+      <c r="K47" s="3">
         <v>16700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>19200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>22000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>35000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>25600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>25100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>31100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>7100</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>1400</v>
       </c>
       <c r="Z47" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>515000</v>
+        <v>507600</v>
       </c>
       <c r="E48" s="3">
-        <v>525500</v>
+        <v>441400</v>
       </c>
       <c r="F48" s="3">
-        <v>416700</v>
+        <v>528400</v>
       </c>
       <c r="G48" s="3">
-        <v>387700</v>
+        <v>357200</v>
       </c>
       <c r="H48" s="3">
-        <v>356900</v>
+        <v>332300</v>
       </c>
       <c r="I48" s="3">
-        <v>480500</v>
+        <v>305900</v>
       </c>
       <c r="J48" s="3">
+        <v>411900</v>
+      </c>
+      <c r="K48" s="3">
         <v>288200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>316400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>349500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>461300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>142800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>147700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>173300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>147700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>154000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>146900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>163700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>333600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>101200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>98000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>336500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>100000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>178900</v>
+        <v>176600</v>
       </c>
       <c r="E49" s="3">
-        <v>179400</v>
+        <v>153300</v>
       </c>
       <c r="F49" s="3">
-        <v>141200</v>
+        <v>312900</v>
       </c>
       <c r="G49" s="3">
-        <v>129500</v>
+        <v>121000</v>
       </c>
       <c r="H49" s="3">
-        <v>118200</v>
+        <v>111000</v>
       </c>
       <c r="I49" s="3">
-        <v>159000</v>
+        <v>101300</v>
       </c>
       <c r="J49" s="3">
+        <v>259900</v>
+      </c>
+      <c r="K49" s="3">
         <v>95200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>104700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>97900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>121700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>56200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>51600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>52500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>50800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>16300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>15900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>17800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>102800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>71400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>65400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>91900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>67600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>34800</v>
+        <v>32000</v>
       </c>
       <c r="E52" s="3">
-        <v>36200</v>
+        <v>29800</v>
       </c>
       <c r="F52" s="3">
-        <v>27600</v>
+        <v>36400</v>
       </c>
       <c r="G52" s="3">
-        <v>24700</v>
+        <v>23700</v>
       </c>
       <c r="H52" s="3">
-        <v>53200</v>
+        <v>21200</v>
       </c>
       <c r="I52" s="3">
-        <v>113200</v>
+        <v>45600</v>
       </c>
       <c r="J52" s="3">
+        <v>97000</v>
+      </c>
+      <c r="K52" s="3">
         <v>39600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>28200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>30400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>39700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>46400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>33300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>17300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>15100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>13200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>13800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>149300</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>46800</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13319200</v>
+        <v>13847200</v>
       </c>
       <c r="E54" s="3">
-        <v>14210100</v>
+        <v>11416400</v>
       </c>
       <c r="F54" s="3">
-        <v>10745800</v>
+        <v>14287500</v>
       </c>
       <c r="G54" s="3">
-        <v>9778500</v>
+        <v>9210700</v>
       </c>
       <c r="H54" s="3">
-        <v>8539000</v>
+        <v>8381600</v>
       </c>
       <c r="I54" s="3">
-        <v>11625300</v>
+        <v>7319100</v>
       </c>
       <c r="J54" s="3">
+        <v>9964600</v>
+      </c>
+      <c r="K54" s="3">
         <v>6906000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7617200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7752500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9615400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6766800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6853700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7681900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7670400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7580600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6216900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5415600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7508500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6294800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5807800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6325800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6342100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5183700</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3979,29 +4110,32 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>100600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>91900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>82000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>84500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>69700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>76400</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,82 +4208,88 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>45100</v>
+        <v>16600</v>
       </c>
       <c r="E59" s="3">
-        <v>87900</v>
+        <v>38700</v>
       </c>
       <c r="F59" s="3">
-        <v>58900</v>
+        <v>87400</v>
       </c>
       <c r="G59" s="3">
-        <v>20100</v>
+        <v>50500</v>
       </c>
       <c r="H59" s="3">
-        <v>78800</v>
+        <v>17300</v>
       </c>
       <c r="I59" s="3">
-        <v>174000</v>
+        <v>67600</v>
       </c>
       <c r="J59" s="3">
+        <v>149200</v>
+      </c>
+      <c r="K59" s="3">
         <v>76400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>65400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>131800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>144400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>77800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>57600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>76200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>79700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>70300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>43100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>67400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>233500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>156700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>138800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>200700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>152000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>133300</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4222,156 +4362,165 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1653600</v>
+        <v>1673100</v>
       </c>
       <c r="E61" s="3">
-        <v>658700</v>
+        <v>1417400</v>
       </c>
       <c r="F61" s="3">
-        <v>1278000</v>
+        <v>662300</v>
       </c>
       <c r="G61" s="3">
-        <v>1106900</v>
+        <v>1095400</v>
       </c>
       <c r="H61" s="3">
-        <v>1026600</v>
+        <v>948700</v>
       </c>
       <c r="I61" s="3">
-        <v>1449100</v>
+        <v>879900</v>
       </c>
       <c r="J61" s="3">
+        <v>1242100</v>
+      </c>
+      <c r="K61" s="3">
         <v>749900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>792000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1137000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>944200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>706100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>721600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>755100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>396400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>538900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>434400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>270600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>291300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>599700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>576000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>287000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>599300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>536100</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>130300</v>
+        <v>133200</v>
       </c>
       <c r="E62" s="3">
-        <v>129900</v>
+        <v>111600</v>
       </c>
       <c r="F62" s="3">
-        <v>112400</v>
+        <v>130600</v>
       </c>
       <c r="G62" s="3">
-        <v>103000</v>
+        <v>96400</v>
       </c>
       <c r="H62" s="3">
-        <v>69200</v>
+        <v>88300</v>
       </c>
       <c r="I62" s="3">
-        <v>99500</v>
+        <v>59300</v>
       </c>
       <c r="J62" s="3">
+        <v>85300</v>
+      </c>
+      <c r="K62" s="3">
         <v>109200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>117000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>83400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>119900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>25900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>24500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>25500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>24900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>23300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>18800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>18300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>31000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>14100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>12400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>33800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>10100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10724100</v>
+        <v>11344700</v>
       </c>
       <c r="E66" s="3">
-        <v>11653500</v>
+        <v>9192100</v>
       </c>
       <c r="F66" s="3">
-        <v>8806300</v>
+        <v>11716900</v>
       </c>
       <c r="G66" s="3">
-        <v>8066100</v>
+        <v>7548300</v>
       </c>
       <c r="H66" s="3">
-        <v>7043600</v>
+        <v>6913800</v>
       </c>
       <c r="I66" s="3">
-        <v>9648900</v>
+        <v>6037300</v>
       </c>
       <c r="J66" s="3">
+        <v>8270500</v>
+      </c>
+      <c r="K66" s="3">
         <v>5778000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6414400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6495200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8049800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5899400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6075800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6895700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6925700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6842200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5538600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4677100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6562900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5487400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5267600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5719600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5809300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4697200</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2458700</v>
+        <v>2385200</v>
       </c>
       <c r="E72" s="3">
-        <v>3510400</v>
+        <v>2107400</v>
       </c>
       <c r="F72" s="3">
-        <v>1803300</v>
+        <v>3388200</v>
       </c>
       <c r="G72" s="3">
-        <v>1575800</v>
+        <v>1545700</v>
       </c>
       <c r="H72" s="3">
-        <v>1359000</v>
+        <v>1350700</v>
       </c>
       <c r="I72" s="3">
-        <v>2703900</v>
+        <v>1164800</v>
       </c>
       <c r="J72" s="3">
+        <v>2317700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1044500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1099600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1154600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1437500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>747900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>649100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>636700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>577500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>554000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>492800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>529300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>662100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>549800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>499000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>560000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>485800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>439400</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2595100</v>
+        <v>2502500</v>
       </c>
       <c r="E76" s="3">
-        <v>2556600</v>
+        <v>2224400</v>
       </c>
       <c r="F76" s="3">
-        <v>1939400</v>
+        <v>2570600</v>
       </c>
       <c r="G76" s="3">
-        <v>1712400</v>
+        <v>1662400</v>
       </c>
       <c r="H76" s="3">
-        <v>1495400</v>
+        <v>1467700</v>
       </c>
       <c r="I76" s="3">
-        <v>1976400</v>
+        <v>1281800</v>
       </c>
       <c r="J76" s="3">
+        <v>1694100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1128000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1202900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1257300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1565700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>867400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>777900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>786200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>744700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>738400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>678400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>738500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>945600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>807400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>540200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>606200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>532800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>486400</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>37800</v>
+        <v>31900</v>
       </c>
       <c r="E81" s="3">
-        <v>81600</v>
+        <v>38000</v>
       </c>
       <c r="F81" s="3">
-        <v>68500</v>
+        <v>69900</v>
       </c>
       <c r="G81" s="3">
-        <v>89600</v>
+        <v>58700</v>
       </c>
       <c r="H81" s="3">
-        <v>24200</v>
+        <v>90900</v>
       </c>
       <c r="I81" s="3">
-        <v>58100</v>
+        <v>24400</v>
       </c>
       <c r="J81" s="3">
+        <v>49800</v>
+      </c>
+      <c r="K81" s="3">
         <v>54700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>198400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>124200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>43400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>28200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>241900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>138900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>60100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>61700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>40700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>49700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>65400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>48700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>83900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>37400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>46400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>28000</v>
+        <v>33600</v>
       </c>
       <c r="E83" s="3">
-        <v>33800</v>
+        <v>24000</v>
       </c>
       <c r="F83" s="3">
-        <v>28400</v>
+        <v>28900</v>
       </c>
       <c r="G83" s="3">
-        <v>43400</v>
+        <v>600</v>
       </c>
       <c r="H83" s="3">
-        <v>29000</v>
+        <v>36100</v>
       </c>
       <c r="I83" s="3">
-        <v>31800</v>
+        <v>24800</v>
       </c>
       <c r="J83" s="3">
+        <v>27200</v>
+      </c>
+      <c r="K83" s="3">
         <v>23500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>41900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>22000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>24500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>17000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>30400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>15400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>4300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>6300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>11500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>6100</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1520300</v>
+        <v>290100</v>
       </c>
       <c r="E89" s="3">
-        <v>-556300</v>
+        <v>-1303100</v>
       </c>
       <c r="F89" s="3">
-        <v>499300</v>
+        <v>-476800</v>
       </c>
       <c r="G89" s="3">
-        <v>248300</v>
+        <v>301900</v>
       </c>
       <c r="H89" s="3">
-        <v>40100</v>
+        <v>304400</v>
       </c>
       <c r="I89" s="3">
-        <v>-10900</v>
+        <v>34400</v>
       </c>
       <c r="J89" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-163800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1135600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>475800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>453300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1290000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>339100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>211500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1181300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>260000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>201800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-351600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>353200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>46900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-420300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>15000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>629600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8400</v>
+        <v>-26500</v>
       </c>
       <c r="E91" s="3">
-        <v>-51700</v>
+        <v>-7200</v>
       </c>
       <c r="F91" s="3">
-        <v>-8800</v>
+        <v>-44400</v>
       </c>
       <c r="G91" s="3">
-        <v>-16200</v>
+        <v>-7600</v>
       </c>
       <c r="H91" s="3">
-        <v>-9400</v>
+        <v>-5800</v>
       </c>
       <c r="I91" s="3">
-        <v>-17000</v>
+        <v>-8000</v>
       </c>
       <c r="J91" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-10600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-28400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-32000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-34900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-24100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-10000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-24200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-17800</v>
       </c>
-      <c r="E94" s="3">
-        <v>-16700</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-19600</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-29300</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>18600</v>
+      </c>
+      <c r="R94" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="S94" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="T94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="U94" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="V94" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="W94" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="X94" s="3">
         <v>-14200</v>
       </c>
-      <c r="I94" s="3">
-        <v>-20800</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-8900</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-23100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-17200</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="P94" s="3">
-        <v>18600</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-38100</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-21300</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-14200</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-8700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-10500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6494,29 +6728,29 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-1300</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>-1100</v>
       </c>
       <c r="G96" s="3">
-        <v>-11600</v>
+        <v>-900</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-13900</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -6524,43 +6758,46 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-21200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>1100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>2100</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-7600</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>31000</v>
+        <v>-52600</v>
       </c>
       <c r="E100" s="3">
-        <v>42100</v>
+        <v>26600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1000</v>
+        <v>36100</v>
       </c>
       <c r="G100" s="3">
-        <v>20300</v>
+        <v>-12000</v>
       </c>
       <c r="H100" s="3">
-        <v>6100</v>
+        <v>23200</v>
       </c>
       <c r="I100" s="3">
-        <v>16600</v>
+        <v>5200</v>
       </c>
       <c r="J100" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-35900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-276900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-59200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>55700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-120100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-34000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-70300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-44300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-65200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>239100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>22700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>44600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>206700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-5600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>37200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>27800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>122400</v>
+        <v>198700</v>
       </c>
       <c r="E101" s="3">
-        <v>83800</v>
+        <v>104900</v>
       </c>
       <c r="F101" s="3">
-        <v>62400</v>
+        <v>71900</v>
       </c>
       <c r="G101" s="3">
-        <v>177000</v>
+        <v>-43600</v>
       </c>
       <c r="H101" s="3">
-        <v>170200</v>
+        <v>102800</v>
       </c>
       <c r="I101" s="3">
-        <v>37200</v>
+        <v>145900</v>
       </c>
       <c r="J101" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K101" s="3">
         <v>132700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>223300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>104700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-86900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>784700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>181600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>213700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-85600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>358800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>214100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>45300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>61100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>21100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>35900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-27600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>27100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1384600</v>
+        <v>415800</v>
       </c>
       <c r="E102" s="3">
-        <v>-447100</v>
+        <v>-1186800</v>
       </c>
       <c r="F102" s="3">
-        <v>541000</v>
+        <v>-383200</v>
       </c>
       <c r="G102" s="3">
-        <v>416200</v>
+        <v>245600</v>
       </c>
       <c r="H102" s="3">
-        <v>194400</v>
+        <v>408300</v>
       </c>
       <c r="I102" s="3">
-        <v>29300</v>
+        <v>166600</v>
       </c>
       <c r="J102" s="3">
+        <v>25100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-126000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>927300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>480000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>228000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-630000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>479900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>324700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>991800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>554900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>631600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-291800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>437500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>270200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-404200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>11800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>673900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-152300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>GGAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,205 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>747800</v>
+        <v>1447200</v>
       </c>
       <c r="E8" s="3">
-        <v>617700</v>
+        <v>791800</v>
       </c>
       <c r="F8" s="3">
-        <v>626000</v>
+        <v>1332000</v>
       </c>
       <c r="G8" s="3">
-        <v>425300</v>
+        <v>494000</v>
       </c>
       <c r="H8" s="3">
-        <v>574800</v>
+        <v>1086500</v>
       </c>
       <c r="I8" s="3">
+        <v>622500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1111400</v>
+      </c>
+      <c r="K8" s="3">
         <v>564600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>505800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>379200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1019300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>558800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>615700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>433600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>802100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>441600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>308800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>272200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>194300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>182800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>229300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>197700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>372300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>208700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>213100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>197300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,8 +939,14 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1022,14 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1057,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1136,14 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1219,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,85 +1302,97 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-29300</v>
+        <v>-52000</v>
       </c>
       <c r="E15" s="3">
-        <v>-28000</v>
+        <v>-29700</v>
       </c>
       <c r="F15" s="3">
-        <v>-29200</v>
+        <v>-55800</v>
       </c>
       <c r="G15" s="3">
-        <v>-20900</v>
+        <v>-22400</v>
       </c>
       <c r="H15" s="3">
-        <v>-31400</v>
+        <v>-51300</v>
       </c>
       <c r="I15" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="K15" s="3">
         <v>-29100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-26900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-19400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-45700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-24400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-24500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-14700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-32700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>-16200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>-4800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>-4300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>-10500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>-9700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>-8500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>-10100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>-21900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>-16300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>-7300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1417,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>543900</v>
+        <v>1410000</v>
       </c>
       <c r="E17" s="3">
-        <v>442500</v>
+        <v>702800</v>
       </c>
       <c r="F17" s="3">
-        <v>423300</v>
+        <v>962200</v>
       </c>
       <c r="G17" s="3">
-        <v>278800</v>
+        <v>353800</v>
       </c>
       <c r="H17" s="3">
-        <v>441100</v>
+        <v>758100</v>
       </c>
       <c r="I17" s="3">
+        <v>405200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>806700</v>
+      </c>
+      <c r="K17" s="3">
         <v>385900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>416900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>297600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>651600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>384600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>448100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>394000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>779000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>410000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>265700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>200200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>130600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>107600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>128500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>109500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>220900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>124300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>131500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>135000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>203900</v>
+        <v>37200</v>
       </c>
       <c r="E18" s="3">
-        <v>175200</v>
+        <v>89000</v>
       </c>
       <c r="F18" s="3">
-        <v>202700</v>
+        <v>369800</v>
       </c>
       <c r="G18" s="3">
-        <v>146500</v>
+        <v>140100</v>
       </c>
       <c r="H18" s="3">
-        <v>133700</v>
+        <v>328400</v>
       </c>
       <c r="I18" s="3">
+        <v>217300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>304700</v>
+      </c>
+      <c r="K18" s="3">
         <v>178700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>88900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>81700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>367800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>174200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>167600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>39600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>23100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>31600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>43100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>72000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>63700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>75200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>100800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>88100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>151400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>84400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>81600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>62200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,162 +1614,176 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-162200</v>
+        <v>146300</v>
       </c>
       <c r="E20" s="3">
-        <v>-113400</v>
+        <v>-20400</v>
       </c>
       <c r="F20" s="3">
-        <v>-95100</v>
+        <v>-268900</v>
       </c>
       <c r="G20" s="3">
-        <v>-58700</v>
+        <v>-90700</v>
       </c>
       <c r="H20" s="3">
-        <v>-10600</v>
+        <v>-141600</v>
       </c>
       <c r="I20" s="3">
+        <v>-88800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-135200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-128100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>15900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>32900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-40800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>28700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-65400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>23800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>341500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>212300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>43200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>20300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-4200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-8800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>1000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-16500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-12200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-6200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>75300</v>
+        <v>236500</v>
       </c>
       <c r="E21" s="3">
-        <v>85800</v>
+        <v>108600</v>
       </c>
       <c r="F21" s="3">
-        <v>136600</v>
+        <v>147000</v>
       </c>
       <c r="G21" s="3">
-        <v>88400</v>
+        <v>68600</v>
       </c>
       <c r="H21" s="3">
-        <v>159200</v>
+        <v>237700</v>
       </c>
       <c r="I21" s="3">
+        <v>169900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>218200</v>
+      </c>
+      <c r="K21" s="3">
         <v>75500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>132100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>138000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>368900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>224900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>126700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>80400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>395000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>259300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>91100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>96600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>63600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>78200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>92200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>95400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>146400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>78300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>75700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,162 +1859,180 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>41700</v>
+        <v>183500</v>
       </c>
       <c r="E23" s="3">
-        <v>61800</v>
+        <v>68600</v>
       </c>
       <c r="F23" s="3">
-        <v>107600</v>
+        <v>101000</v>
       </c>
       <c r="G23" s="3">
-        <v>87800</v>
+        <v>49400</v>
       </c>
       <c r="H23" s="3">
-        <v>123100</v>
+        <v>186800</v>
       </c>
       <c r="I23" s="3">
+        <v>128500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>169500</v>
+      </c>
+      <c r="K23" s="3">
         <v>50600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>104800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>114500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>327000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>202900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>102300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>63400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>364600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>243900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>86300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>92300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>59500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>74000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>92000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>89100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>134900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>72100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>75400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9700</v>
+        <v>50800</v>
       </c>
       <c r="E24" s="3">
-        <v>23800</v>
+        <v>12700</v>
       </c>
       <c r="F24" s="3">
-        <v>37700</v>
+        <v>32700</v>
       </c>
       <c r="G24" s="3">
-        <v>29100</v>
+        <v>19000</v>
       </c>
       <c r="H24" s="3">
-        <v>32200</v>
+        <v>65100</v>
       </c>
       <c r="I24" s="3">
+        <v>42600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>57100</v>
+      </c>
+      <c r="K24" s="3">
         <v>26300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>54700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>59200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>125400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>75300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>56800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>35600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>122700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>105200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>26300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>29000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>17100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>22800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>22700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>36200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>40500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>25800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>25600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>31900</v>
+        <v>132700</v>
       </c>
       <c r="E26" s="3">
-        <v>38000</v>
+        <v>55900</v>
       </c>
       <c r="F26" s="3">
-        <v>69900</v>
+        <v>68300</v>
       </c>
       <c r="G26" s="3">
-        <v>58700</v>
+        <v>30400</v>
       </c>
       <c r="H26" s="3">
-        <v>90900</v>
+        <v>121700</v>
       </c>
       <c r="I26" s="3">
+        <v>85900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>112400</v>
+      </c>
+      <c r="K26" s="3">
         <v>24400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>50100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>55400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>201600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>127600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>45400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>27800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>241900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>138700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>60000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>63200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>42400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>51200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>69300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>52900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>94400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>46400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>49900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>31900</v>
+        <v>132700</v>
       </c>
       <c r="E27" s="3">
-        <v>38000</v>
+        <v>55900</v>
       </c>
       <c r="F27" s="3">
-        <v>69900</v>
+        <v>68300</v>
       </c>
       <c r="G27" s="3">
-        <v>58700</v>
+        <v>30400</v>
       </c>
       <c r="H27" s="3">
-        <v>90900</v>
+        <v>121700</v>
       </c>
       <c r="I27" s="3">
+        <v>85900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>112400</v>
+      </c>
+      <c r="K27" s="3">
         <v>24400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>49800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>54700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>198400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>124200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>43400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>28200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>241900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>138900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>60100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>61700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>40700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>48800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>65400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>48700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>88100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>42200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>46400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2274,11 +2395,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -2289,38 +2410,44 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>900</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="AA29" s="3">
         <v>-4900</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2606,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>162200</v>
+        <v>-146300</v>
       </c>
       <c r="E32" s="3">
-        <v>113400</v>
+        <v>20400</v>
       </c>
       <c r="F32" s="3">
-        <v>95100</v>
+        <v>268900</v>
       </c>
       <c r="G32" s="3">
-        <v>58700</v>
+        <v>90700</v>
       </c>
       <c r="H32" s="3">
-        <v>10600</v>
+        <v>141600</v>
       </c>
       <c r="I32" s="3">
+        <v>88800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>135200</v>
+      </c>
+      <c r="K32" s="3">
         <v>128100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-15900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-32900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>40800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-28700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>65400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-23800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-341500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-212300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-43200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-20300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>4200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>8800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-1000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>16500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>12200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>6200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>31900</v>
+        <v>132700</v>
       </c>
       <c r="E33" s="3">
-        <v>38000</v>
+        <v>55900</v>
       </c>
       <c r="F33" s="3">
-        <v>69900</v>
+        <v>68300</v>
       </c>
       <c r="G33" s="3">
-        <v>58700</v>
+        <v>30400</v>
       </c>
       <c r="H33" s="3">
-        <v>90900</v>
+        <v>121700</v>
       </c>
       <c r="I33" s="3">
+        <v>85900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>112400</v>
+      </c>
+      <c r="K33" s="3">
         <v>24400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>49800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>54700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>198400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>124200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>43400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>28200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>241900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>138900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>60100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>61700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>40700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>49700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>65400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>48700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>83900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>37400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>46400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>31900</v>
+        <v>132700</v>
       </c>
       <c r="E35" s="3">
-        <v>38000</v>
+        <v>55900</v>
       </c>
       <c r="F35" s="3">
-        <v>69900</v>
+        <v>68300</v>
       </c>
       <c r="G35" s="3">
-        <v>58700</v>
+        <v>30400</v>
       </c>
       <c r="H35" s="3">
-        <v>90900</v>
+        <v>121700</v>
       </c>
       <c r="I35" s="3">
+        <v>85900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>112400</v>
+      </c>
+      <c r="K35" s="3">
         <v>24400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>49800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>54700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>198400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>124200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>43400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>28200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>241900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>138900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>60100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>61700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>40700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>49700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>65400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>48700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>83900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>37400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>46400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,162 +3092,176 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1663900</v>
+        <v>2088300</v>
       </c>
       <c r="E41" s="3">
-        <v>1751700</v>
+        <v>1515900</v>
       </c>
       <c r="F41" s="3">
-        <v>1936800</v>
+        <v>1330600</v>
       </c>
       <c r="G41" s="3">
-        <v>1376600</v>
+        <v>1400800</v>
       </c>
       <c r="H41" s="3">
-        <v>1321900</v>
+        <v>2215900</v>
       </c>
       <c r="I41" s="3">
+        <v>1100900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1057100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1305300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1596900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1021300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1054800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1830200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1795500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1080100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1319800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1599000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1905000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1658600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1327500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>759000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1429900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>894100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>822600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>1623000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>1625000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>791700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4781400</v>
+        <v>7283400</v>
       </c>
       <c r="E42" s="3">
-        <v>3698600</v>
+        <v>5616600</v>
       </c>
       <c r="F42" s="3">
-        <v>4924700</v>
+        <v>3823600</v>
       </c>
       <c r="G42" s="3">
-        <v>3395200</v>
+        <v>2957700</v>
       </c>
       <c r="H42" s="3">
-        <v>2877400</v>
+        <v>5634300</v>
       </c>
       <c r="I42" s="3">
+        <v>2715100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2301000</v>
+      </c>
+      <c r="K42" s="3">
         <v>1985200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>2493000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1936200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2250800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1268700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1821400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1463000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1953800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1924600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1466600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>1014200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>256000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>229600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>2013000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>717600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>621300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>910600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>226700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>320200</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3337,14 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3420,14 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3503,14 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,239 +3586,263 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>16300</v>
+        <v>14500</v>
       </c>
       <c r="E47" s="3">
-        <v>11100</v>
+        <v>13500</v>
       </c>
       <c r="F47" s="3">
-        <v>32500</v>
+        <v>13000</v>
       </c>
       <c r="G47" s="3">
-        <v>22200</v>
+        <v>8900</v>
       </c>
       <c r="H47" s="3">
-        <v>23600</v>
+        <v>37200</v>
       </c>
       <c r="I47" s="3">
+        <v>17700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K47" s="3">
         <v>21800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>36100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>16700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>19200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>22000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>35000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>25600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>25100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>31100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>2200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>1900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>1400</v>
-      </c>
-      <c r="U47" s="3">
-        <v>600</v>
-      </c>
-      <c r="V47" s="3">
-        <v>2400</v>
       </c>
       <c r="W47" s="3">
         <v>600</v>
       </c>
       <c r="X47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z47" s="3">
         <v>1000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>7100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>1400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>507600</v>
+        <v>577900</v>
       </c>
       <c r="E48" s="3">
-        <v>441400</v>
+        <v>498100</v>
       </c>
       <c r="F48" s="3">
-        <v>528400</v>
+        <v>405900</v>
       </c>
       <c r="G48" s="3">
-        <v>357200</v>
+        <v>353000</v>
       </c>
       <c r="H48" s="3">
-        <v>332300</v>
+        <v>604600</v>
       </c>
       <c r="I48" s="3">
+        <v>285600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>265700</v>
+      </c>
+      <c r="K48" s="3">
         <v>305900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>411900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>288200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>316400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>349500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>461300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>142800</v>
-      </c>
-      <c r="P48" s="3">
-        <v>147700</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>173300</v>
       </c>
       <c r="R48" s="3">
         <v>147700</v>
       </c>
       <c r="S48" s="3">
+        <v>173300</v>
+      </c>
+      <c r="T48" s="3">
+        <v>147700</v>
+      </c>
+      <c r="U48" s="3">
         <v>154000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>146900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>163700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>333600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>101200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>98000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>336500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>100000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>176600</v>
+        <v>192200</v>
       </c>
       <c r="E49" s="3">
-        <v>153300</v>
+        <v>169100</v>
       </c>
       <c r="F49" s="3">
-        <v>312900</v>
+        <v>141200</v>
       </c>
       <c r="G49" s="3">
-        <v>121000</v>
+        <v>122600</v>
       </c>
       <c r="H49" s="3">
-        <v>111000</v>
+        <v>312300</v>
       </c>
       <c r="I49" s="3">
+        <v>96800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>88800</v>
+      </c>
+      <c r="K49" s="3">
         <v>101300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>259900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>95200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>104700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>97900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>121700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>56200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>51600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>52500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>50800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>16300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>15900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>17800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>102800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>71400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>65400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>91900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>67600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4001,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>32000</v>
+        <v>36200</v>
       </c>
       <c r="E52" s="3">
-        <v>29800</v>
+        <v>25400</v>
       </c>
       <c r="F52" s="3">
-        <v>36400</v>
+        <v>25600</v>
       </c>
       <c r="G52" s="3">
-        <v>23700</v>
+        <v>23900</v>
       </c>
       <c r="H52" s="3">
-        <v>21200</v>
+        <v>41700</v>
       </c>
       <c r="I52" s="3">
+        <v>18900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K52" s="3">
         <v>45600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>97000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>39600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>28200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>30400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>39700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>46400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>33300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>13600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>17300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>15100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>13200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>13800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>149300</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="3">
         <v>46800</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13847200</v>
+        <v>16891900</v>
       </c>
       <c r="E54" s="3">
-        <v>11416400</v>
+        <v>13331300</v>
       </c>
       <c r="F54" s="3">
-        <v>14287500</v>
+        <v>11073300</v>
       </c>
       <c r="G54" s="3">
-        <v>9210700</v>
+        <v>9129500</v>
       </c>
       <c r="H54" s="3">
-        <v>8381600</v>
+        <v>16323400</v>
       </c>
       <c r="I54" s="3">
+        <v>7365600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>6702600</v>
+      </c>
+      <c r="K54" s="3">
         <v>7319100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>9964600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6906000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7617200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7752500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>9615400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6766800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>6853700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>7681900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>7670400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>7580600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>6216900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>5415600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>7508500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>6294800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>5807800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>6325800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>6342100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>5183700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4316,10 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4113,29 +4374,35 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>5</v>
+      <c r="U57" s="3">
+        <v>0</v>
       </c>
       <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X57" s="3">
         <v>100600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>91900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>82000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>84500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>69700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>76400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,85 +4478,97 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16600</v>
+        <v>43900</v>
       </c>
       <c r="E59" s="3">
-        <v>38700</v>
+        <v>25600</v>
       </c>
       <c r="F59" s="3">
-        <v>87400</v>
+        <v>13200</v>
       </c>
       <c r="G59" s="3">
-        <v>50500</v>
+        <v>30900</v>
       </c>
       <c r="H59" s="3">
-        <v>17300</v>
+        <v>98200</v>
       </c>
       <c r="I59" s="3">
+        <v>40400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K59" s="3">
         <v>67600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>149200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>76400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>65400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>131800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>144400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>77800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>57600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>76200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>79700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>70300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>43100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>67400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>233500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>156700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>138800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>200700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>152000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>133300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,162 +4644,180 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1673100</v>
+        <v>749200</v>
       </c>
       <c r="E61" s="3">
-        <v>1417400</v>
+        <v>1558800</v>
       </c>
       <c r="F61" s="3">
-        <v>662300</v>
+        <v>1337900</v>
       </c>
       <c r="G61" s="3">
-        <v>1095400</v>
+        <v>1133400</v>
       </c>
       <c r="H61" s="3">
-        <v>948700</v>
+        <v>757800</v>
       </c>
       <c r="I61" s="3">
+        <v>876000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>758700</v>
+      </c>
+      <c r="K61" s="3">
         <v>879900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1242100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>749900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>792000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1137000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>944200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>706100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>721600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>755100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>396400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>538900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>434400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>270600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>291300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>599700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>576000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>287000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>599300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>536100</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>133200</v>
+        <v>148000</v>
       </c>
       <c r="E62" s="3">
-        <v>111600</v>
+        <v>127600</v>
       </c>
       <c r="F62" s="3">
-        <v>130600</v>
+        <v>106500</v>
       </c>
       <c r="G62" s="3">
-        <v>96400</v>
+        <v>89300</v>
       </c>
       <c r="H62" s="3">
-        <v>88300</v>
+        <v>126400</v>
       </c>
       <c r="I62" s="3">
+        <v>77100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>70600</v>
+      </c>
+      <c r="K62" s="3">
         <v>59300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>85300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>109200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>117000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>83400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>119900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>25900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>24500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>25500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>24900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>23300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>18800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>18300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>31000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>14100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>12400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>33800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>10100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11344700</v>
+        <v>13851200</v>
       </c>
       <c r="E66" s="3">
-        <v>9192100</v>
+        <v>10835100</v>
       </c>
       <c r="F66" s="3">
-        <v>11716900</v>
+        <v>9072100</v>
       </c>
       <c r="G66" s="3">
-        <v>7548300</v>
+        <v>7350700</v>
       </c>
       <c r="H66" s="3">
-        <v>6913800</v>
+        <v>13382400</v>
       </c>
       <c r="I66" s="3">
+        <v>6036200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>5528800</v>
+      </c>
+      <c r="K66" s="3">
         <v>6037300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8270500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5778000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6414400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6495200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8049800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5899400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6075800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6895700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6925700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6842200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>5538600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>4677100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>6562900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>5487400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>5267600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>5719600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>5809300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>4697200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2385200</v>
+        <v>2945900</v>
       </c>
       <c r="E72" s="3">
-        <v>2107400</v>
+        <v>2403000</v>
       </c>
       <c r="F72" s="3">
-        <v>3388200</v>
+        <v>1907400</v>
       </c>
       <c r="G72" s="3">
-        <v>1545700</v>
+        <v>1685300</v>
       </c>
       <c r="H72" s="3">
-        <v>1350700</v>
+        <v>4830000</v>
       </c>
       <c r="I72" s="3">
+        <v>1236000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1080100</v>
+      </c>
+      <c r="K72" s="3">
         <v>1164800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2317700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1044500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1099600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1154600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1437500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>747900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>649100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>636700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>577500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>554000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>492800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>529300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>662100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>549800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>499000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>560000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>485800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>439400</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2502500</v>
+        <v>3040600</v>
       </c>
       <c r="E76" s="3">
-        <v>2224400</v>
+        <v>2496200</v>
       </c>
       <c r="F76" s="3">
-        <v>2570600</v>
+        <v>2001200</v>
       </c>
       <c r="G76" s="3">
-        <v>1662400</v>
+        <v>1778800</v>
       </c>
       <c r="H76" s="3">
-        <v>1467700</v>
+        <v>2941000</v>
       </c>
       <c r="I76" s="3">
+        <v>1329400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1173700</v>
+      </c>
+      <c r="K76" s="3">
         <v>1281800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1694100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1128000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1202900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1257300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1565700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>867400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>777900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>786200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>744700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>738400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>678400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>738500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>945600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>807400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>540200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>606200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>532800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>486400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>31900</v>
+        <v>132700</v>
       </c>
       <c r="E81" s="3">
-        <v>38000</v>
+        <v>55900</v>
       </c>
       <c r="F81" s="3">
-        <v>69900</v>
+        <v>68300</v>
       </c>
       <c r="G81" s="3">
-        <v>58700</v>
+        <v>30400</v>
       </c>
       <c r="H81" s="3">
-        <v>90900</v>
+        <v>121700</v>
       </c>
       <c r="I81" s="3">
+        <v>85900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>112400</v>
+      </c>
+      <c r="K81" s="3">
         <v>24400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>49800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>54700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>198400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>124200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>43400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>28200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>241900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>138900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>60100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>61700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>40700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>49700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>65400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>48700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>83900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>37400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>46400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6209,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>33600</v>
+        <v>53000</v>
       </c>
       <c r="E83" s="3">
-        <v>24000</v>
+        <v>40000</v>
       </c>
       <c r="F83" s="3">
-        <v>28900</v>
+        <v>46000</v>
       </c>
       <c r="G83" s="3">
-        <v>600</v>
+        <v>19200</v>
       </c>
       <c r="H83" s="3">
-        <v>36100</v>
+        <v>50900</v>
       </c>
       <c r="I83" s="3">
+        <v>41300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>48700</v>
+      </c>
+      <c r="K83" s="3">
         <v>24800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>27200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>23500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>41900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>22000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>24500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>17000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>30400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>15400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>4800</v>
-      </c>
-      <c r="S83" s="3">
-        <v>4300</v>
-      </c>
-      <c r="T83" s="3">
-        <v>4100</v>
       </c>
       <c r="U83" s="3">
         <v>4300</v>
       </c>
       <c r="V83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="W83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="X83" s="3">
         <v>200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>6300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>11500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>6100</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6703,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>290100</v>
+        <v>551400</v>
       </c>
       <c r="E89" s="3">
-        <v>-1303100</v>
+        <v>-278400</v>
       </c>
       <c r="F89" s="3">
-        <v>-476800</v>
+        <v>-810100</v>
       </c>
       <c r="G89" s="3">
-        <v>301900</v>
+        <v>-1042100</v>
       </c>
       <c r="H89" s="3">
-        <v>304400</v>
+        <v>-682500</v>
       </c>
       <c r="I89" s="3">
+        <v>666900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>271000</v>
+      </c>
+      <c r="K89" s="3">
         <v>34400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-9400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-163800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1135600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>475800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>453300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1290000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>339100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>211500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1181300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>260000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>201800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-351600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>353200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>46900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-420300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>15000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>629600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6821,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-26500</v>
+        <v>-34500</v>
       </c>
       <c r="E91" s="3">
-        <v>-7200</v>
+        <v>-31100</v>
       </c>
       <c r="F91" s="3">
-        <v>-44400</v>
+        <v>-26900</v>
       </c>
       <c r="G91" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="V91" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="W91" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="X91" s="3">
         <v>-7600</v>
       </c>
-      <c r="H91" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-14600</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-28400</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-18200</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-19900</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-32000</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-34900</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-24100</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-3700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-24200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7066,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-20400</v>
+        <v>-32800</v>
       </c>
       <c r="E94" s="3">
-        <v>-15200</v>
+        <v>-31900</v>
       </c>
       <c r="F94" s="3">
-        <v>-14300</v>
+        <v>-28500</v>
       </c>
       <c r="G94" s="3">
-        <v>-16800</v>
+        <v>-12200</v>
       </c>
       <c r="H94" s="3">
-        <v>-12900</v>
+        <v>-11500</v>
       </c>
       <c r="I94" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-12200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-17800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-8900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-23100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-17200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-8500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-4500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>18600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-38100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-19100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-3000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-8300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-21300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-4500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-14200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-8700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-10500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +7184,93 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-18500</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-42700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1100</v>
+        <v>-64400</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-900</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="J96" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-11900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-1000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-21200</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>1100</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>2100</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>300</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7512,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-52600</v>
+        <v>69700</v>
       </c>
       <c r="E100" s="3">
-        <v>26600</v>
+        <v>66100</v>
       </c>
       <c r="F100" s="3">
-        <v>36100</v>
+        <v>-20800</v>
       </c>
       <c r="G100" s="3">
-        <v>-12000</v>
+        <v>21300</v>
       </c>
       <c r="H100" s="3">
-        <v>23200</v>
+        <v>57800</v>
       </c>
       <c r="I100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>22800</v>
+      </c>
+      <c r="K100" s="3">
         <v>5200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>14200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-35900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-276900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-59200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>55700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-120100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-70300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-44300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-65200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>239100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>22700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>44600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>206700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>37200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>27800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>198700</v>
+        <v>384100</v>
       </c>
       <c r="E101" s="3">
-        <v>104900</v>
+        <v>270300</v>
       </c>
       <c r="F101" s="3">
-        <v>71900</v>
+        <v>242800</v>
       </c>
       <c r="G101" s="3">
-        <v>-43600</v>
+        <v>83900</v>
       </c>
       <c r="H101" s="3">
-        <v>102800</v>
+        <v>131200</v>
       </c>
       <c r="I101" s="3">
+        <v>101400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>198900</v>
+      </c>
+      <c r="K101" s="3">
         <v>145900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>31900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>132700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>223300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>104700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-86900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>784700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>181600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>213700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-85600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>358800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>214100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>45300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>61100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>21100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>35900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-27600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>27100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>415800</v>
+        <v>972300</v>
       </c>
       <c r="E102" s="3">
-        <v>-1186800</v>
+        <v>26200</v>
       </c>
       <c r="F102" s="3">
-        <v>-383200</v>
+        <v>-616600</v>
       </c>
       <c r="G102" s="3">
-        <v>245600</v>
+        <v>-949100</v>
       </c>
       <c r="H102" s="3">
-        <v>408300</v>
+        <v>-519700</v>
       </c>
       <c r="I102" s="3">
+        <v>741200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>459700</v>
+      </c>
+      <c r="K102" s="3">
         <v>166600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>25100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-126000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>927300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>480000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>228000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-630000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>479900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>324700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>991800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>554900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>631600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-291800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>437500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>270200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-404200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>11800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>673900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-152300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
@@ -666,7 +666,7 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -785,25 +785,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1447200</v>
+        <v>1250000</v>
       </c>
       <c r="E8" s="3">
-        <v>791800</v>
+        <v>683900</v>
       </c>
       <c r="F8" s="3">
-        <v>1332000</v>
+        <v>1150500</v>
       </c>
       <c r="G8" s="3">
-        <v>494000</v>
+        <v>426700</v>
       </c>
       <c r="H8" s="3">
-        <v>1086500</v>
+        <v>938500</v>
       </c>
       <c r="I8" s="3">
-        <v>622500</v>
+        <v>537700</v>
       </c>
       <c r="J8" s="3">
-        <v>1111400</v>
+        <v>960000</v>
       </c>
       <c r="K8" s="3">
         <v>564600</v>
@@ -1314,25 +1314,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-52000</v>
+        <v>-44900</v>
       </c>
       <c r="E15" s="3">
-        <v>-29700</v>
+        <v>-25700</v>
       </c>
       <c r="F15" s="3">
-        <v>-55800</v>
+        <v>-48200</v>
       </c>
       <c r="G15" s="3">
-        <v>-22400</v>
+        <v>-19300</v>
       </c>
       <c r="H15" s="3">
-        <v>-51300</v>
+        <v>-44300</v>
       </c>
       <c r="I15" s="3">
-        <v>-30500</v>
+        <v>-26400</v>
       </c>
       <c r="J15" s="3">
-        <v>-59000</v>
+        <v>-51000</v>
       </c>
       <c r="K15" s="3">
         <v>-29100</v>
@@ -1425,25 +1425,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1410000</v>
+        <v>1217800</v>
       </c>
       <c r="E17" s="3">
-        <v>702800</v>
+        <v>607000</v>
       </c>
       <c r="F17" s="3">
-        <v>962200</v>
+        <v>831100</v>
       </c>
       <c r="G17" s="3">
-        <v>353800</v>
+        <v>305600</v>
       </c>
       <c r="H17" s="3">
-        <v>758100</v>
+        <v>654800</v>
       </c>
       <c r="I17" s="3">
-        <v>405200</v>
+        <v>350000</v>
       </c>
       <c r="J17" s="3">
-        <v>806700</v>
+        <v>696800</v>
       </c>
       <c r="K17" s="3">
         <v>385900</v>
@@ -1508,25 +1508,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>37200</v>
+        <v>32200</v>
       </c>
       <c r="E18" s="3">
-        <v>89000</v>
+        <v>76800</v>
       </c>
       <c r="F18" s="3">
-        <v>369800</v>
+        <v>319400</v>
       </c>
       <c r="G18" s="3">
-        <v>140100</v>
+        <v>121000</v>
       </c>
       <c r="H18" s="3">
-        <v>328400</v>
+        <v>283700</v>
       </c>
       <c r="I18" s="3">
-        <v>217300</v>
+        <v>187700</v>
       </c>
       <c r="J18" s="3">
-        <v>304700</v>
+        <v>263200</v>
       </c>
       <c r="K18" s="3">
         <v>178700</v>
@@ -1622,25 +1622,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>146300</v>
+        <v>126300</v>
       </c>
       <c r="E20" s="3">
-        <v>-20400</v>
+        <v>-17600</v>
       </c>
       <c r="F20" s="3">
-        <v>-268900</v>
+        <v>-232200</v>
       </c>
       <c r="G20" s="3">
-        <v>-90700</v>
+        <v>-78300</v>
       </c>
       <c r="H20" s="3">
-        <v>-141600</v>
+        <v>-122300</v>
       </c>
       <c r="I20" s="3">
-        <v>-88800</v>
+        <v>-76700</v>
       </c>
       <c r="J20" s="3">
-        <v>-135200</v>
+        <v>-116800</v>
       </c>
       <c r="K20" s="3">
         <v>-128100</v>
@@ -1705,25 +1705,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>236500</v>
+        <v>204300</v>
       </c>
       <c r="E21" s="3">
-        <v>108600</v>
+        <v>93800</v>
       </c>
       <c r="F21" s="3">
-        <v>147000</v>
+        <v>127000</v>
       </c>
       <c r="G21" s="3">
-        <v>68600</v>
+        <v>59300</v>
       </c>
       <c r="H21" s="3">
-        <v>237700</v>
+        <v>205300</v>
       </c>
       <c r="I21" s="3">
-        <v>169900</v>
+        <v>146700</v>
       </c>
       <c r="J21" s="3">
-        <v>218200</v>
+        <v>188500</v>
       </c>
       <c r="K21" s="3">
         <v>75500</v>
@@ -1871,25 +1871,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>183500</v>
+        <v>158500</v>
       </c>
       <c r="E23" s="3">
-        <v>68600</v>
+        <v>59200</v>
       </c>
       <c r="F23" s="3">
-        <v>101000</v>
+        <v>87200</v>
       </c>
       <c r="G23" s="3">
-        <v>49400</v>
+        <v>42700</v>
       </c>
       <c r="H23" s="3">
-        <v>186800</v>
+        <v>161400</v>
       </c>
       <c r="I23" s="3">
-        <v>128500</v>
+        <v>111000</v>
       </c>
       <c r="J23" s="3">
-        <v>169500</v>
+        <v>146400</v>
       </c>
       <c r="K23" s="3">
         <v>50600</v>
@@ -1954,25 +1954,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>50800</v>
+        <v>43900</v>
       </c>
       <c r="E24" s="3">
-        <v>12700</v>
+        <v>11000</v>
       </c>
       <c r="F24" s="3">
-        <v>32700</v>
+        <v>28200</v>
       </c>
       <c r="G24" s="3">
-        <v>19000</v>
+        <v>16400</v>
       </c>
       <c r="H24" s="3">
-        <v>65100</v>
+        <v>56200</v>
       </c>
       <c r="I24" s="3">
-        <v>42600</v>
+        <v>36800</v>
       </c>
       <c r="J24" s="3">
-        <v>57100</v>
+        <v>49300</v>
       </c>
       <c r="K24" s="3">
         <v>26300</v>
@@ -2120,25 +2120,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>132700</v>
+        <v>114600</v>
       </c>
       <c r="E26" s="3">
-        <v>55900</v>
+        <v>48300</v>
       </c>
       <c r="F26" s="3">
-        <v>68300</v>
+        <v>59000</v>
       </c>
       <c r="G26" s="3">
-        <v>30400</v>
+        <v>26300</v>
       </c>
       <c r="H26" s="3">
-        <v>121700</v>
+        <v>105100</v>
       </c>
       <c r="I26" s="3">
-        <v>85900</v>
+        <v>74200</v>
       </c>
       <c r="J26" s="3">
-        <v>112400</v>
+        <v>97100</v>
       </c>
       <c r="K26" s="3">
         <v>24400</v>
@@ -2203,25 +2203,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>132700</v>
+        <v>114600</v>
       </c>
       <c r="E27" s="3">
-        <v>55900</v>
+        <v>48300</v>
       </c>
       <c r="F27" s="3">
-        <v>68300</v>
+        <v>59000</v>
       </c>
       <c r="G27" s="3">
-        <v>30400</v>
+        <v>26300</v>
       </c>
       <c r="H27" s="3">
-        <v>121700</v>
+        <v>105100</v>
       </c>
       <c r="I27" s="3">
-        <v>85900</v>
+        <v>74200</v>
       </c>
       <c r="J27" s="3">
-        <v>112400</v>
+        <v>97100</v>
       </c>
       <c r="K27" s="3">
         <v>24400</v>
@@ -2618,25 +2618,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-146300</v>
+        <v>-126300</v>
       </c>
       <c r="E32" s="3">
-        <v>20400</v>
+        <v>17600</v>
       </c>
       <c r="F32" s="3">
-        <v>268900</v>
+        <v>232200</v>
       </c>
       <c r="G32" s="3">
-        <v>90700</v>
+        <v>78300</v>
       </c>
       <c r="H32" s="3">
-        <v>141600</v>
+        <v>122300</v>
       </c>
       <c r="I32" s="3">
-        <v>88800</v>
+        <v>76700</v>
       </c>
       <c r="J32" s="3">
-        <v>135200</v>
+        <v>116800</v>
       </c>
       <c r="K32" s="3">
         <v>128100</v>
@@ -2701,25 +2701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>132700</v>
+        <v>114600</v>
       </c>
       <c r="E33" s="3">
-        <v>55900</v>
+        <v>48300</v>
       </c>
       <c r="F33" s="3">
-        <v>68300</v>
+        <v>59000</v>
       </c>
       <c r="G33" s="3">
-        <v>30400</v>
+        <v>26300</v>
       </c>
       <c r="H33" s="3">
-        <v>121700</v>
+        <v>105100</v>
       </c>
       <c r="I33" s="3">
-        <v>85900</v>
+        <v>74200</v>
       </c>
       <c r="J33" s="3">
-        <v>112400</v>
+        <v>97100</v>
       </c>
       <c r="K33" s="3">
         <v>24400</v>
@@ -2867,25 +2867,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>132700</v>
+        <v>114600</v>
       </c>
       <c r="E35" s="3">
-        <v>55900</v>
+        <v>48300</v>
       </c>
       <c r="F35" s="3">
-        <v>68300</v>
+        <v>59000</v>
       </c>
       <c r="G35" s="3">
-        <v>30400</v>
+        <v>26300</v>
       </c>
       <c r="H35" s="3">
-        <v>121700</v>
+        <v>105100</v>
       </c>
       <c r="I35" s="3">
-        <v>85900</v>
+        <v>74200</v>
       </c>
       <c r="J35" s="3">
-        <v>112400</v>
+        <v>97100</v>
       </c>
       <c r="K35" s="3">
         <v>24400</v>
@@ -3100,25 +3100,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2088300</v>
+        <v>1803700</v>
       </c>
       <c r="E41" s="3">
-        <v>1515900</v>
+        <v>1309300</v>
       </c>
       <c r="F41" s="3">
-        <v>1330600</v>
+        <v>1149300</v>
       </c>
       <c r="G41" s="3">
-        <v>1400800</v>
+        <v>1209900</v>
       </c>
       <c r="H41" s="3">
-        <v>2215900</v>
+        <v>1914000</v>
       </c>
       <c r="I41" s="3">
-        <v>1100900</v>
+        <v>950800</v>
       </c>
       <c r="J41" s="3">
-        <v>1057100</v>
+        <v>913000</v>
       </c>
       <c r="K41" s="3">
         <v>1305300</v>
@@ -3183,25 +3183,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7283400</v>
+        <v>6290900</v>
       </c>
       <c r="E42" s="3">
-        <v>5616600</v>
+        <v>4851200</v>
       </c>
       <c r="F42" s="3">
-        <v>3823600</v>
+        <v>3302500</v>
       </c>
       <c r="G42" s="3">
-        <v>2957700</v>
+        <v>2554700</v>
       </c>
       <c r="H42" s="3">
-        <v>5634300</v>
+        <v>4866500</v>
       </c>
       <c r="I42" s="3">
-        <v>2715100</v>
+        <v>2345100</v>
       </c>
       <c r="J42" s="3">
-        <v>2301000</v>
+        <v>1987500</v>
       </c>
       <c r="K42" s="3">
         <v>1985200</v>
@@ -3598,25 +3598,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="E47" s="3">
-        <v>13500</v>
+        <v>11700</v>
       </c>
       <c r="F47" s="3">
-        <v>13000</v>
+        <v>11300</v>
       </c>
       <c r="G47" s="3">
-        <v>8900</v>
+        <v>7600</v>
       </c>
       <c r="H47" s="3">
-        <v>37200</v>
+        <v>32200</v>
       </c>
       <c r="I47" s="3">
-        <v>17700</v>
+        <v>15300</v>
       </c>
       <c r="J47" s="3">
-        <v>18900</v>
+        <v>16300</v>
       </c>
       <c r="K47" s="3">
         <v>21800</v>
@@ -3681,25 +3681,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>577900</v>
+        <v>499200</v>
       </c>
       <c r="E48" s="3">
-        <v>498100</v>
+        <v>430200</v>
       </c>
       <c r="F48" s="3">
-        <v>405900</v>
+        <v>350600</v>
       </c>
       <c r="G48" s="3">
-        <v>353000</v>
+        <v>304900</v>
       </c>
       <c r="H48" s="3">
-        <v>604600</v>
+        <v>522200</v>
       </c>
       <c r="I48" s="3">
-        <v>285600</v>
+        <v>246700</v>
       </c>
       <c r="J48" s="3">
-        <v>265700</v>
+        <v>229500</v>
       </c>
       <c r="K48" s="3">
         <v>305900</v>
@@ -3764,25 +3764,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>192200</v>
+        <v>166000</v>
       </c>
       <c r="E49" s="3">
-        <v>169100</v>
+        <v>146000</v>
       </c>
       <c r="F49" s="3">
-        <v>141200</v>
+        <v>122000</v>
       </c>
       <c r="G49" s="3">
-        <v>122600</v>
+        <v>105900</v>
       </c>
       <c r="H49" s="3">
-        <v>312300</v>
+        <v>269800</v>
       </c>
       <c r="I49" s="3">
-        <v>96800</v>
+        <v>83600</v>
       </c>
       <c r="J49" s="3">
-        <v>88800</v>
+        <v>76700</v>
       </c>
       <c r="K49" s="3">
         <v>101300</v>
@@ -4013,25 +4013,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>36200</v>
+        <v>31300</v>
       </c>
       <c r="E52" s="3">
-        <v>25400</v>
+        <v>22000</v>
       </c>
       <c r="F52" s="3">
-        <v>25600</v>
+        <v>22100</v>
       </c>
       <c r="G52" s="3">
-        <v>23900</v>
+        <v>20600</v>
       </c>
       <c r="H52" s="3">
-        <v>41700</v>
+        <v>36000</v>
       </c>
       <c r="I52" s="3">
-        <v>18900</v>
+        <v>16400</v>
       </c>
       <c r="J52" s="3">
-        <v>17000</v>
+        <v>14600</v>
       </c>
       <c r="K52" s="3">
         <v>45600</v>
@@ -4179,25 +4179,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16891900</v>
+        <v>14590000</v>
       </c>
       <c r="E54" s="3">
-        <v>13331300</v>
+        <v>11514600</v>
       </c>
       <c r="F54" s="3">
-        <v>11073300</v>
+        <v>9564300</v>
       </c>
       <c r="G54" s="3">
-        <v>9129500</v>
+        <v>7885400</v>
       </c>
       <c r="H54" s="3">
-        <v>16323400</v>
+        <v>14099000</v>
       </c>
       <c r="I54" s="3">
-        <v>7365600</v>
+        <v>6361900</v>
       </c>
       <c r="J54" s="3">
-        <v>6702600</v>
+        <v>5789200</v>
       </c>
       <c r="K54" s="3">
         <v>7319100</v>
@@ -4490,25 +4490,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>43900</v>
+        <v>37900</v>
       </c>
       <c r="E59" s="3">
-        <v>25600</v>
+        <v>22100</v>
       </c>
       <c r="F59" s="3">
-        <v>13200</v>
+        <v>11400</v>
       </c>
       <c r="G59" s="3">
-        <v>30900</v>
+        <v>26700</v>
       </c>
       <c r="H59" s="3">
-        <v>98200</v>
+        <v>84800</v>
       </c>
       <c r="I59" s="3">
-        <v>40400</v>
+        <v>34900</v>
       </c>
       <c r="J59" s="3">
-        <v>13800</v>
+        <v>11900</v>
       </c>
       <c r="K59" s="3">
         <v>67600</v>
@@ -4656,25 +4656,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>749200</v>
+        <v>647100</v>
       </c>
       <c r="E61" s="3">
-        <v>1558800</v>
+        <v>1346400</v>
       </c>
       <c r="F61" s="3">
-        <v>1337900</v>
+        <v>1155600</v>
       </c>
       <c r="G61" s="3">
-        <v>1133400</v>
+        <v>979000</v>
       </c>
       <c r="H61" s="3">
-        <v>757800</v>
+        <v>654500</v>
       </c>
       <c r="I61" s="3">
-        <v>876000</v>
+        <v>756600</v>
       </c>
       <c r="J61" s="3">
-        <v>758700</v>
+        <v>655300</v>
       </c>
       <c r="K61" s="3">
         <v>879900</v>
@@ -4739,25 +4739,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>148000</v>
+        <v>127800</v>
       </c>
       <c r="E62" s="3">
-        <v>127600</v>
+        <v>110200</v>
       </c>
       <c r="F62" s="3">
-        <v>106500</v>
+        <v>92000</v>
       </c>
       <c r="G62" s="3">
-        <v>89300</v>
+        <v>77100</v>
       </c>
       <c r="H62" s="3">
-        <v>126400</v>
+        <v>109200</v>
       </c>
       <c r="I62" s="3">
-        <v>77100</v>
+        <v>66600</v>
       </c>
       <c r="J62" s="3">
-        <v>70600</v>
+        <v>61000</v>
       </c>
       <c r="K62" s="3">
         <v>59300</v>
@@ -5071,25 +5071,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13851200</v>
+        <v>11963700</v>
       </c>
       <c r="E66" s="3">
-        <v>10835100</v>
+        <v>9358600</v>
       </c>
       <c r="F66" s="3">
-        <v>9072100</v>
+        <v>7835900</v>
       </c>
       <c r="G66" s="3">
-        <v>7350700</v>
+        <v>6349000</v>
       </c>
       <c r="H66" s="3">
-        <v>13382400</v>
+        <v>11558700</v>
       </c>
       <c r="I66" s="3">
-        <v>6036200</v>
+        <v>5213600</v>
       </c>
       <c r="J66" s="3">
-        <v>5528800</v>
+        <v>4775400</v>
       </c>
       <c r="K66" s="3">
         <v>6037300</v>
@@ -5517,25 +5517,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2945900</v>
+        <v>2544500</v>
       </c>
       <c r="E72" s="3">
-        <v>2403000</v>
+        <v>2075500</v>
       </c>
       <c r="F72" s="3">
-        <v>1907400</v>
+        <v>1647500</v>
       </c>
       <c r="G72" s="3">
-        <v>1685300</v>
+        <v>1455600</v>
       </c>
       <c r="H72" s="3">
-        <v>4830000</v>
+        <v>4171800</v>
       </c>
       <c r="I72" s="3">
-        <v>1236000</v>
+        <v>1067600</v>
       </c>
       <c r="J72" s="3">
-        <v>1080100</v>
+        <v>932900</v>
       </c>
       <c r="K72" s="3">
         <v>1164800</v>
@@ -5849,25 +5849,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3040600</v>
+        <v>2626300</v>
       </c>
       <c r="E76" s="3">
-        <v>2496200</v>
+        <v>2156000</v>
       </c>
       <c r="F76" s="3">
-        <v>2001200</v>
+        <v>1728500</v>
       </c>
       <c r="G76" s="3">
-        <v>1778800</v>
+        <v>1536400</v>
       </c>
       <c r="H76" s="3">
-        <v>2941000</v>
+        <v>2540200</v>
       </c>
       <c r="I76" s="3">
-        <v>1329400</v>
+        <v>1148200</v>
       </c>
       <c r="J76" s="3">
-        <v>1173700</v>
+        <v>1013800</v>
       </c>
       <c r="K76" s="3">
         <v>1281800</v>
@@ -6103,25 +6103,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>132700</v>
+        <v>114600</v>
       </c>
       <c r="E81" s="3">
-        <v>55900</v>
+        <v>48300</v>
       </c>
       <c r="F81" s="3">
-        <v>68300</v>
+        <v>59000</v>
       </c>
       <c r="G81" s="3">
-        <v>30400</v>
+        <v>26300</v>
       </c>
       <c r="H81" s="3">
-        <v>121700</v>
+        <v>105100</v>
       </c>
       <c r="I81" s="3">
-        <v>85900</v>
+        <v>74200</v>
       </c>
       <c r="J81" s="3">
-        <v>112400</v>
+        <v>97100</v>
       </c>
       <c r="K81" s="3">
         <v>24400</v>
@@ -6217,25 +6217,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>53000</v>
+        <v>45800</v>
       </c>
       <c r="E83" s="3">
-        <v>40000</v>
+        <v>34600</v>
       </c>
       <c r="F83" s="3">
-        <v>46000</v>
+        <v>39800</v>
       </c>
       <c r="G83" s="3">
-        <v>19200</v>
+        <v>16600</v>
       </c>
       <c r="H83" s="3">
-        <v>50900</v>
+        <v>43900</v>
       </c>
       <c r="I83" s="3">
-        <v>41300</v>
+        <v>35700</v>
       </c>
       <c r="J83" s="3">
-        <v>48700</v>
+        <v>42100</v>
       </c>
       <c r="K83" s="3">
         <v>24800</v>
@@ -6715,25 +6715,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>551400</v>
+        <v>476200</v>
       </c>
       <c r="E89" s="3">
-        <v>-278400</v>
+        <v>-240400</v>
       </c>
       <c r="F89" s="3">
-        <v>-810100</v>
+        <v>-699700</v>
       </c>
       <c r="G89" s="3">
-        <v>-1042100</v>
+        <v>-900100</v>
       </c>
       <c r="H89" s="3">
-        <v>-682500</v>
+        <v>-589500</v>
       </c>
       <c r="I89" s="3">
-        <v>666900</v>
+        <v>576000</v>
       </c>
       <c r="J89" s="3">
-        <v>271000</v>
+        <v>234000</v>
       </c>
       <c r="K89" s="3">
         <v>34400</v>
@@ -6829,25 +6829,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-34500</v>
+        <v>-6910500</v>
       </c>
       <c r="E91" s="3">
-        <v>-31100</v>
+        <v>-6225400</v>
       </c>
       <c r="F91" s="3">
-        <v>-26900</v>
+        <v>-2714800</v>
       </c>
       <c r="G91" s="3">
-        <v>-5700</v>
+        <v>-2679600</v>
       </c>
       <c r="H91" s="3">
-        <v>-35500</v>
+        <v>-7738000</v>
       </c>
       <c r="I91" s="3">
-        <v>-6100</v>
+        <v>-5977500</v>
       </c>
       <c r="J91" s="3">
-        <v>-11100</v>
+        <v>-3586400</v>
       </c>
       <c r="K91" s="3">
         <v>-8000</v>
@@ -7078,25 +7078,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-32800</v>
+        <v>-28400</v>
       </c>
       <c r="E94" s="3">
-        <v>-31900</v>
+        <v>-27500</v>
       </c>
       <c r="F94" s="3">
-        <v>-28500</v>
+        <v>-24600</v>
       </c>
       <c r="G94" s="3">
-        <v>-12200</v>
+        <v>-10500</v>
       </c>
       <c r="H94" s="3">
-        <v>-11500</v>
+        <v>-9900</v>
       </c>
       <c r="I94" s="3">
-        <v>-13500</v>
+        <v>-11600</v>
       </c>
       <c r="J94" s="3">
-        <v>-20100</v>
+        <v>-17300</v>
       </c>
       <c r="K94" s="3">
         <v>-12200</v>
@@ -7192,25 +7192,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-18500</v>
+        <v>-16000</v>
       </c>
       <c r="E96" s="3">
-        <v>-42700</v>
+        <v>-36900</v>
       </c>
       <c r="F96" s="3">
-        <v>-64400</v>
+        <v>-55600</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="I96" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J96" s="3">
-        <v>-8000</v>
+        <v>-6900</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -7524,25 +7524,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>69700</v>
+        <v>60200</v>
       </c>
       <c r="E100" s="3">
-        <v>66100</v>
+        <v>57100</v>
       </c>
       <c r="F100" s="3">
-        <v>-20800</v>
+        <v>-17900</v>
       </c>
       <c r="G100" s="3">
-        <v>21300</v>
+        <v>18400</v>
       </c>
       <c r="H100" s="3">
-        <v>57800</v>
+        <v>49900</v>
       </c>
       <c r="I100" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J100" s="3">
-        <v>22800</v>
+        <v>19700</v>
       </c>
       <c r="K100" s="3">
         <v>5200</v>
@@ -7607,25 +7607,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>384100</v>
+        <v>331800</v>
       </c>
       <c r="E101" s="3">
-        <v>270300</v>
+        <v>233400</v>
       </c>
       <c r="F101" s="3">
-        <v>242800</v>
+        <v>209700</v>
       </c>
       <c r="G101" s="3">
-        <v>83900</v>
+        <v>72500</v>
       </c>
       <c r="H101" s="3">
-        <v>131200</v>
+        <v>113300</v>
       </c>
       <c r="I101" s="3">
-        <v>101400</v>
+        <v>87600</v>
       </c>
       <c r="J101" s="3">
-        <v>198900</v>
+        <v>171800</v>
       </c>
       <c r="K101" s="3">
         <v>145900</v>
@@ -7690,25 +7690,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>972300</v>
+        <v>839800</v>
       </c>
       <c r="E102" s="3">
-        <v>26200</v>
+        <v>22600</v>
       </c>
       <c r="F102" s="3">
-        <v>-616600</v>
+        <v>-532500</v>
       </c>
       <c r="G102" s="3">
-        <v>-949100</v>
+        <v>-819700</v>
       </c>
       <c r="H102" s="3">
-        <v>-519700</v>
+        <v>-448900</v>
       </c>
       <c r="I102" s="3">
-        <v>741200</v>
+        <v>640200</v>
       </c>
       <c r="J102" s="3">
-        <v>459700</v>
+        <v>397100</v>
       </c>
       <c r="K102" s="3">
         <v>166600</v>

--- a/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>GGAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,219 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1250000</v>
+        <v>1606300</v>
       </c>
       <c r="E8" s="3">
-        <v>683900</v>
+        <v>1256000</v>
       </c>
       <c r="F8" s="3">
-        <v>1150500</v>
+        <v>829500</v>
       </c>
       <c r="G8" s="3">
-        <v>426700</v>
+        <v>453800</v>
       </c>
       <c r="H8" s="3">
-        <v>938500</v>
+        <v>763400</v>
       </c>
       <c r="I8" s="3">
+        <v>283100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>623600</v>
+      </c>
+      <c r="K8" s="3">
         <v>537700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>960000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>564600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>505800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>379200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1019300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>558800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>615700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>433600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>802100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>441600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>308800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>272200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>194300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>182800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>229300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>197700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>372300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>208700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>213100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>197300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -945,8 +959,14 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1048,14 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1308,91 +1348,103 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-44900</v>
+        <v>-28300</v>
       </c>
       <c r="E15" s="3">
-        <v>-25700</v>
+        <v>-27200</v>
       </c>
       <c r="F15" s="3">
-        <v>-48200</v>
+        <v>-29800</v>
       </c>
       <c r="G15" s="3">
-        <v>-19300</v>
+        <v>-17000</v>
       </c>
       <c r="H15" s="3">
-        <v>-44300</v>
+        <v>-32000</v>
       </c>
       <c r="I15" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="K15" s="3">
         <v>-26400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-51000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-29100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-26900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-19400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-45700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-24400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-24500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>-14700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>-32700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>-16200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>-4800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>-4300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>-10500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>-9700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>-10100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>-21900</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>-16300</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>-7300</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AE15" s="3">
         <v>-7000</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1217800</v>
+        <v>1100000</v>
       </c>
       <c r="E17" s="3">
-        <v>607000</v>
+        <v>906600</v>
       </c>
       <c r="F17" s="3">
-        <v>831100</v>
+        <v>808100</v>
       </c>
       <c r="G17" s="3">
-        <v>305600</v>
+        <v>402800</v>
       </c>
       <c r="H17" s="3">
-        <v>654800</v>
+        <v>551500</v>
       </c>
       <c r="I17" s="3">
+        <v>202800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>435400</v>
+      </c>
+      <c r="K17" s="3">
         <v>350000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>696800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>385900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>416900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>297600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>651600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>384600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>448100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>394000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>779000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>410000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>265700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>200200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>130600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>107600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>128500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>109500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>220900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>124300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>131500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>135000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>32200</v>
+        <v>506300</v>
       </c>
       <c r="E18" s="3">
-        <v>76800</v>
+        <v>349300</v>
       </c>
       <c r="F18" s="3">
-        <v>319400</v>
+        <v>21300</v>
       </c>
       <c r="G18" s="3">
-        <v>121000</v>
+        <v>51000</v>
       </c>
       <c r="H18" s="3">
-        <v>283700</v>
+        <v>212000</v>
       </c>
       <c r="I18" s="3">
+        <v>80300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>188200</v>
+      </c>
+      <c r="K18" s="3">
         <v>187700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>263200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>178700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>88900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>81700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>367800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>174200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>167600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>39600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>23100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>31600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>43100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>72000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>63700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>75200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>100800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>88100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>151400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>84400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>81600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>62200</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,174 +1682,188 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>126300</v>
+        <v>-268600</v>
       </c>
       <c r="E20" s="3">
-        <v>-17600</v>
+        <v>-249000</v>
       </c>
       <c r="F20" s="3">
-        <v>-232200</v>
+        <v>83800</v>
       </c>
       <c r="G20" s="3">
-        <v>-78300</v>
+        <v>-11700</v>
       </c>
       <c r="H20" s="3">
-        <v>-122300</v>
+        <v>-154100</v>
       </c>
       <c r="I20" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-81200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-76700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-116800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-128100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>15900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>32900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-40800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>28700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-65400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>23800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>341500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>212300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>43200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>20300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-4200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-1200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>1000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-16500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-12200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-6200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>204300</v>
+        <v>271400</v>
       </c>
       <c r="E21" s="3">
-        <v>93800</v>
+        <v>122400</v>
       </c>
       <c r="F21" s="3">
-        <v>127000</v>
+        <v>135600</v>
       </c>
       <c r="G21" s="3">
-        <v>59300</v>
+        <v>62200</v>
       </c>
       <c r="H21" s="3">
-        <v>205300</v>
+        <v>84200</v>
       </c>
       <c r="I21" s="3">
+        <v>39300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>136200</v>
+      </c>
+      <c r="K21" s="3">
         <v>146700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>188500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>75500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>132100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>138000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>368900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>224900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>126700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>80400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>395000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>259300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>91100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>96600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>63600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>78200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>92200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>95400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>146400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>78300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>75700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>65100</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1865,174 +1945,192 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>158500</v>
+        <v>237700</v>
       </c>
       <c r="E23" s="3">
-        <v>59200</v>
+        <v>100300</v>
       </c>
       <c r="F23" s="3">
-        <v>87200</v>
+        <v>105200</v>
       </c>
       <c r="G23" s="3">
-        <v>42700</v>
+        <v>39300</v>
       </c>
       <c r="H23" s="3">
-        <v>161400</v>
+        <v>57900</v>
       </c>
       <c r="I23" s="3">
+        <v>28300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>107100</v>
+      </c>
+      <c r="K23" s="3">
         <v>111000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>146400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>50600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>104800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>114500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>327000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>202900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>102300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>63400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>364600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>243900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>86300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>92300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>59500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>74000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>92000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>89100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>134900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>72100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>75400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>43900</v>
+        <v>71900</v>
       </c>
       <c r="E24" s="3">
-        <v>11000</v>
+        <v>36100</v>
       </c>
       <c r="F24" s="3">
-        <v>28200</v>
+        <v>29100</v>
       </c>
       <c r="G24" s="3">
-        <v>16400</v>
+        <v>7300</v>
       </c>
       <c r="H24" s="3">
-        <v>56200</v>
+        <v>18700</v>
       </c>
       <c r="I24" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>37300</v>
+      </c>
+      <c r="K24" s="3">
         <v>36800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>49300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>26300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>54700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>59200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>125400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>75300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>56800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>35600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>122700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>105200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>26300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>29000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>17100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>22800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>22700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>36200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>40500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>25800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>25600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>22400</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>114600</v>
+        <v>165800</v>
       </c>
       <c r="E26" s="3">
-        <v>48300</v>
+        <v>64200</v>
       </c>
       <c r="F26" s="3">
-        <v>59000</v>
+        <v>76000</v>
       </c>
       <c r="G26" s="3">
-        <v>26300</v>
+        <v>32000</v>
       </c>
       <c r="H26" s="3">
-        <v>105100</v>
+        <v>39100</v>
       </c>
       <c r="I26" s="3">
+        <v>17400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>69800</v>
+      </c>
+      <c r="K26" s="3">
         <v>74200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>97100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>24400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>50100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>55400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>201600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>127600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>45400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>27800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>241900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>138700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>60000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>63200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>42400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>51200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>69300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>52900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>94400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>46400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>49900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>42600</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>114600</v>
+        <v>165800</v>
       </c>
       <c r="E27" s="3">
-        <v>48300</v>
+        <v>64200</v>
       </c>
       <c r="F27" s="3">
-        <v>59000</v>
+        <v>76000</v>
       </c>
       <c r="G27" s="3">
-        <v>26300</v>
+        <v>32000</v>
       </c>
       <c r="H27" s="3">
-        <v>105100</v>
+        <v>39100</v>
       </c>
       <c r="I27" s="3">
+        <v>17400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>69800</v>
+      </c>
+      <c r="K27" s="3">
         <v>74200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>97100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>24400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>49800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>54700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>198400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>124200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>43400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>28200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>241900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>138900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>60100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>61700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>40700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>48800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>65400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>48700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>88100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>42200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>46400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2401,11 +2523,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2416,38 +2538,44 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>900</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
       <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
         <v>-4300</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AC29" s="3">
         <v>-4900</v>
       </c>
-      <c r="AB29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC29" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2746,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-126300</v>
+        <v>268600</v>
       </c>
       <c r="E32" s="3">
-        <v>17600</v>
+        <v>249000</v>
       </c>
       <c r="F32" s="3">
-        <v>232200</v>
+        <v>-83800</v>
       </c>
       <c r="G32" s="3">
-        <v>78300</v>
+        <v>11700</v>
       </c>
       <c r="H32" s="3">
-        <v>122300</v>
+        <v>154100</v>
       </c>
       <c r="I32" s="3">
+        <v>52000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>81200</v>
+      </c>
+      <c r="K32" s="3">
         <v>76700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>116800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>128100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-15900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-32900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>40800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-28700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>65400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-23800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-341500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-212300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-43200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-20300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>4200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>1200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>8800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>16500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>12200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>6200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>114600</v>
+        <v>165800</v>
       </c>
       <c r="E33" s="3">
-        <v>48300</v>
+        <v>64200</v>
       </c>
       <c r="F33" s="3">
-        <v>59000</v>
+        <v>76000</v>
       </c>
       <c r="G33" s="3">
-        <v>26300</v>
+        <v>32000</v>
       </c>
       <c r="H33" s="3">
-        <v>105100</v>
+        <v>39100</v>
       </c>
       <c r="I33" s="3">
+        <v>17400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>69800</v>
+      </c>
+      <c r="K33" s="3">
         <v>74200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>97100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>24400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>49800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>54700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>198400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>124200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>43400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>28200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>241900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>138900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>60100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>61700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>40700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>49700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>65400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>48700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>83900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>37400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>46400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>114600</v>
+        <v>165800</v>
       </c>
       <c r="E35" s="3">
-        <v>48300</v>
+        <v>64200</v>
       </c>
       <c r="F35" s="3">
-        <v>59000</v>
+        <v>76000</v>
       </c>
       <c r="G35" s="3">
-        <v>26300</v>
+        <v>32000</v>
       </c>
       <c r="H35" s="3">
-        <v>105100</v>
+        <v>39100</v>
       </c>
       <c r="I35" s="3">
+        <v>17400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>69800</v>
+      </c>
+      <c r="K35" s="3">
         <v>74200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>97100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>24400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>49800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>54700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>198400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>124200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>43400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>28200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>241900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>138900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>60100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>61700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>40700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>49700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>65400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>48700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>83900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>37400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>46400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,174 +3266,188 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1803700</v>
+        <v>1515300</v>
       </c>
       <c r="E41" s="3">
-        <v>1309300</v>
+        <v>1385000</v>
       </c>
       <c r="F41" s="3">
-        <v>1149300</v>
+        <v>1196900</v>
       </c>
       <c r="G41" s="3">
-        <v>1209900</v>
+        <v>868800</v>
       </c>
       <c r="H41" s="3">
-        <v>1914000</v>
+        <v>762600</v>
       </c>
       <c r="I41" s="3">
+        <v>802900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1270100</v>
+      </c>
+      <c r="K41" s="3">
         <v>950800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>913000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1305300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1596900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1021300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1054800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1830200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1795500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1080100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1319800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1599000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1905000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1658600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1327500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>759000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1429900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>894100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>822600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>1623000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>1625000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>791700</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6290900</v>
+        <v>6064400</v>
       </c>
       <c r="E42" s="3">
-        <v>4851200</v>
+        <v>4299900</v>
       </c>
       <c r="F42" s="3">
-        <v>3302500</v>
+        <v>4174400</v>
       </c>
       <c r="G42" s="3">
-        <v>2554700</v>
+        <v>3219100</v>
       </c>
       <c r="H42" s="3">
-        <v>4866500</v>
+        <v>2191500</v>
       </c>
       <c r="I42" s="3">
+        <v>1695200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3229300</v>
+      </c>
+      <c r="K42" s="3">
         <v>2345100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1987500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1985200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2493000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1936200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>2250800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1268700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1821400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1463000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1953800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>1924600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>1466600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>1014200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>256000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>229600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>2013000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>717600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>621300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>910600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>226700</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>320200</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3343,8 +3529,14 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,8 +3618,14 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3509,8 +3707,14 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3592,257 +3796,281 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12500</v>
+        <v>16100</v>
       </c>
       <c r="E47" s="3">
-        <v>11700</v>
+        <v>11000</v>
       </c>
       <c r="F47" s="3">
-        <v>11300</v>
+        <v>8300</v>
       </c>
       <c r="G47" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="H47" s="3">
-        <v>32200</v>
+        <v>7500</v>
       </c>
       <c r="I47" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>21300</v>
+      </c>
+      <c r="K47" s="3">
         <v>15300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>16300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>21800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>36100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>16700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>19200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>22000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>35000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>25600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>25100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>31100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>2200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>1900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>1400</v>
-      </c>
-      <c r="W47" s="3">
-        <v>600</v>
-      </c>
-      <c r="X47" s="3">
-        <v>2400</v>
       </c>
       <c r="Y47" s="3">
         <v>600</v>
       </c>
       <c r="Z47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB47" s="3">
         <v>1000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>7100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>1400</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>499200</v>
+        <v>500100</v>
       </c>
       <c r="E48" s="3">
-        <v>430200</v>
+        <v>399800</v>
       </c>
       <c r="F48" s="3">
-        <v>350600</v>
+        <v>331200</v>
       </c>
       <c r="G48" s="3">
-        <v>304900</v>
+        <v>285500</v>
       </c>
       <c r="H48" s="3">
-        <v>522200</v>
+        <v>232600</v>
       </c>
       <c r="I48" s="3">
+        <v>202300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>346500</v>
+      </c>
+      <c r="K48" s="3">
         <v>246700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>229500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>305900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>411900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>288200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>316400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>349500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>461300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>142800</v>
-      </c>
-      <c r="R48" s="3">
-        <v>147700</v>
-      </c>
-      <c r="S48" s="3">
-        <v>173300</v>
       </c>
       <c r="T48" s="3">
         <v>147700</v>
       </c>
       <c r="U48" s="3">
+        <v>173300</v>
+      </c>
+      <c r="V48" s="3">
+        <v>147700</v>
+      </c>
+      <c r="W48" s="3">
         <v>154000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>146900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>163700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>333600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>101200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>98000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>336500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>100000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>91100</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>166000</v>
+        <v>167700</v>
       </c>
       <c r="E49" s="3">
-        <v>146000</v>
+        <v>132500</v>
       </c>
       <c r="F49" s="3">
-        <v>122000</v>
+        <v>110100</v>
       </c>
       <c r="G49" s="3">
-        <v>105900</v>
+        <v>96900</v>
       </c>
       <c r="H49" s="3">
-        <v>269800</v>
+        <v>80900</v>
       </c>
       <c r="I49" s="3">
+        <v>70300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>219100</v>
+      </c>
+      <c r="K49" s="3">
         <v>83600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>76700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>101300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>259900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>95200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>104700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>97900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>121700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>56200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>51600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>52500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>50800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>16300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>15900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>17800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>102800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>71400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>65400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>91900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>67600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>62100</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4241,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>31300</v>
+        <v>32000</v>
       </c>
       <c r="E52" s="3">
-        <v>22000</v>
+        <v>27200</v>
       </c>
       <c r="F52" s="3">
-        <v>22100</v>
+        <v>20700</v>
       </c>
       <c r="G52" s="3">
-        <v>20600</v>
+        <v>14600</v>
       </c>
       <c r="H52" s="3">
-        <v>36000</v>
+        <v>14700</v>
       </c>
       <c r="I52" s="3">
+        <v>13700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K52" s="3">
         <v>16400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>14600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>45600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>97000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>39600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>28200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>30400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>39700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>46400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>33300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>13600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>17300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>15100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>13200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>13800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>149300</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA52" s="3">
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC52" s="3">
         <v>46800</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14590000</v>
+        <v>13896500</v>
       </c>
       <c r="E54" s="3">
-        <v>11514600</v>
+        <v>10867200</v>
       </c>
       <c r="F54" s="3">
-        <v>9564300</v>
+        <v>9681500</v>
       </c>
       <c r="G54" s="3">
-        <v>7885400</v>
+        <v>7640800</v>
       </c>
       <c r="H54" s="3">
-        <v>14099000</v>
+        <v>6346600</v>
       </c>
       <c r="I54" s="3">
+        <v>5232500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>9355700</v>
+      </c>
+      <c r="K54" s="3">
         <v>6361900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5789200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7319100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>9964600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6906000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7617200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7752500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>9615400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>6766800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>6853700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>7681900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>7670400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>7580600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>6216900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>5415600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>7508500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>6294800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>5807800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>6325800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>6342100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>5183700</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,8 +4578,10 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4380,29 +4642,35 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>5</v>
+      <c r="W57" s="3">
+        <v>0</v>
       </c>
       <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z57" s="3">
         <v>100600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>91900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>82000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>84500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>69700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>76400</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4484,91 +4752,103 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>37900</v>
+        <v>51000</v>
       </c>
       <c r="E59" s="3">
-        <v>22100</v>
+        <v>48000</v>
       </c>
       <c r="F59" s="3">
-        <v>11400</v>
+        <v>40100</v>
       </c>
       <c r="G59" s="3">
-        <v>26700</v>
+        <v>14700</v>
       </c>
       <c r="H59" s="3">
-        <v>84800</v>
+        <v>7600</v>
       </c>
       <c r="I59" s="3">
+        <v>17700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>58600</v>
+      </c>
+      <c r="K59" s="3">
         <v>34900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>11900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>67600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>149200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>76400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>65400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>131800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>144400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>77800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>57600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>76200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>79700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>70300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>43100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>67400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>233500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>156700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>138800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>200700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>152000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>133300</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4650,174 +4930,192 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>647100</v>
+        <v>1555500</v>
       </c>
       <c r="E61" s="3">
-        <v>1346400</v>
+        <v>1263500</v>
       </c>
       <c r="F61" s="3">
-        <v>1155600</v>
+        <v>1143300</v>
       </c>
       <c r="G61" s="3">
-        <v>979000</v>
+        <v>893400</v>
       </c>
       <c r="H61" s="3">
-        <v>654500</v>
+        <v>766800</v>
       </c>
       <c r="I61" s="3">
+        <v>649600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1196500</v>
+      </c>
+      <c r="K61" s="3">
         <v>756600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>655300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>879900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1242100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>749900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>792000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1137000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>944200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>706100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>721600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>755100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>396400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>538900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>434400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>270600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>291300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>599700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>576000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>287000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>599300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>536100</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>127800</v>
+        <v>145300</v>
       </c>
       <c r="E62" s="3">
-        <v>110200</v>
+        <v>94900</v>
       </c>
       <c r="F62" s="3">
-        <v>92000</v>
+        <v>84800</v>
       </c>
       <c r="G62" s="3">
-        <v>77100</v>
+        <v>73100</v>
       </c>
       <c r="H62" s="3">
+        <v>61100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>51200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>72400</v>
+      </c>
+      <c r="K62" s="3">
+        <v>66600</v>
+      </c>
+      <c r="L62" s="3">
+        <v>61000</v>
+      </c>
+      <c r="M62" s="3">
+        <v>59300</v>
+      </c>
+      <c r="N62" s="3">
+        <v>85300</v>
+      </c>
+      <c r="O62" s="3">
         <v>109200</v>
       </c>
-      <c r="I62" s="3">
-        <v>66600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>61000</v>
-      </c>
-      <c r="K62" s="3">
-        <v>59300</v>
-      </c>
-      <c r="L62" s="3">
-        <v>85300</v>
-      </c>
-      <c r="M62" s="3">
-        <v>109200</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>117000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>83400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>119900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>25900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>24500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>25500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>24900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>23300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>18800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>18300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>31000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>14100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>12400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>33800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>10100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11963700</v>
+        <v>11340700</v>
       </c>
       <c r="E66" s="3">
-        <v>9358600</v>
+        <v>8693800</v>
       </c>
       <c r="F66" s="3">
-        <v>7835900</v>
+        <v>7938800</v>
       </c>
       <c r="G66" s="3">
-        <v>6349000</v>
+        <v>6210100</v>
       </c>
       <c r="H66" s="3">
-        <v>11558700</v>
+        <v>5199700</v>
       </c>
       <c r="I66" s="3">
+        <v>4213000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>7670100</v>
+      </c>
+      <c r="K66" s="3">
         <v>5213600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4775400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6037300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8270500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5778000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6414400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6495200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>8049800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5899400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6075800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6895700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>6925700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>6842200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>5538600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>4677100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>6562900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>5487400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>5267600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>5719600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>5809300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>4697200</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2544500</v>
+        <v>2500400</v>
       </c>
       <c r="E72" s="3">
-        <v>2075500</v>
+        <v>2118900</v>
       </c>
       <c r="F72" s="3">
-        <v>1647500</v>
+        <v>1688500</v>
       </c>
       <c r="G72" s="3">
-        <v>1455600</v>
+        <v>1377300</v>
       </c>
       <c r="H72" s="3">
-        <v>4171800</v>
+        <v>1093200</v>
       </c>
       <c r="I72" s="3">
+        <v>965900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2921000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1067600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>932900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1164800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2317700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1044500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1099600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1154600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1437500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>747900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>649100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>636700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>577500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>554000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>492800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>529300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>662100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>549800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>499000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>560000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>485800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>439400</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2626300</v>
+        <v>2555700</v>
       </c>
       <c r="E76" s="3">
-        <v>2156000</v>
+        <v>2173400</v>
       </c>
       <c r="F76" s="3">
-        <v>1728500</v>
+        <v>1742700</v>
       </c>
       <c r="G76" s="3">
-        <v>1536400</v>
+        <v>1430700</v>
       </c>
       <c r="H76" s="3">
-        <v>2540200</v>
+        <v>1147000</v>
       </c>
       <c r="I76" s="3">
+        <v>1019500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1685600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1148200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1013800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1281800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1694100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1128000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1202900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1257300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1565700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>867400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>777900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>786200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>744700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>738400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>678400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>738500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>945600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>807400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>540200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>606200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>532800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>486400</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>114600</v>
+        <v>165800</v>
       </c>
       <c r="E81" s="3">
-        <v>48300</v>
+        <v>64200</v>
       </c>
       <c r="F81" s="3">
-        <v>59000</v>
+        <v>76000</v>
       </c>
       <c r="G81" s="3">
-        <v>26300</v>
+        <v>32000</v>
       </c>
       <c r="H81" s="3">
-        <v>105100</v>
+        <v>39100</v>
       </c>
       <c r="I81" s="3">
+        <v>17400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>69800</v>
+      </c>
+      <c r="K81" s="3">
         <v>74200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>97100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>24400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>49800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>54700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>198400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>124200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>43400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>28200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>241900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>138900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>60100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>61700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>40700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>49700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>65400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>48700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>83900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>37400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>46400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6607,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>45800</v>
+        <v>33700</v>
       </c>
       <c r="E83" s="3">
-        <v>34600</v>
+        <v>22100</v>
       </c>
       <c r="F83" s="3">
-        <v>39800</v>
+        <v>30400</v>
       </c>
       <c r="G83" s="3">
-        <v>16600</v>
+        <v>22900</v>
       </c>
       <c r="H83" s="3">
-        <v>43900</v>
+        <v>26400</v>
       </c>
       <c r="I83" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>29200</v>
+      </c>
+      <c r="K83" s="3">
         <v>35700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>42100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>24800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>27200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>23500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>41900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>22000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>24500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>17000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>30400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>15400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>4800</v>
-      </c>
-      <c r="U83" s="3">
-        <v>4300</v>
-      </c>
-      <c r="V83" s="3">
-        <v>4100</v>
       </c>
       <c r="W83" s="3">
         <v>4300</v>
       </c>
       <c r="X83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Z83" s="3">
         <v>200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>6300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>11500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>6100</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC83" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>476200</v>
+        <v>-211900</v>
       </c>
       <c r="E89" s="3">
-        <v>-240400</v>
+        <v>-652800</v>
       </c>
       <c r="F89" s="3">
-        <v>-699700</v>
+        <v>316000</v>
       </c>
       <c r="G89" s="3">
-        <v>-900100</v>
+        <v>-159500</v>
       </c>
       <c r="H89" s="3">
-        <v>-589500</v>
+        <v>-464300</v>
       </c>
       <c r="I89" s="3">
+        <v>-597300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-391200</v>
+      </c>
+      <c r="K89" s="3">
         <v>576000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>234000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>34400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-9400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-163800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1135600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>475800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>453300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1290000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>339100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>211500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1181300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>260000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>201800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-351600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>353200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>46900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-420300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>15000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>629600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-160600</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7263,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8951500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5655900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-6910500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-6225400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2714800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2679600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-7738000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-5977500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-3586400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-8000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-14600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-10600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-28400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-18200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-5900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-32000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-10600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-34900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-24100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-6100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-8700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-10000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-24200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-5600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7526,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-28400</v>
+        <v>-25600</v>
       </c>
       <c r="E94" s="3">
-        <v>-27500</v>
+        <v>-17400</v>
       </c>
       <c r="F94" s="3">
-        <v>-24600</v>
+        <v>-18800</v>
       </c>
       <c r="G94" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="R94" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="S94" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="T94" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="U94" s="3">
+        <v>18600</v>
+      </c>
+      <c r="V94" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="W94" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="X94" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-10500</v>
       </c>
-      <c r="H94" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-17300</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-8900</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-23100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-17200</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="S94" s="3">
-        <v>18600</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-38100</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-19100</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="X94" s="3">
-        <v>-21300</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>-14200</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="AB94" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,91 +7652,99 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-16000</v>
+        <v>-135700</v>
       </c>
       <c r="E96" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="H96" s="3">
         <v>-36900</v>
       </c>
-      <c r="F96" s="3">
-        <v>-55600</v>
-      </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-800</v>
-      </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-6900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-11900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-1000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-21200</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>1100</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>2100</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-7600</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>300</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AE96" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +8004,277 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>60200</v>
+        <v>-171100</v>
       </c>
       <c r="E100" s="3">
-        <v>57100</v>
+        <v>-37000</v>
       </c>
       <c r="F100" s="3">
-        <v>-17900</v>
+        <v>39900</v>
       </c>
       <c r="G100" s="3">
-        <v>18400</v>
+        <v>37900</v>
       </c>
       <c r="H100" s="3">
-        <v>49900</v>
+        <v>-11900</v>
       </c>
       <c r="I100" s="3">
+        <v>12200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>19700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>5200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>14200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-35900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-276900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-59200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>55700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-120100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-34000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-70300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-44300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-65200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>239100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>22700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>44600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>206700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>37200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>27800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>331800</v>
+        <v>358600</v>
       </c>
       <c r="E101" s="3">
-        <v>233400</v>
+        <v>222600</v>
       </c>
       <c r="F101" s="3">
-        <v>209700</v>
+        <v>220100</v>
       </c>
       <c r="G101" s="3">
-        <v>72500</v>
+        <v>154900</v>
       </c>
       <c r="H101" s="3">
-        <v>113300</v>
+        <v>139200</v>
       </c>
       <c r="I101" s="3">
+        <v>48100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>75200</v>
+      </c>
+      <c r="K101" s="3">
         <v>87600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>171800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>145900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>31900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>132700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>223300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>104700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-86900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>784700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>181600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>213700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-85600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>358800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>214100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>45300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>61100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>21100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>35900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-27600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>27100</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>839800</v>
+        <v>-50000</v>
       </c>
       <c r="E102" s="3">
-        <v>22600</v>
+        <v>-484600</v>
       </c>
       <c r="F102" s="3">
-        <v>-532500</v>
+        <v>557300</v>
       </c>
       <c r="G102" s="3">
-        <v>-819700</v>
+        <v>15000</v>
       </c>
       <c r="H102" s="3">
-        <v>-448900</v>
+        <v>-353400</v>
       </c>
       <c r="I102" s="3">
+        <v>-543900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-297900</v>
+      </c>
+      <c r="K102" s="3">
         <v>640200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>397100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>166600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>25100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-126000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>927300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>480000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>228000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-630000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>479900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>324700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>991800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>554900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>631600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-291800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>437500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>270200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-404200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>11800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>673900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-152300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GGAL_QTR_FIN.xlsx
@@ -793,25 +793,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1606300</v>
+        <v>1589400</v>
       </c>
       <c r="E8" s="3">
-        <v>1256000</v>
+        <v>1242800</v>
       </c>
       <c r="F8" s="3">
-        <v>829500</v>
+        <v>820800</v>
       </c>
       <c r="G8" s="3">
-        <v>453800</v>
+        <v>449000</v>
       </c>
       <c r="H8" s="3">
-        <v>763400</v>
+        <v>755400</v>
       </c>
       <c r="I8" s="3">
-        <v>283100</v>
+        <v>280100</v>
       </c>
       <c r="J8" s="3">
-        <v>623600</v>
+        <v>617100</v>
       </c>
       <c r="K8" s="3">
         <v>537700</v>
@@ -1360,25 +1360,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-28300</v>
+        <v>-28000</v>
       </c>
       <c r="E15" s="3">
-        <v>-27200</v>
+        <v>-26900</v>
       </c>
       <c r="F15" s="3">
-        <v>-29800</v>
+        <v>-29500</v>
       </c>
       <c r="G15" s="3">
-        <v>-17000</v>
+        <v>-16800</v>
       </c>
       <c r="H15" s="3">
-        <v>-32000</v>
+        <v>-31700</v>
       </c>
       <c r="I15" s="3">
-        <v>-12800</v>
+        <v>-12700</v>
       </c>
       <c r="J15" s="3">
-        <v>-29400</v>
+        <v>-29100</v>
       </c>
       <c r="K15" s="3">
         <v>-26400</v>
@@ -1479,25 +1479,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1100000</v>
+        <v>1088400</v>
       </c>
       <c r="E17" s="3">
-        <v>906600</v>
+        <v>897100</v>
       </c>
       <c r="F17" s="3">
-        <v>808100</v>
+        <v>799600</v>
       </c>
       <c r="G17" s="3">
-        <v>402800</v>
+        <v>398600</v>
       </c>
       <c r="H17" s="3">
-        <v>551500</v>
+        <v>545700</v>
       </c>
       <c r="I17" s="3">
-        <v>202800</v>
+        <v>200700</v>
       </c>
       <c r="J17" s="3">
-        <v>435400</v>
+        <v>430800</v>
       </c>
       <c r="K17" s="3">
         <v>350000</v>
@@ -1568,25 +1568,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>506300</v>
+        <v>501000</v>
       </c>
       <c r="E18" s="3">
-        <v>349300</v>
+        <v>345700</v>
       </c>
       <c r="F18" s="3">
-        <v>21300</v>
+        <v>21100</v>
       </c>
       <c r="G18" s="3">
-        <v>51000</v>
+        <v>50500</v>
       </c>
       <c r="H18" s="3">
-        <v>212000</v>
+        <v>209700</v>
       </c>
       <c r="I18" s="3">
-        <v>80300</v>
+        <v>79500</v>
       </c>
       <c r="J18" s="3">
-        <v>188200</v>
+        <v>186300</v>
       </c>
       <c r="K18" s="3">
         <v>187700</v>
@@ -1690,25 +1690,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-268600</v>
+        <v>-265800</v>
       </c>
       <c r="E20" s="3">
-        <v>-249000</v>
+        <v>-246400</v>
       </c>
       <c r="F20" s="3">
-        <v>83800</v>
+        <v>83000</v>
       </c>
       <c r="G20" s="3">
-        <v>-11700</v>
+        <v>-11600</v>
       </c>
       <c r="H20" s="3">
-        <v>-154100</v>
+        <v>-152500</v>
       </c>
       <c r="I20" s="3">
-        <v>-52000</v>
+        <v>-51400</v>
       </c>
       <c r="J20" s="3">
-        <v>-81200</v>
+        <v>-80300</v>
       </c>
       <c r="K20" s="3">
         <v>-76700</v>
@@ -1779,25 +1779,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>271400</v>
+        <v>268500</v>
       </c>
       <c r="E21" s="3">
-        <v>122400</v>
+        <v>121100</v>
       </c>
       <c r="F21" s="3">
-        <v>135600</v>
+        <v>134200</v>
       </c>
       <c r="G21" s="3">
-        <v>62200</v>
+        <v>61600</v>
       </c>
       <c r="H21" s="3">
-        <v>84200</v>
+        <v>83400</v>
       </c>
       <c r="I21" s="3">
-        <v>39300</v>
+        <v>38900</v>
       </c>
       <c r="J21" s="3">
-        <v>136200</v>
+        <v>134800</v>
       </c>
       <c r="K21" s="3">
         <v>146700</v>
@@ -1957,25 +1957,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>237700</v>
+        <v>235200</v>
       </c>
       <c r="E23" s="3">
-        <v>100300</v>
+        <v>99300</v>
       </c>
       <c r="F23" s="3">
-        <v>105200</v>
+        <v>104100</v>
       </c>
       <c r="G23" s="3">
-        <v>39300</v>
+        <v>38900</v>
       </c>
       <c r="H23" s="3">
-        <v>57900</v>
+        <v>57300</v>
       </c>
       <c r="I23" s="3">
-        <v>28300</v>
+        <v>28000</v>
       </c>
       <c r="J23" s="3">
-        <v>107100</v>
+        <v>105900</v>
       </c>
       <c r="K23" s="3">
         <v>111000</v>
@@ -2046,25 +2046,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>71900</v>
+        <v>71100</v>
       </c>
       <c r="E24" s="3">
-        <v>36100</v>
+        <v>35800</v>
       </c>
       <c r="F24" s="3">
-        <v>29100</v>
+        <v>28800</v>
       </c>
       <c r="G24" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="H24" s="3">
-        <v>18700</v>
+        <v>18500</v>
       </c>
       <c r="I24" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="J24" s="3">
-        <v>37300</v>
+        <v>36900</v>
       </c>
       <c r="K24" s="3">
         <v>36800</v>
@@ -2224,25 +2224,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>165800</v>
+        <v>164100</v>
       </c>
       <c r="E26" s="3">
-        <v>64200</v>
+        <v>63500</v>
       </c>
       <c r="F26" s="3">
-        <v>76000</v>
+        <v>75200</v>
       </c>
       <c r="G26" s="3">
-        <v>32000</v>
+        <v>31700</v>
       </c>
       <c r="H26" s="3">
-        <v>39100</v>
+        <v>38700</v>
       </c>
       <c r="I26" s="3">
-        <v>17400</v>
+        <v>17200</v>
       </c>
       <c r="J26" s="3">
-        <v>69800</v>
+        <v>69000</v>
       </c>
       <c r="K26" s="3">
         <v>74200</v>
@@ -2313,25 +2313,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>165800</v>
+        <v>164100</v>
       </c>
       <c r="E27" s="3">
-        <v>64200</v>
+        <v>63500</v>
       </c>
       <c r="F27" s="3">
-        <v>76000</v>
+        <v>75200</v>
       </c>
       <c r="G27" s="3">
-        <v>32000</v>
+        <v>31700</v>
       </c>
       <c r="H27" s="3">
-        <v>39100</v>
+        <v>38700</v>
       </c>
       <c r="I27" s="3">
-        <v>17400</v>
+        <v>17200</v>
       </c>
       <c r="J27" s="3">
-        <v>69800</v>
+        <v>69000</v>
       </c>
       <c r="K27" s="3">
         <v>74200</v>
@@ -2758,25 +2758,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>268600</v>
+        <v>265800</v>
       </c>
       <c r="E32" s="3">
-        <v>249000</v>
+        <v>246400</v>
       </c>
       <c r="F32" s="3">
-        <v>-83800</v>
+        <v>-83000</v>
       </c>
       <c r="G32" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="H32" s="3">
-        <v>154100</v>
+        <v>152500</v>
       </c>
       <c r="I32" s="3">
-        <v>52000</v>
+        <v>51400</v>
       </c>
       <c r="J32" s="3">
-        <v>81200</v>
+        <v>80300</v>
       </c>
       <c r="K32" s="3">
         <v>76700</v>
@@ -2847,25 +2847,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>165800</v>
+        <v>164100</v>
       </c>
       <c r="E33" s="3">
-        <v>64200</v>
+        <v>63500</v>
       </c>
       <c r="F33" s="3">
-        <v>76000</v>
+        <v>75200</v>
       </c>
       <c r="G33" s="3">
-        <v>32000</v>
+        <v>31700</v>
       </c>
       <c r="H33" s="3">
-        <v>39100</v>
+        <v>38700</v>
       </c>
       <c r="I33" s="3">
-        <v>17400</v>
+        <v>17200</v>
       </c>
       <c r="J33" s="3">
-        <v>69800</v>
+        <v>69000</v>
       </c>
       <c r="K33" s="3">
         <v>74200</v>
@@ -3025,25 +3025,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>165800</v>
+        <v>164100</v>
       </c>
       <c r="E35" s="3">
-        <v>64200</v>
+        <v>63500</v>
       </c>
       <c r="F35" s="3">
-        <v>76000</v>
+        <v>75200</v>
       </c>
       <c r="G35" s="3">
-        <v>32000</v>
+        <v>31700</v>
       </c>
       <c r="H35" s="3">
-        <v>39100</v>
+        <v>38700</v>
       </c>
       <c r="I35" s="3">
-        <v>17400</v>
+        <v>17200</v>
       </c>
       <c r="J35" s="3">
-        <v>69800</v>
+        <v>69000</v>
       </c>
       <c r="K35" s="3">
         <v>74200</v>
@@ -3274,25 +3274,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1515300</v>
+        <v>1499400</v>
       </c>
       <c r="E41" s="3">
-        <v>1385000</v>
+        <v>1370400</v>
       </c>
       <c r="F41" s="3">
-        <v>1196900</v>
+        <v>1184300</v>
       </c>
       <c r="G41" s="3">
-        <v>868800</v>
+        <v>859700</v>
       </c>
       <c r="H41" s="3">
-        <v>762600</v>
+        <v>754600</v>
       </c>
       <c r="I41" s="3">
-        <v>802900</v>
+        <v>794400</v>
       </c>
       <c r="J41" s="3">
-        <v>1270100</v>
+        <v>1256700</v>
       </c>
       <c r="K41" s="3">
         <v>950800</v>
@@ -3363,25 +3363,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6064400</v>
+        <v>6000800</v>
       </c>
       <c r="E42" s="3">
-        <v>4299900</v>
+        <v>4254800</v>
       </c>
       <c r="F42" s="3">
-        <v>4174400</v>
+        <v>4130700</v>
       </c>
       <c r="G42" s="3">
-        <v>3219100</v>
+        <v>3185300</v>
       </c>
       <c r="H42" s="3">
-        <v>2191500</v>
+        <v>2168500</v>
       </c>
       <c r="I42" s="3">
-        <v>1695200</v>
+        <v>1677400</v>
       </c>
       <c r="J42" s="3">
-        <v>3229300</v>
+        <v>3195400</v>
       </c>
       <c r="K42" s="3">
         <v>2345100</v>
@@ -3808,25 +3808,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>16100</v>
+        <v>15900</v>
       </c>
       <c r="E47" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="F47" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="G47" s="3">
         <v>7700</v>
       </c>
       <c r="H47" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="I47" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="J47" s="3">
-        <v>21300</v>
+        <v>21100</v>
       </c>
       <c r="K47" s="3">
         <v>15300</v>
@@ -3897,25 +3897,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500100</v>
+        <v>494800</v>
       </c>
       <c r="E48" s="3">
-        <v>399800</v>
+        <v>395600</v>
       </c>
       <c r="F48" s="3">
-        <v>331200</v>
+        <v>327800</v>
       </c>
       <c r="G48" s="3">
-        <v>285500</v>
+        <v>282500</v>
       </c>
       <c r="H48" s="3">
-        <v>232600</v>
+        <v>230200</v>
       </c>
       <c r="I48" s="3">
-        <v>202300</v>
+        <v>200200</v>
       </c>
       <c r="J48" s="3">
-        <v>346500</v>
+        <v>342900</v>
       </c>
       <c r="K48" s="3">
         <v>246700</v>
@@ -3986,25 +3986,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>167700</v>
+        <v>165900</v>
       </c>
       <c r="E49" s="3">
-        <v>132500</v>
+        <v>131200</v>
       </c>
       <c r="F49" s="3">
-        <v>110100</v>
+        <v>109000</v>
       </c>
       <c r="G49" s="3">
-        <v>96900</v>
+        <v>95900</v>
       </c>
       <c r="H49" s="3">
-        <v>80900</v>
+        <v>80100</v>
       </c>
       <c r="I49" s="3">
-        <v>70300</v>
+        <v>69500</v>
       </c>
       <c r="J49" s="3">
-        <v>219100</v>
+        <v>216800</v>
       </c>
       <c r="K49" s="3">
         <v>83600</v>
@@ -4253,25 +4253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>32000</v>
+        <v>31600</v>
       </c>
       <c r="E52" s="3">
-        <v>27200</v>
+        <v>26900</v>
       </c>
       <c r="F52" s="3">
-        <v>20700</v>
+        <v>20500</v>
       </c>
       <c r="G52" s="3">
-        <v>14600</v>
+        <v>14400</v>
       </c>
       <c r="H52" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="I52" s="3">
-        <v>13700</v>
+        <v>13500</v>
       </c>
       <c r="J52" s="3">
-        <v>23900</v>
+        <v>23600</v>
       </c>
       <c r="K52" s="3">
         <v>16400</v>
@@ -4431,25 +4431,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13896500</v>
+        <v>13750700</v>
       </c>
       <c r="E54" s="3">
-        <v>10867200</v>
+        <v>10753200</v>
       </c>
       <c r="F54" s="3">
-        <v>9681500</v>
+        <v>9580000</v>
       </c>
       <c r="G54" s="3">
-        <v>7640800</v>
+        <v>7560600</v>
       </c>
       <c r="H54" s="3">
-        <v>6346600</v>
+        <v>6280100</v>
       </c>
       <c r="I54" s="3">
-        <v>5232500</v>
+        <v>5177600</v>
       </c>
       <c r="J54" s="3">
-        <v>9355700</v>
+        <v>9257600</v>
       </c>
       <c r="K54" s="3">
         <v>6361900</v>
@@ -4764,25 +4764,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>51000</v>
+        <v>50500</v>
       </c>
       <c r="E59" s="3">
-        <v>48000</v>
+        <v>47500</v>
       </c>
       <c r="F59" s="3">
-        <v>40100</v>
+        <v>39700</v>
       </c>
       <c r="G59" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="H59" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="I59" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="J59" s="3">
-        <v>58600</v>
+        <v>58000</v>
       </c>
       <c r="K59" s="3">
         <v>34900</v>
@@ -4942,25 +4942,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1555500</v>
+        <v>1539200</v>
       </c>
       <c r="E61" s="3">
-        <v>1263500</v>
+        <v>1250300</v>
       </c>
       <c r="F61" s="3">
-        <v>1143300</v>
+        <v>1131300</v>
       </c>
       <c r="G61" s="3">
-        <v>893400</v>
+        <v>884100</v>
       </c>
       <c r="H61" s="3">
-        <v>766800</v>
+        <v>758800</v>
       </c>
       <c r="I61" s="3">
-        <v>649600</v>
+        <v>642800</v>
       </c>
       <c r="J61" s="3">
-        <v>1196500</v>
+        <v>1184000</v>
       </c>
       <c r="K61" s="3">
         <v>756600</v>
@@ -5031,25 +5031,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>145300</v>
+        <v>143800</v>
       </c>
       <c r="E62" s="3">
-        <v>94900</v>
+        <v>93900</v>
       </c>
       <c r="F62" s="3">
-        <v>84800</v>
+        <v>83900</v>
       </c>
       <c r="G62" s="3">
-        <v>73100</v>
+        <v>72400</v>
       </c>
       <c r="H62" s="3">
-        <v>61100</v>
+        <v>60400</v>
       </c>
       <c r="I62" s="3">
-        <v>51200</v>
+        <v>50600</v>
       </c>
       <c r="J62" s="3">
-        <v>72400</v>
+        <v>71700</v>
       </c>
       <c r="K62" s="3">
         <v>66600</v>
@@ -5387,25 +5387,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11340700</v>
+        <v>11221800</v>
       </c>
       <c r="E66" s="3">
-        <v>8693800</v>
+        <v>8602600</v>
       </c>
       <c r="F66" s="3">
-        <v>7938800</v>
+        <v>7855500</v>
       </c>
       <c r="G66" s="3">
-        <v>6210100</v>
+        <v>6145000</v>
       </c>
       <c r="H66" s="3">
-        <v>5199700</v>
+        <v>5145100</v>
       </c>
       <c r="I66" s="3">
-        <v>4213000</v>
+        <v>4168800</v>
       </c>
       <c r="J66" s="3">
-        <v>7670100</v>
+        <v>7589600</v>
       </c>
       <c r="K66" s="3">
         <v>5213600</v>
@@ -5865,25 +5865,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2500400</v>
+        <v>2474200</v>
       </c>
       <c r="E72" s="3">
-        <v>2118900</v>
+        <v>2096700</v>
       </c>
       <c r="F72" s="3">
-        <v>1688500</v>
+        <v>1670700</v>
       </c>
       <c r="G72" s="3">
-        <v>1377300</v>
+        <v>1362800</v>
       </c>
       <c r="H72" s="3">
-        <v>1093200</v>
+        <v>1081700</v>
       </c>
       <c r="I72" s="3">
-        <v>965900</v>
+        <v>955800</v>
       </c>
       <c r="J72" s="3">
-        <v>2921000</v>
+        <v>2890400</v>
       </c>
       <c r="K72" s="3">
         <v>1067600</v>
@@ -6221,25 +6221,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2555700</v>
+        <v>2528900</v>
       </c>
       <c r="E76" s="3">
-        <v>2173400</v>
+        <v>2150600</v>
       </c>
       <c r="F76" s="3">
-        <v>1742700</v>
+        <v>1724400</v>
       </c>
       <c r="G76" s="3">
-        <v>1430700</v>
+        <v>1415700</v>
       </c>
       <c r="H76" s="3">
-        <v>1147000</v>
+        <v>1134900</v>
       </c>
       <c r="I76" s="3">
-        <v>1019500</v>
+        <v>1008800</v>
       </c>
       <c r="J76" s="3">
-        <v>1685600</v>
+        <v>1667900</v>
       </c>
       <c r="K76" s="3">
         <v>1148200</v>
@@ -6493,25 +6493,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>165800</v>
+        <v>164100</v>
       </c>
       <c r="E81" s="3">
-        <v>64200</v>
+        <v>63500</v>
       </c>
       <c r="F81" s="3">
-        <v>76000</v>
+        <v>75200</v>
       </c>
       <c r="G81" s="3">
-        <v>32000</v>
+        <v>31700</v>
       </c>
       <c r="H81" s="3">
-        <v>39100</v>
+        <v>38700</v>
       </c>
       <c r="I81" s="3">
-        <v>17400</v>
+        <v>17200</v>
       </c>
       <c r="J81" s="3">
-        <v>69800</v>
+        <v>69000</v>
       </c>
       <c r="K81" s="3">
         <v>74200</v>
@@ -6615,25 +6615,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>33700</v>
+        <v>33300</v>
       </c>
       <c r="E83" s="3">
-        <v>22100</v>
+        <v>21900</v>
       </c>
       <c r="F83" s="3">
-        <v>30400</v>
+        <v>30100</v>
       </c>
       <c r="G83" s="3">
-        <v>22900</v>
+        <v>22700</v>
       </c>
       <c r="H83" s="3">
-        <v>26400</v>
+        <v>26100</v>
       </c>
       <c r="I83" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="J83" s="3">
-        <v>29200</v>
+        <v>28800</v>
       </c>
       <c r="K83" s="3">
         <v>35700</v>
@@ -7149,25 +7149,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-211900</v>
+        <v>-209700</v>
       </c>
       <c r="E89" s="3">
-        <v>-652800</v>
+        <v>-646000</v>
       </c>
       <c r="F89" s="3">
-        <v>316000</v>
+        <v>312700</v>
       </c>
       <c r="G89" s="3">
-        <v>-159500</v>
+        <v>-157900</v>
       </c>
       <c r="H89" s="3">
-        <v>-464300</v>
+        <v>-459400</v>
       </c>
       <c r="I89" s="3">
-        <v>-597300</v>
+        <v>-591000</v>
       </c>
       <c r="J89" s="3">
-        <v>-391200</v>
+        <v>-387100</v>
       </c>
       <c r="K89" s="3">
         <v>576000</v>
@@ -7538,25 +7538,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-25600</v>
+        <v>-25300</v>
       </c>
       <c r="E94" s="3">
-        <v>-17400</v>
+        <v>-17200</v>
       </c>
       <c r="F94" s="3">
-        <v>-18800</v>
+        <v>-18600</v>
       </c>
       <c r="G94" s="3">
-        <v>-18300</v>
+        <v>-18100</v>
       </c>
       <c r="H94" s="3">
-        <v>-16300</v>
+        <v>-16200</v>
       </c>
       <c r="I94" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="J94" s="3">
-        <v>-6600</v>
+        <v>-6500</v>
       </c>
       <c r="K94" s="3">
         <v>-11600</v>
@@ -7660,19 +7660,19 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-135700</v>
+        <v>-134200</v>
       </c>
       <c r="E96" s="3">
-        <v>-23400</v>
+        <v>-23100</v>
       </c>
       <c r="F96" s="3">
-        <v>-10600</v>
+        <v>-10500</v>
       </c>
       <c r="G96" s="3">
-        <v>-24500</v>
+        <v>-24200</v>
       </c>
       <c r="H96" s="3">
-        <v>-36900</v>
+        <v>-36500</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -8016,25 +8016,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-171100</v>
+        <v>-169300</v>
       </c>
       <c r="E100" s="3">
-        <v>-37000</v>
+        <v>-36600</v>
       </c>
       <c r="F100" s="3">
-        <v>39900</v>
+        <v>39500</v>
       </c>
       <c r="G100" s="3">
-        <v>37900</v>
+        <v>37500</v>
       </c>
       <c r="H100" s="3">
-        <v>-11900</v>
+        <v>-11800</v>
       </c>
       <c r="I100" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="J100" s="3">
-        <v>33100</v>
+        <v>32800</v>
       </c>
       <c r="K100" s="3">
         <v>1200</v>
@@ -8105,25 +8105,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>358600</v>
+        <v>354900</v>
       </c>
       <c r="E101" s="3">
-        <v>222600</v>
+        <v>220200</v>
       </c>
       <c r="F101" s="3">
-        <v>220100</v>
+        <v>217800</v>
       </c>
       <c r="G101" s="3">
-        <v>154900</v>
+        <v>153300</v>
       </c>
       <c r="H101" s="3">
-        <v>139200</v>
+        <v>137700</v>
       </c>
       <c r="I101" s="3">
-        <v>48100</v>
+        <v>47600</v>
       </c>
       <c r="J101" s="3">
-        <v>75200</v>
+        <v>74400</v>
       </c>
       <c r="K101" s="3">
         <v>87600</v>
@@ -8194,25 +8194,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-50000</v>
+        <v>-49400</v>
       </c>
       <c r="E102" s="3">
-        <v>-484600</v>
+        <v>-479500</v>
       </c>
       <c r="F102" s="3">
-        <v>557300</v>
+        <v>551400</v>
       </c>
       <c r="G102" s="3">
-        <v>15000</v>
+        <v>14800</v>
       </c>
       <c r="H102" s="3">
-        <v>-353400</v>
+        <v>-349700</v>
       </c>
       <c r="I102" s="3">
-        <v>-543900</v>
+        <v>-538200</v>
       </c>
       <c r="J102" s="3">
-        <v>-297900</v>
+        <v>-294800</v>
       </c>
       <c r="K102" s="3">
         <v>640200</v>
